--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="7230"/>
@@ -11,7 +11,7 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -39,12 +39,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -85,6 +85,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -176,7 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -211,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -387,14 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
@@ -409,7 +410,7 @@
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -432,7 +433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>39820.390277777777</v>
       </c>
@@ -458,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>39821.342361111114</v>
       </c>
@@ -472,11 +473,11 @@
         <v>39821.727777777778</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I22" si="1">(G3-E3)+(C3-A3)</f>
+        <f t="shared" ref="I3:I23" si="1">(G3-E3)+(C3-A3)</f>
         <v>0.35069444444525288</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K22" si="2">IF(OR(WEEKDAY(A3)=7,WEEKDAY(A3)=1),I3,I3-"08:00:00")</f>
+        <f t="shared" ref="K3:K23" si="2">IF(OR(WEEKDAY(A3)=7,WEEKDAY(A3)=1),I3,I3-"08:00:00")</f>
         <v>1.7361111111919569E-2</v>
       </c>
       <c r="L3">
@@ -485,7 +486,7 @@
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>39822.386111111111</v>
       </c>
@@ -511,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>39823.37777777778</v>
       </c>
@@ -537,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>39824.369444444441</v>
       </c>
@@ -563,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>39826.415972222225</v>
       </c>
@@ -589,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>39827.365972222222</v>
       </c>
@@ -615,7 +616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>39828.370833333334</v>
       </c>
@@ -641,7 +642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>39829.382638888892</v>
       </c>
@@ -667,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>39830.338194444441</v>
       </c>
@@ -693,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>39831.427083333336</v>
       </c>
@@ -719,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>39833.432638888888</v>
       </c>
@@ -745,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>39835.40902777778</v>
       </c>
@@ -771,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>39836.433333333334</v>
       </c>
@@ -797,7 +798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>39840.359722222223</v>
       </c>
@@ -823,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>39841.406944444447</v>
       </c>
@@ -849,7 +850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>39842.382638888892</v>
       </c>
@@ -875,7 +876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>39843.39166666667</v>
       </c>
@@ -901,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="6">
         <v>39844.337500000001</v>
       </c>
@@ -927,7 +928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="6">
         <v>39847.373611111114</v>
       </c>
@@ -953,7 +954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="6">
         <v>39848.381944444445</v>
       </c>
@@ -979,55 +980,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
+      <c r="A23" s="6">
+        <v>39849.397222222222</v>
+      </c>
+      <c r="C23" s="6">
+        <v>39849.519444444442</v>
+      </c>
+      <c r="E23" s="6">
+        <v>39849.567361111112</v>
+      </c>
+      <c r="G23" s="6">
+        <v>39849.817361111112</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.37222222222044365</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="2"/>
+        <v>3.888888888711034E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5">
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5">
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5">
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5">
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5">
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5">
       <c r="E39" s="2"/>
     </row>
   </sheetData>
@@ -1037,24 +1057,396 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6">
+        <v>39819.390277777777</v>
+      </c>
+      <c r="B1" s="6">
+        <v>39819.524305555555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6">
+        <v>39819.564583333333</v>
+      </c>
+      <c r="B2" s="6">
+        <v>39819.738194444442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6">
+        <v>39820.342361111114</v>
+      </c>
+      <c r="B3" s="6">
+        <v>39820.542361111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6">
+        <v>39820.57708333333</v>
+      </c>
+      <c r="B4" s="6">
+        <v>39820.727777777778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6">
+        <v>39821.386111111111</v>
+      </c>
+      <c r="B5" s="6">
+        <v>39821.526388888888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6">
+        <v>39821.569444444445</v>
+      </c>
+      <c r="B6" s="6">
+        <v>39821.793055555558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6">
+        <v>39822.37777777778</v>
+      </c>
+      <c r="B7" s="6">
+        <v>39822.536805555559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6">
+        <v>39822.582638888889</v>
+      </c>
+      <c r="B8" s="6">
+        <v>39822.790972222225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6">
+        <v>39823.369444444441</v>
+      </c>
+      <c r="B9" s="6">
+        <v>39823.517361111109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6">
+        <v>39823.5625</v>
+      </c>
+      <c r="B10" s="6">
+        <v>39823.872916666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6">
+        <v>39824.415972222225</v>
+      </c>
+      <c r="B11" s="6">
+        <v>39824.568055555559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6">
+        <v>39824.584027777775</v>
+      </c>
+      <c r="B12" s="6">
+        <v>39824.731944444444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6">
+        <v>39826.365972222222</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6">
+        <v>39826.90625</v>
+      </c>
+      <c r="B14" s="6">
+        <v>39827.370833333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6">
+        <v>39827.370833333334</v>
+      </c>
+      <c r="B15" s="6">
+        <v>39827.512499999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6">
+        <v>39827.555555555555</v>
+      </c>
+      <c r="B16" s="6">
+        <v>39827.847916666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6">
+        <v>39828.382638888892</v>
+      </c>
+      <c r="B17" s="6">
+        <v>39828.505555555559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6">
+        <v>39828.59375</v>
+      </c>
+      <c r="B18" s="6">
+        <v>39828.824999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6">
+        <v>39829.338194444441</v>
+      </c>
+      <c r="B19" s="6">
+        <v>39829.509722222225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6">
+        <v>39829.551388888889</v>
+      </c>
+      <c r="B20" s="6">
+        <v>39829.724999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6">
+        <v>39830.427083333336</v>
+      </c>
+      <c r="B21" s="6">
+        <v>39830.526388888888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6">
+        <v>39830.606944444444</v>
+      </c>
+      <c r="B22" s="6">
+        <v>39830.848611111112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6">
+        <v>39833.432638888888</v>
+      </c>
+      <c r="B23" s="6">
+        <v>39833.540972222225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6">
+        <v>39833.574999999997</v>
+      </c>
+      <c r="B24" s="6">
+        <v>39833.930555555555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6">
+        <v>39834.40902777778</v>
+      </c>
+      <c r="B25" s="6">
+        <v>39834.563888888886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6">
+        <v>39834.602083333331</v>
+      </c>
+      <c r="B26" s="6">
+        <v>39834.818749999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6">
+        <v>39835.433333333334</v>
+      </c>
+      <c r="B27" s="6">
+        <v>39835.532638888886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6">
+        <v>39835.580555555556</v>
+      </c>
+      <c r="B28" s="6">
+        <v>39835.811805555553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6">
+        <v>39836.359722222223</v>
+      </c>
+      <c r="B29" s="6">
+        <v>39836.513888888891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6">
+        <v>39836.568055555559</v>
+      </c>
+      <c r="B30" s="6">
+        <v>39836.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="6">
+        <v>39840.406944444447</v>
+      </c>
+      <c r="B31" s="6">
+        <v>39840.520138888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="6">
+        <v>39840.565972222219</v>
+      </c>
+      <c r="B32" s="6">
+        <v>39840.824305555558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="6">
+        <v>39841.382638888892</v>
+      </c>
+      <c r="B33" s="6">
+        <v>39841.50277777778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="6">
+        <v>39841.536805555559</v>
+      </c>
+      <c r="B34" s="6">
+        <v>39841.789583333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="6">
+        <v>39842.39166666667</v>
+      </c>
+      <c r="B35" s="6">
+        <v>39842.515277777777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="6">
+        <v>39842.566666666666</v>
+      </c>
+      <c r="B36" s="6">
+        <v>39842.833333333336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="6">
+        <v>39843.397916666669</v>
+      </c>
+      <c r="B37" s="6">
+        <v>39843.507638888892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="6">
+        <v>39843.577777777777</v>
+      </c>
+      <c r="B38" s="6">
+        <v>39843.760416666664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="6">
+        <v>39844.337500000001</v>
+      </c>
+      <c r="B39" s="6">
+        <v>39844.520138888889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="6">
+        <v>39844.566666666666</v>
+      </c>
+      <c r="B40" s="6">
+        <v>39844.729861111111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="6">
+        <v>39847.373611111114</v>
+      </c>
+      <c r="B41" s="6">
+        <v>39847.525694444441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="6">
+        <v>39847.570138888892</v>
+      </c>
+      <c r="B42" s="6">
+        <v>39847.82708333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="6">
+        <v>39848.381944444445</v>
+      </c>
+      <c r="B43" s="6">
+        <v>39848.524305555555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="6">
+        <v>39848.575694444444</v>
+      </c>
+      <c r="B44" s="6">
+        <v>39848.804861111108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="6">
+        <v>39849.397222222222</v>
+      </c>
+      <c r="B45" s="6">
+        <v>39849.519444444442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="6">
+        <v>39849.567361111112</v>
+      </c>
+      <c r="B46" s="6">
+        <v>39849.817361111112</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="7230"/>
@@ -11,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Entrada</t>
   </si>
@@ -35,16 +35,19 @@
   <si>
     <t>Extra</t>
   </si>
+  <si>
+    <t>Dia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,16 +55,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -69,30 +98,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -179,6 +243,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -388,14 +454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
@@ -408,1030 +474,1213 @@
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="3.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1">
-        <v>39820.390277777777</v>
-      </c>
-      <c r="C2" s="1">
-        <v>39820.524305555555</v>
-      </c>
-      <c r="E2" s="1">
-        <v>39820.564583333333</v>
-      </c>
-      <c r="G2" s="1">
-        <v>39820.738194444442</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>39819.390277777777</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
+        <v>39819.524305555555</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4">
+        <v>39819.564583333333</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <v>39819.738194444442</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6">
         <f>(G2-E2)+(C2-A2)</f>
         <v>0.30763888888759539</v>
       </c>
-      <c r="K2" s="5">
+      <c r="J2" s="5"/>
+      <c r="K2" s="7">
         <f>IF(OR(WEEKDAY(A2)=7,WEEKDAY(A2)=1),I2,I2-"08:00:00")</f>
         <v>-2.569444444573793E-2</v>
       </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L22" si="0">WEEKDAY(G2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1">
-        <v>39821.342361111114</v>
-      </c>
-      <c r="C3" s="1">
-        <v>39821.542361111111</v>
-      </c>
-      <c r="E3" s="1">
-        <v>39821.57708333333</v>
-      </c>
-      <c r="G3" s="1">
-        <v>39821.727777777778</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I23" si="1">(G3-E3)+(C3-A3)</f>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="str">
+        <f>IF(WEEKDAY(A2)=1,"Domingo",IF(WEEKDAY(A2)=2,"Segunda",IF(WEEKDAY(A2)=3,"Terça",IF(WEEKDAY(A2)=4,"Quarta",IF(WEEKDAY(A2)=5,"Quinta",IF(WEEKDAY(A2)=6,"Sexta",IF(WEEKDAY(A2)=7,"Sábado","Domingo")))))))</f>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>39820.342361111114</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
+        <v>39820.542361111111</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4">
+        <v>39820.57708333333</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>39820.727777777778</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6">
+        <f>(G3-E3)+(C3-A3)</f>
         <v>0.35069444444525288</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K23" si="2">IF(OR(WEEKDAY(A3)=7,WEEKDAY(A3)=1),I3,I3-"08:00:00")</f>
+      <c r="J3" s="5"/>
+      <c r="K3" s="7">
+        <f>IF(OR(WEEKDAY(A3)=7,WEEKDAY(A3)=1),I3,I3-"08:00:00")</f>
         <v>1.7361111111919569E-2</v>
       </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1">
-        <v>39822.386111111111</v>
-      </c>
-      <c r="C4" s="1">
-        <v>39822.526388888888</v>
-      </c>
-      <c r="E4" s="1">
-        <v>39822.569444444445</v>
-      </c>
-      <c r="G4" s="1">
-        <v>39822.793055555558</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="1"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="str">
+        <f t="shared" ref="M3:M24" si="0">IF(WEEKDAY(A3)=1,"Domingo",IF(WEEKDAY(A3)=2,"Segunda",IF(WEEKDAY(A3)=3,"Terça",IF(WEEKDAY(A3)=4,"Quarta",IF(WEEKDAY(A3)=5,"Quinta",IF(WEEKDAY(A3)=6,"Sexta",IF(WEEKDAY(A3)=7,"Sábado","Domingo")))))))</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>39821.386111111111</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>39821.526388888888</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4">
+        <v>39821.569444444445</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>39821.793055555558</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I24" si="1">(G4-E4)+(C4-A4)</f>
         <v>0.36388888888905058</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" si="2"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4:K24" si="2">IF(OR(WEEKDAY(A4)=7,WEEKDAY(A4)=1),I4,I4-"08:00:00")</f>
         <v>3.0555555555717262E-2</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1">
-        <v>39823.37777777778</v>
-      </c>
-      <c r="C5" s="1">
-        <v>39823.536805555559</v>
-      </c>
-      <c r="E5" s="1">
-        <v>39823.582638888889</v>
-      </c>
-      <c r="G5" s="1">
-        <v>39823.790972222225</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>39822.37777777778</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>39822.536805555559</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4">
+        <v>39822.582638888889</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>39822.790972222225</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6">
         <f t="shared" si="1"/>
         <v>0.367361111115315</v>
       </c>
-      <c r="K5" s="5">
+      <c r="J5" s="5"/>
+      <c r="K5" s="7">
         <f t="shared" si="2"/>
         <v>3.4027777781981683E-2</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>39824.369444444441</v>
-      </c>
-      <c r="C6" s="1">
-        <v>39824.517361111109</v>
-      </c>
-      <c r="E6" s="1">
-        <v>39824.5625</v>
-      </c>
-      <c r="G6" s="1">
-        <v>39824.872916666667</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>39823.369444444441</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>39823.517361111109</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4">
+        <v>39823.5625</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>39823.872916666667</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6">
         <f t="shared" si="1"/>
         <v>0.45833333333575865</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.45833333333575865</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1">
-        <v>39826.415972222225</v>
-      </c>
-      <c r="C7" s="1">
-        <v>39826.568055555559</v>
-      </c>
-      <c r="E7" s="1">
-        <v>39826.584027777775</v>
-      </c>
-      <c r="G7" s="1">
-        <v>39826.731944444444</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="J6" s="5"/>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.12500000000242534</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>39824.415972222225</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>39824.568055555559</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4">
+        <v>39824.584027777775</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>39824.731944444444</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>0.30000000000291038</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="2"/>
-        <v>-3.3333333330422932E-2</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1">
-        <v>39827.365972222222</v>
-      </c>
-      <c r="C8" s="1">
-        <v>39827.5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>39827.541666666664</v>
-      </c>
-      <c r="G8" s="1">
-        <v>39827.90625</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.49861111111385981</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="2"/>
-        <v>0.16527777778052649</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>39828.370833333334</v>
-      </c>
-      <c r="C9" s="1">
-        <v>39828.512499999997</v>
-      </c>
-      <c r="E9" s="1">
-        <v>39828.555555555555</v>
-      </c>
-      <c r="G9" s="1">
-        <v>39828.847916666666</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="J7" s="5"/>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.30000000000291038</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Sábado</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>39826.365972222222</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>39826.90625</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8">
+        <v>39826.5</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4">
+        <v>39826.541666666664</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5819444444423425</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.24861111110900919</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>39827.370833333334</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
+        <v>39827.512499999997</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4">
+        <v>39827.555555555555</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>39827.847916666666</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6">
         <f t="shared" si="1"/>
         <v>0.43402777777373558</v>
       </c>
-      <c r="K9" s="5">
+      <c r="J9" s="5"/>
+      <c r="K9" s="7">
         <f t="shared" si="2"/>
         <v>0.10069444444040226</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1">
-        <v>39829.382638888892</v>
-      </c>
-      <c r="C10" s="1">
-        <v>39829.505555555559</v>
-      </c>
-      <c r="E10" s="1">
-        <v>39829.59375</v>
-      </c>
-      <c r="G10" s="1">
-        <v>39829.824999999997</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>39828.382638888892</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>39828.505555555559</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4">
+        <v>39828.59375</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>39828.824999999997</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6">
         <f t="shared" si="1"/>
         <v>0.35416666666424135</v>
       </c>
-      <c r="K10" s="5">
+      <c r="J10" s="5"/>
+      <c r="K10" s="7">
         <f t="shared" si="2"/>
         <v>2.0833333330908033E-2</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1">
-        <v>39830.338194444441</v>
-      </c>
-      <c r="C11" s="1">
-        <v>39830.509722222225</v>
-      </c>
-      <c r="E11" s="1">
-        <v>39830.551388888889</v>
-      </c>
-      <c r="G11" s="1">
-        <v>39830.724999999999</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>39829.338194444441</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
+        <v>39829.509722222225</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4">
+        <v>39829.551388888889</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>39829.724999999999</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6">
         <f t="shared" si="1"/>
         <v>0.34513888889341615</v>
       </c>
-      <c r="K11" s="5">
+      <c r="J11" s="5"/>
+      <c r="K11" s="7">
         <f t="shared" si="2"/>
         <v>1.1805555560082837E-2</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1">
-        <v>39831.427083333336</v>
-      </c>
-      <c r="C12" s="1">
-        <v>39831.526388888888</v>
-      </c>
-      <c r="E12" s="1">
-        <v>39831.606944444444</v>
-      </c>
-      <c r="G12" s="1">
-        <v>39831.848611111112</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>39830.427083333336</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <v>39830.526388888888</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4">
+        <v>39830.606944444444</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>39830.848611111112</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6">
         <f t="shared" si="1"/>
         <v>0.34097222222044365</v>
       </c>
-      <c r="K12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34097222222044365</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1">
+      <c r="J12" s="5"/>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>7.63888888711034E-3</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>39833.432638888888</v>
       </c>
-      <c r="C13" s="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
         <v>39833.540972222225</v>
       </c>
-      <c r="E13" s="1">
+      <c r="D13" s="5"/>
+      <c r="E13" s="4">
         <v>39833.574999999997</v>
       </c>
-      <c r="G13" s="1">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
         <v>39833.930555555555</v>
       </c>
-      <c r="I13" s="2">
+      <c r="H13" s="5"/>
+      <c r="I13" s="6">
         <f t="shared" si="1"/>
         <v>0.46388888889487134</v>
       </c>
-      <c r="K13" s="5">
+      <c r="J13" s="5"/>
+      <c r="K13" s="7">
         <f t="shared" si="2"/>
         <v>0.13055555556153803</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1">
-        <v>39835.40902777778</v>
-      </c>
-      <c r="C14" s="1">
-        <v>39835.563888888886</v>
-      </c>
-      <c r="E14" s="1">
-        <v>39835.602083333331</v>
-      </c>
-      <c r="G14" s="1">
-        <v>39835.818749999999</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>39834.40902777778</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>39834.563888888886</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4">
+        <v>39834.602083333331</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>39834.818749999999</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6">
         <f t="shared" si="1"/>
         <v>0.37152777777373558</v>
       </c>
-      <c r="K14" s="5">
+      <c r="J14" s="5"/>
+      <c r="K14" s="7">
         <f t="shared" si="2"/>
         <v>3.8194444440402264E-2</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1">
-        <v>39836.433333333334</v>
-      </c>
-      <c r="C15" s="1">
-        <v>39836.532638888886</v>
-      </c>
-      <c r="E15" s="1">
-        <v>39836.580555555556</v>
-      </c>
-      <c r="G15" s="1">
-        <v>39836.811805555553</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>39835.433333333334</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
+        <v>39835.532638888886</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4">
+        <v>39835.580555555556</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>39835.811805555553</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6">
         <f t="shared" si="1"/>
         <v>0.33055555554892635</v>
       </c>
-      <c r="K15" s="5">
+      <c r="J15" s="5"/>
+      <c r="K15" s="7">
         <f t="shared" si="2"/>
         <v>-2.7777777844069651E-3</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1">
-        <v>39840.359722222223</v>
-      </c>
-      <c r="C16" s="1">
-        <v>39840.513888888891</v>
-      </c>
-      <c r="E16" s="1">
-        <v>39840.568055555559</v>
-      </c>
-      <c r="G16" s="1">
-        <v>39840.75</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>39836.359722222223</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>39836.513888888891</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4">
+        <v>39836.568055555559</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>39836.75</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6">
         <f t="shared" si="1"/>
         <v>0.33611111110803904</v>
       </c>
-      <c r="K16" s="5">
+      <c r="J16" s="5"/>
+      <c r="K16" s="7">
         <f t="shared" si="2"/>
         <v>2.7777777747057253E-3</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
-        <v>39841.406944444447</v>
-      </c>
-      <c r="C17" s="1">
-        <v>39841.520138888889</v>
-      </c>
-      <c r="E17" s="1">
-        <v>39841.565972222219</v>
-      </c>
-      <c r="G17" s="1">
-        <v>39841.824305555558</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>39840.406944444447</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>39840.520138888889</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4">
+        <v>39840.565972222219</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>39840.824305555558</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6">
         <f t="shared" si="1"/>
         <v>0.37152777778101154</v>
       </c>
-      <c r="K17" s="5">
+      <c r="J17" s="5"/>
+      <c r="K17" s="7">
         <f t="shared" si="2"/>
         <v>3.8194444447678222E-2</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>39842.382638888892</v>
-      </c>
-      <c r="C18" s="1">
-        <v>39842.50277777778</v>
-      </c>
-      <c r="E18" s="1">
-        <v>39842.536805555559</v>
-      </c>
-      <c r="G18" s="1">
-        <v>39842.789583333331</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>39841.382638888892</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>39841.50277777778</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4">
+        <v>39841.536805555559</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>39841.789583333331</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6">
         <f t="shared" si="1"/>
         <v>0.37291666665987577</v>
       </c>
-      <c r="K18" s="5">
+      <c r="J18" s="5"/>
+      <c r="K18" s="7">
         <f t="shared" si="2"/>
         <v>3.9583333326542458E-2</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>39843.39166666667</v>
-      </c>
-      <c r="C19" s="1">
-        <v>39843.515277777777</v>
-      </c>
-      <c r="E19" s="1">
-        <v>39843.566666666666</v>
-      </c>
-      <c r="G19" s="1">
-        <v>39843.833333333336</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>39842.39166666667</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
+        <v>39842.515277777777</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4">
+        <v>39842.566666666666</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>39842.833333333336</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6">
         <f t="shared" si="1"/>
         <v>0.39027777777664596</v>
       </c>
-      <c r="K19" s="5">
+      <c r="J19" s="5"/>
+      <c r="K19" s="7">
         <f t="shared" si="2"/>
         <v>5.6944444443312647E-2</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="6">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>39843.397916666669</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>39843.507638888892</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4">
+        <v>39843.577777777777</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>39843.760416666664</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.29236111111094942</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="7">
+        <f t="shared" si="2"/>
+        <v>-4.0972222222383892E-2</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>39844.337500000001</v>
       </c>
-      <c r="C20" s="6">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4">
         <v>39844.520138888889</v>
       </c>
-      <c r="E20" s="6">
+      <c r="D21" s="5"/>
+      <c r="E21" s="4">
         <v>39844.566666666666</v>
       </c>
-      <c r="G20" s="6">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
         <v>39844.729861111111</v>
       </c>
-      <c r="I20" s="2">
+      <c r="H21" s="5"/>
+      <c r="I21" s="6">
         <f t="shared" si="1"/>
         <v>0.34583333333284827</v>
       </c>
-      <c r="K20" s="5">
+      <c r="J21" s="5"/>
+      <c r="K21" s="7">
         <f t="shared" si="2"/>
         <v>1.2499999999514955E-2</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="6">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>39847.373611111114</v>
       </c>
-      <c r="C21" s="6">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4">
         <v>39847.525694444441</v>
       </c>
-      <c r="E21" s="6">
+      <c r="D22" s="5"/>
+      <c r="E22" s="4">
         <v>39847.570138888892</v>
       </c>
-      <c r="G21" s="6">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
         <v>39847.82708333333</v>
       </c>
-      <c r="I21" s="2">
+      <c r="H22" s="5"/>
+      <c r="I22" s="6">
         <f t="shared" si="1"/>
         <v>0.40902777776500443</v>
       </c>
-      <c r="K21" s="5">
+      <c r="J22" s="5"/>
+      <c r="K22" s="7">
         <f t="shared" si="2"/>
         <v>7.5694444431671115E-2</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="6">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>39848.381944444445</v>
       </c>
-      <c r="C22" s="6">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
         <v>39848.524305555555</v>
       </c>
-      <c r="E22" s="6">
+      <c r="D23" s="5"/>
+      <c r="E23" s="4">
         <v>39848.575694444444</v>
       </c>
-      <c r="G22" s="6">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
         <v>39848.804861111108</v>
       </c>
-      <c r="I22" s="2">
+      <c r="H23" s="5"/>
+      <c r="I23" s="6">
         <f t="shared" si="1"/>
         <v>0.37152777777373558</v>
       </c>
-      <c r="K22" s="5">
+      <c r="J23" s="5"/>
+      <c r="K23" s="7">
         <f t="shared" si="2"/>
         <v>3.8194444440402264E-2</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="6">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>39849.397222222222</v>
       </c>
-      <c r="C23" s="6">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
         <v>39849.519444444442</v>
       </c>
-      <c r="E23" s="6">
+      <c r="D24" s="5"/>
+      <c r="E24" s="4">
         <v>39849.567361111112</v>
       </c>
-      <c r="G23" s="6">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
         <v>39849.817361111112</v>
       </c>
-      <c r="I23" s="2">
+      <c r="H24" s="5"/>
+      <c r="I24" s="6">
         <f t="shared" si="1"/>
         <v>0.37222222222044365</v>
       </c>
-      <c r="K23" s="5">
+      <c r="J24" s="5"/>
+      <c r="K24" s="7">
         <f t="shared" si="2"/>
         <v>3.888888888711034E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="5:5">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="5:5">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="5:5">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="5:5">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="5:5">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
         <v>39819.390277777777</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3">
         <v>39819.524305555555</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6">
+      <c r="E1" s="3">
         <v>39819.564583333333</v>
       </c>
-      <c r="B2" s="6">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3">
         <v>39819.738194444442</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>39820.342361111114</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
         <v>39820.542361111111</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6">
+      <c r="E2" s="3">
         <v>39820.57708333333</v>
       </c>
-      <c r="B4" s="6">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
         <v>39820.727777777778</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>39821.386111111111</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
         <v>39821.526388888888</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6">
+      <c r="E3" s="3">
         <v>39821.569444444445</v>
       </c>
-      <c r="B6" s="6">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>39821.793055555558</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>39822.37777777778</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
         <v>39822.536805555559</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6">
+      <c r="E4" s="3">
         <v>39822.582638888889</v>
       </c>
-      <c r="B8" s="6">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>39822.790972222225</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>39823.369444444441</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
         <v>39823.517361111109</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6">
+      <c r="E5" s="3">
         <v>39823.5625</v>
       </c>
-      <c r="B10" s="6">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
         <v>39823.872916666667</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>39824.415972222225</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>39824.568055555559</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6">
+      <c r="E6" s="3">
         <v>39824.584027777775</v>
       </c>
-      <c r="B12" s="6">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
         <v>39824.731944444444</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>39826.365972222222</v>
       </c>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <v>39826.90625</v>
       </c>
-      <c r="B14" s="6">
+      <c r="E7" s="1">
+        <v>39826.5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3">
+        <v>39826.541666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>39827.370833333334</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6">
-        <v>39827.370833333334</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <v>39827.512499999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6">
+      <c r="E8" s="3">
         <v>39827.555555555555</v>
       </c>
-      <c r="B16" s="6">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
         <v>39827.847916666666</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>39828.382638888892</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <v>39828.505555555559</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6">
+      <c r="E9" s="3">
         <v>39828.59375</v>
       </c>
-      <c r="B18" s="6">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>39828.824999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>39829.338194444441</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
         <v>39829.509722222225</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6">
+      <c r="E10" s="3">
         <v>39829.551388888889</v>
       </c>
-      <c r="B20" s="6">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
         <v>39829.724999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>39830.427083333336</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <v>39830.526388888888</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6">
+      <c r="E11" s="3">
         <v>39830.606944444444</v>
       </c>
-      <c r="B22" s="6">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
         <v>39830.848611111112</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>39833.432638888888</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
         <v>39833.540972222225</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6">
+      <c r="E12" s="3">
         <v>39833.574999999997</v>
       </c>
-      <c r="B24" s="6">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
         <v>39833.930555555555</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>39834.40902777778</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
         <v>39834.563888888886</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6">
+      <c r="E13" s="3">
         <v>39834.602083333331</v>
       </c>
-      <c r="B26" s="6">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
         <v>39834.818749999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>39835.433333333334</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
         <v>39835.532638888886</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6">
+      <c r="E14" s="3">
         <v>39835.580555555556</v>
       </c>
-      <c r="B28" s="6">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
         <v>39835.811805555553</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>39836.359722222223</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <v>39836.513888888891</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6">
+      <c r="E15" s="3">
         <v>39836.568055555559</v>
       </c>
-      <c r="B30" s="6">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
         <v>39836.75</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>39840.406944444447</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
         <v>39840.520138888889</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6">
+      <c r="E16" s="3">
         <v>39840.565972222219</v>
       </c>
-      <c r="B32" s="6">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
         <v>39840.824305555558</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>39841.382638888892</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
         <v>39841.50277777778</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6">
+      <c r="E17" s="3">
         <v>39841.536805555559</v>
       </c>
-      <c r="B34" s="6">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
         <v>39841.789583333331</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>39842.39166666667</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
         <v>39842.515277777777</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="6">
+      <c r="E18" s="3">
         <v>39842.566666666666</v>
       </c>
-      <c r="B36" s="6">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
         <v>39842.833333333336</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>39843.397916666669</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
         <v>39843.507638888892</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="6">
+      <c r="E19" s="3">
         <v>39843.577777777777</v>
       </c>
-      <c r="B38" s="6">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
         <v>39843.760416666664</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>39844.337500000001</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
         <v>39844.520138888889</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6">
+      <c r="E20" s="3">
         <v>39844.566666666666</v>
       </c>
-      <c r="B40" s="6">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
         <v>39844.729861111111</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>39847.373611111114</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
         <v>39847.525694444441</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6">
+      <c r="E21" s="3">
         <v>39847.570138888892</v>
       </c>
-      <c r="B42" s="6">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
         <v>39847.82708333333</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>39848.381944444445</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
         <v>39848.524305555555</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6">
+      <c r="E22" s="3">
         <v>39848.575694444444</v>
       </c>
-      <c r="B44" s="6">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
         <v>39848.804861111108</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>39849.397222222222</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
         <v>39849.519444444442</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="6">
+      <c r="E23" s="3">
         <v>39849.567361111112</v>
       </c>
-      <c r="B46" s="6">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>39849.817361111112</v>
       </c>
     </row>
@@ -1441,12 +1690,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="7230"/>
@@ -11,7 +11,7 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -42,12 +42,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -153,6 +153,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,7 +247,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -278,7 +281,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -454,14 +456,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
@@ -478,7 +481,7 @@
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -507,7 +510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="4">
         <v>39819.390277777777</v>
       </c>
@@ -539,7 +542,7 @@
         <v>Segunda</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="4">
         <v>39820.342361111114</v>
       </c>
@@ -571,7 +574,7 @@
         <v>Terça</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="4">
         <v>39821.386111111111</v>
       </c>
@@ -589,7 +592,7 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I24" si="1">(G4-E4)+(C4-A4)</f>
+        <f t="shared" ref="I4:I25" si="1">(G4-E4)+(C4-A4)</f>
         <v>0.36388888888905058</v>
       </c>
       <c r="J4" s="5"/>
@@ -603,7 +606,7 @@
         <v>Quarta</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="4">
         <v>39822.37777777778</v>
       </c>
@@ -635,7 +638,7 @@
         <v>Quinta</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="4">
         <v>39823.369444444441</v>
       </c>
@@ -667,7 +670,7 @@
         <v>Sexta</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>39824.415972222225</v>
       </c>
@@ -699,7 +702,7 @@
         <v>Sábado</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <v>39826.365972222222</v>
       </c>
@@ -731,7 +734,7 @@
         <v>Segunda</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="4">
         <v>39827.370833333334</v>
       </c>
@@ -763,7 +766,7 @@
         <v>Terça</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="4">
         <v>39828.382638888892</v>
       </c>
@@ -795,7 +798,7 @@
         <v>Quarta</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="4">
         <v>39829.338194444441</v>
       </c>
@@ -827,7 +830,7 @@
         <v>Quinta</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="4">
         <v>39830.427083333336</v>
       </c>
@@ -859,7 +862,7 @@
         <v>Sexta</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="4">
         <v>39833.432638888888</v>
       </c>
@@ -891,7 +894,7 @@
         <v>Segunda</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="4">
         <v>39834.40902777778</v>
       </c>
@@ -923,7 +926,7 @@
         <v>Terça</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="4">
         <v>39835.433333333334</v>
       </c>
@@ -955,7 +958,7 @@
         <v>Quarta</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="4">
         <v>39836.359722222223</v>
       </c>
@@ -987,7 +990,7 @@
         <v>Quinta</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="4">
         <v>39840.406944444447</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>Segunda</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="4">
         <v>39841.382638888892</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>Terça</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="4">
         <v>39842.39166666667</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>Quarta</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="4">
         <v>39843.397916666669</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>Quinta</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="4">
         <v>39844.337500000001</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>Sexta</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="4">
         <v>39847.373611111114</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>Segunda</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="4">
         <v>39848.381944444445</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>Terça</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="4">
         <v>39849.397222222222</v>
       </c>
@@ -1243,52 +1246,81 @@
         <v>Quarta</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
+      <c r="A25" s="11">
+        <v>39850.400000000001</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11">
+        <v>39850.506944444445</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11">
+        <v>39850.548611111109</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11">
+        <v>39850.774305555555</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="6">
+        <f t="shared" si="1"/>
+        <v>0.33263888888905058</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="7">
+        <f t="shared" ref="K25" si="3">IF(OR(WEEKDAY(A25)=7,WEEKDAY(A25)=1),I25,I25-"08:00:00")</f>
+        <v>-6.9444444428273799E-4</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5" t="str">
+        <f t="shared" ref="M25" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5">
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5">
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5">
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5">
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5">
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5">
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5">
       <c r="E40" s="2"/>
     </row>
   </sheetData>
@@ -1298,14 +1330,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
@@ -1316,7 +1348,7 @@
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3">
         <v>39819.390277777777</v>
       </c>
@@ -1332,7 +1364,7 @@
         <v>39819.738194444442</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>39820.342361111114</v>
       </c>
@@ -1348,7 +1380,7 @@
         <v>39820.727777777778</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>39821.386111111111</v>
       </c>
@@ -1364,7 +1396,7 @@
         <v>39821.793055555558</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>39822.37777777778</v>
       </c>
@@ -1380,7 +1412,7 @@
         <v>39822.790972222225</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>39823.369444444441</v>
       </c>
@@ -1396,7 +1428,7 @@
         <v>39823.872916666667</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>39824.415972222225</v>
       </c>
@@ -1412,7 +1444,7 @@
         <v>39824.731944444444</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>39826.365972222222</v>
       </c>
@@ -1428,7 +1460,7 @@
         <v>39826.541666666664</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>39827.370833333334</v>
       </c>
@@ -1444,7 +1476,7 @@
         <v>39827.847916666666</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>39828.382638888892</v>
       </c>
@@ -1460,7 +1492,7 @@
         <v>39828.824999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>39829.338194444441</v>
       </c>
@@ -1476,7 +1508,7 @@
         <v>39829.724999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>39830.427083333336</v>
       </c>
@@ -1492,7 +1524,7 @@
         <v>39830.848611111112</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>39833.432638888888</v>
       </c>
@@ -1508,7 +1540,7 @@
         <v>39833.930555555555</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>39834.40902777778</v>
       </c>
@@ -1524,7 +1556,7 @@
         <v>39834.818749999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>39835.433333333334</v>
       </c>
@@ -1540,7 +1572,7 @@
         <v>39835.811805555553</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>39836.359722222223</v>
       </c>
@@ -1556,7 +1588,7 @@
         <v>39836.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>39840.406944444447</v>
       </c>
@@ -1572,7 +1604,7 @@
         <v>39840.824305555558</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>39841.382638888892</v>
       </c>
@@ -1588,7 +1620,7 @@
         <v>39841.789583333331</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>39842.39166666667</v>
       </c>
@@ -1604,7 +1636,7 @@
         <v>39842.833333333336</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>39843.397916666669</v>
       </c>
@@ -1620,7 +1652,7 @@
         <v>39843.760416666664</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>39844.337500000001</v>
       </c>
@@ -1636,7 +1668,7 @@
         <v>39844.729861111111</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>39847.373611111114</v>
       </c>
@@ -1652,7 +1684,7 @@
         <v>39847.82708333333</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>39848.381944444445</v>
       </c>
@@ -1668,7 +1700,7 @@
         <v>39848.804861111108</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>39849.397222222222</v>
       </c>
@@ -1690,12 +1722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -461,7 +461,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,7 +592,7 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I25" si="1">(G4-E4)+(C4-A4)</f>
+        <f t="shared" ref="I4:I26" si="1">(G4-E4)+(C4-A4)</f>
         <v>0.36388888888905058</v>
       </c>
       <c r="J4" s="5"/>
@@ -1269,17 +1269,46 @@
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="7">
-        <f t="shared" ref="K25" si="3">IF(OR(WEEKDAY(A25)=7,WEEKDAY(A25)=1),I25,I25-"08:00:00")</f>
+        <f t="shared" ref="K25:K26" si="3">IF(OR(WEEKDAY(A25)=7,WEEKDAY(A25)=1),I25,I25-"08:00:00")</f>
         <v>-6.9444444428273799E-4</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="str">
-        <f t="shared" ref="M25" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M25:M26" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="E26" s="2"/>
+      <c r="A26" s="11">
+        <v>39851.35</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11">
+        <v>39851.538194444445</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="11">
+        <v>39851.579861111109</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11">
+        <v>39851.729861111111</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.33819444444816327</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="7">
+        <f t="shared" si="3"/>
+        <v>4.8611111148299524E-3</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Sexta</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="E27" s="2"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -592,7 +592,7 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I26" si="1">(G4-E4)+(C4-A4)</f>
+        <f t="shared" ref="I4:I27" si="1">(G4-E4)+(C4-A4)</f>
         <v>0.36388888888905058</v>
       </c>
       <c r="J4" s="5"/>
@@ -1269,12 +1269,12 @@
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="7">
-        <f t="shared" ref="K25:K26" si="3">IF(OR(WEEKDAY(A25)=7,WEEKDAY(A25)=1),I25,I25-"08:00:00")</f>
+        <f t="shared" ref="K25:K27" si="3">IF(OR(WEEKDAY(A25)=7,WEEKDAY(A25)=1),I25,I25-"08:00:00")</f>
         <v>-6.9444444428273799E-4</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="str">
-        <f t="shared" ref="M25:M26" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M25:M27" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -1311,7 +1311,36 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="E27" s="2"/>
+      <c r="A27" s="11">
+        <v>39856.409722222219</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11">
+        <v>39856.496527777781</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11">
+        <v>39856.536805555559</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11">
+        <v>39856.788888888892</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>0.33888888889487134</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="7">
+        <f t="shared" si="3"/>
+        <v>5.5555555615380281E-3</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Quarta</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="E28" s="2"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -461,7 +461,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,7 +592,7 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I27" si="1">(G4-E4)+(C4-A4)</f>
+        <f t="shared" ref="I4:I28" si="1">(G4-E4)+(C4-A4)</f>
         <v>0.36388888888905058</v>
       </c>
       <c r="J4" s="5"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="str">
-        <f t="shared" ref="M25:M27" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M25:M28" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="7">
-        <f t="shared" si="3"/>
+        <f>IF(OR(WEEKDAY(A27)=7,WEEKDAY(A27)=1),I27,I27-"08:00:00")</f>
         <v>5.5555555615380281E-3</v>
       </c>
       <c r="L27" s="12"/>
@@ -1343,7 +1343,36 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="E28" s="2"/>
+      <c r="A28" s="11">
+        <v>39857.395833333336</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11">
+        <v>39857.518055555556</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11">
+        <v>39857.550694444442</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11">
+        <v>39857.786805555559</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="6">
+        <f t="shared" si="1"/>
+        <v>0.35833333333721384</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="7">
+        <f>IF(OR(WEEKDAY(A28)=7,WEEKDAY(A28)=1),I28,I28-"08:00:00")</f>
+        <v>2.5000000003880529E-2</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Quinta</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="E29" s="2"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -133,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -157,6 +157,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +464,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:M28"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,7 +595,7 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I28" si="1">(G4-E4)+(C4-A4)</f>
+        <f t="shared" ref="I4:I29" si="1">(G4-E4)+(C4-A4)</f>
         <v>0.36388888888905058</v>
       </c>
       <c r="J4" s="5"/>
@@ -1269,12 +1272,12 @@
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="7">
-        <f t="shared" ref="K25:K27" si="3">IF(OR(WEEKDAY(A25)=7,WEEKDAY(A25)=1),I25,I25-"08:00:00")</f>
+        <f t="shared" ref="K25:K26" si="3">IF(OR(WEEKDAY(A25)=7,WEEKDAY(A25)=1),I25,I25-"08:00:00")</f>
         <v>-6.9444444428273799E-4</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="str">
-        <f t="shared" ref="M25:M28" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M25:M29" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -1375,9 +1378,39 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="E29" s="2"/>
+      <c r="A29" s="11">
+        <v>39858.341666666667</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11">
+        <v>39858.536805555559</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11">
+        <v>39858.586111111108</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11">
+        <v>39858.729166666664</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="6">
+        <f t="shared" si="1"/>
+        <v>0.33819444444816327</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="7">
+        <f>IF(OR(WEEKDAY(A29)=7,WEEKDAY(A29)=1),I29,I29-"08:00:00")</f>
+        <v>4.8611111148299524E-3</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Sexta</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
+      <c r="B30" s="13"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:13">

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -133,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -157,9 +157,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +461,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:M29"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1277,7 +1274,7 @@
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="str">
-        <f t="shared" ref="M25:M29" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M25:M30" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -1395,7 +1392,7 @@
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="6">
-        <f t="shared" si="1"/>
+        <f>(G29-E29)+(C29-A29)</f>
         <v>0.33819444444816327</v>
       </c>
       <c r="J29" s="12"/>
@@ -1410,8 +1407,36 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="B30" s="13"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="11">
+        <v>39861.387499999997</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11">
+        <v>39861.513194444444</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11">
+        <v>39861.563888888886</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11">
+        <v>39861.868750000001</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="6">
+        <f>(G30-E30)+(C30-A30)</f>
+        <v>0.43055555556202307</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="7">
+        <f>IF(OR(WEEKDAY(A30)=7,WEEKDAY(A30)=1),I30,I30-"08:00:00")</f>
+        <v>9.7222222228689759E-2</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Segunda</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="E31" s="2"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -461,7 +461,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,7 +592,7 @@
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I29" si="1">(G4-E4)+(C4-A4)</f>
+        <f t="shared" ref="I4:I28" si="1">(G4-E4)+(C4-A4)</f>
         <v>0.36388888888905058</v>
       </c>
       <c r="J4" s="5"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="str">
-        <f t="shared" ref="M25:M30" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M25:M31" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -1439,7 +1439,36 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="E31" s="2"/>
+      <c r="A31" s="11">
+        <v>39862.400694444441</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11">
+        <v>39862.509027777778</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11">
+        <v>39862.554861111108</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="11">
+        <v>39862.804166666669</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="6">
+        <f>(G31-E31)+(C31-A31)</f>
+        <v>0.35763888889778173</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="7">
+        <f>IF(OR(WEEKDAY(A31)=7,WEEKDAY(A31)=1),I31,I31-"08:00:00")</f>
+        <v>2.4305555564448411E-2</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Terça</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="E32" s="2"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -460,8 +460,8 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:M31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="str">
-        <f t="shared" ref="M25:M31" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M25:M34" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -1471,30 +1471,117 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5">
+      <c r="A32" s="11">
+        <v>39863.402083333334</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11">
+        <v>39863.495833333334</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11">
+        <v>39863.54583333333</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="11">
+        <v>39863.89166666667</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="6">
+        <f t="shared" ref="I32:I34" si="5">(G32-E32)+(C32-A32)</f>
+        <v>0.43958333334012423</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="7">
+        <f t="shared" ref="K32:K34" si="6">IF(OR(WEEKDAY(A32)=7,WEEKDAY(A32)=1),I32,I32-"08:00:00")</f>
+        <v>0.10625000000679091</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="11">
+        <v>39864.402083333334</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11">
+        <v>39864.504166666666</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11">
+        <v>39864.572916666664</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11">
+        <v>39864.885416666664</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="6">
+        <f t="shared" si="5"/>
+        <v>0.41458333333139308</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="7">
+        <f t="shared" si="6"/>
+        <v>8.1249999998059763E-2</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="11">
+        <v>39865.388194444444</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11">
+        <v>39865.521527777775</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11">
+        <v>39865.583333333336</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11">
+        <v>39865.804166666669</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="6">
+        <f t="shared" si="5"/>
+        <v>0.35416666666424135</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="K34" s="7">
+        <f t="shared" si="6"/>
+        <v>2.0833333330908033E-2</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="5:5">
+    <row r="36" spans="1:13">
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="5:5">
+    <row r="37" spans="1:13">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="5:5">
+    <row r="38" spans="1:13">
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="5:5">
+    <row r="39" spans="1:13">
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="5:5">
+    <row r="40" spans="1:13">
       <c r="E40" s="2"/>
     </row>
   </sheetData>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -47,7 +47,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +64,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -157,6 +165,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +470,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1552,24 +1561,54 @@
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="6">
-        <f t="shared" si="5"/>
+        <f>(G34-E34)+(C34-A34)</f>
         <v>0.35416666666424135</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="7">
-        <f t="shared" si="6"/>
+        <f>IF(OR(WEEKDAY(A34)=7,WEEKDAY(A34)=1),I34,I34-"08:00:00")</f>
         <v>2.0833333330908033E-2</v>
       </c>
       <c r="L34" s="12"/>
       <c r="M34" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(WEEKDAY(A34)=1,"Domingo",IF(WEEKDAY(A34)=2,"Segunda",IF(WEEKDAY(A34)=3,"Terça",IF(WEEKDAY(A34)=4,"Quarta",IF(WEEKDAY(A34)=5,"Quinta",IF(WEEKDAY(A34)=6,"Sexta",IF(WEEKDAY(A34)=7,"Sábado","Domingo")))))))</f>
         <v>Sexta</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="E35" s="2"/>
+      <c r="A35" s="11">
+        <v>39868.347916666666</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11">
+        <v>39868.515972222223</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11">
+        <v>39868.568055555559</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11">
+        <v>39868.793055555558</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="6">
+        <f>(G35-E35)+(C35-A35)</f>
+        <v>0.39305555555620231</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="7">
+        <f>IF(OR(WEEKDAY(A35)=7,WEEKDAY(A35)=1),I35,I35-"08:00:00")</f>
+        <v>5.9722222222868993E-2</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="5" t="str">
+        <f>IF(WEEKDAY(A35)=1,"Domingo",IF(WEEKDAY(A35)=2,"Segunda",IF(WEEKDAY(A35)=3,"Terça",IF(WEEKDAY(A35)=4,"Quarta",IF(WEEKDAY(A35)=5,"Quinta",IF(WEEKDAY(A35)=6,"Sexta",IF(WEEKDAY(A35)=7,"Sábado","Domingo")))))))</f>
+        <v>Segunda</v>
+      </c>
     </row>
     <row r="36" spans="1:13">
+      <c r="A36" s="13"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:13">

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -47,7 +47,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,14 +64,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -165,7 +157,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +463,8 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1283,7 +1277,7 @@
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="str">
-        <f t="shared" ref="M25:M34" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M25:M33" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -1497,12 +1491,12 @@
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="6">
-        <f t="shared" ref="I32:I34" si="5">(G32-E32)+(C32-A32)</f>
+        <f t="shared" ref="I32:I33" si="5">(G32-E32)+(C32-A32)</f>
         <v>0.43958333334012423</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="7">
-        <f t="shared" ref="K32:K34" si="6">IF(OR(WEEKDAY(A32)=7,WEEKDAY(A32)=1),I32,I32-"08:00:00")</f>
+        <f t="shared" ref="K32:K33" si="6">IF(OR(WEEKDAY(A32)=7,WEEKDAY(A32)=1),I32,I32-"08:00:00")</f>
         <v>0.10625000000679091</v>
       </c>
       <c r="L32" s="12"/>
@@ -1608,13 +1602,71 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="13"/>
-      <c r="E36" s="2"/>
+      <c r="A36" s="11">
+        <v>39869.368750000001</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11">
+        <v>39869.52847222222</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11">
+        <v>39869.581250000003</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11">
+        <v>39869.84097222222</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="6">
+        <f t="shared" ref="I36:I37" si="7">(G36-E36)+(C36-A36)</f>
+        <v>0.41944444443652174</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="K36" s="7">
+        <f t="shared" ref="K36:K37" si="8">IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
+        <v>8.611111110318842E-2</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="5" t="str">
+        <f t="shared" ref="M36:M37" si="9">IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
+        <v>Terça</v>
+      </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="E37" s="2"/>
+      <c r="A37" s="11">
+        <v>39870.415277777778</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="11">
+        <v>39870.541666666664</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11">
+        <v>39870.589583333334</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11">
+        <v>39870.865277777775</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="6">
+        <f t="shared" si="7"/>
+        <v>0.4020833333270275</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="K37" s="7">
+        <f t="shared" si="8"/>
+        <v>6.8749999993694189E-2</v>
+      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Quarta</v>
+      </c>
     </row>
     <row r="38" spans="1:13">
+      <c r="B38" s="13"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:13">

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -157,9 +157,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +462,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1619,17 +1617,17 @@
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="6">
-        <f t="shared" ref="I36:I37" si="7">(G36-E36)+(C36-A36)</f>
+        <f t="shared" ref="I36:I38" si="7">(G36-E36)+(C36-A36)</f>
         <v>0.41944444443652174</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="7">
-        <f t="shared" ref="K36:K37" si="8">IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
+        <f t="shared" ref="K36:K38" si="8">IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
         <v>8.611111110318842E-2</v>
       </c>
       <c r="L36" s="12"/>
       <c r="M36" s="5" t="str">
-        <f t="shared" ref="M36:M37" si="9">IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M36:M38" si="9">IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
         <v>Terça</v>
       </c>
     </row>
@@ -1666,14 +1664,43 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="B38" s="13"/>
-      <c r="E38" s="2"/>
+      <c r="A38" s="11">
+        <v>39871.40902777778</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11">
+        <v>39871.527083333334</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11">
+        <v>39871.601388888892</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11">
+        <v>39871.892361111109</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="6">
+        <f t="shared" si="7"/>
+        <v>0.40902777777228039</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="K38" s="7">
+        <f t="shared" si="8"/>
+        <v>7.5694444438947073E-2</v>
+      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Quinta</v>
+      </c>
     </row>
     <row r="39" spans="1:13">
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:13">
       <c r="E40" s="2"/>
+      <c r="G40" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -136,7 +136,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -158,6 +157,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,11 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,1224 +485,1287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>39819.390277777777</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
         <v>39819.524305555555</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3">
         <v>39819.564583333333</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
         <v>39819.738194444442</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5">
         <f>(G2-E2)+(C2-A2)</f>
         <v>0.30763888888759539</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="7">
+      <c r="J2" s="4"/>
+      <c r="K2" s="6">
         <f>IF(OR(WEEKDAY(A2)=7,WEEKDAY(A2)=1),I2,I2-"08:00:00")</f>
         <v>-2.569444444573793E-2</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="str">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="str">
         <f>IF(WEEKDAY(A2)=1,"Domingo",IF(WEEKDAY(A2)=2,"Segunda",IF(WEEKDAY(A2)=3,"Terça",IF(WEEKDAY(A2)=4,"Quarta",IF(WEEKDAY(A2)=5,"Quinta",IF(WEEKDAY(A2)=6,"Sexta",IF(WEEKDAY(A2)=7,"Sábado","Domingo")))))))</f>
         <v>Segunda</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>39820.342361111114</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
         <v>39820.542361111111</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="3">
         <v>39820.57708333333</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>39820.727777777778</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6">
+      <c r="H3" s="4"/>
+      <c r="I3" s="5">
         <f>(G3-E3)+(C3-A3)</f>
         <v>0.35069444444525288</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="7">
+      <c r="J3" s="4"/>
+      <c r="K3" s="6">
         <f>IF(OR(WEEKDAY(A3)=7,WEEKDAY(A3)=1),I3,I3-"08:00:00")</f>
         <v>1.7361111111919569E-2</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="str">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="str">
         <f t="shared" ref="M3:M24" si="0">IF(WEEKDAY(A3)=1,"Domingo",IF(WEEKDAY(A3)=2,"Segunda",IF(WEEKDAY(A3)=3,"Terça",IF(WEEKDAY(A3)=4,"Quarta",IF(WEEKDAY(A3)=5,"Quinta",IF(WEEKDAY(A3)=6,"Sexta",IF(WEEKDAY(A3)=7,"Sábado","Domingo")))))))</f>
         <v>Terça</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>39821.386111111111</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
         <v>39821.526388888888</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3">
         <v>39821.569444444445</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>39821.793055555558</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5">
         <f t="shared" ref="I4:I28" si="1">(G4-E4)+(C4-A4)</f>
         <v>0.36388888888905058</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="7">
+      <c r="J4" s="4"/>
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K24" si="2">IF(OR(WEEKDAY(A4)=7,WEEKDAY(A4)=1),I4,I4-"08:00:00")</f>
         <v>3.0555555555717262E-2</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="str">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>39822.37777777778</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
         <v>39822.536805555559</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4">
+      <c r="D5" s="4"/>
+      <c r="E5" s="3">
         <v>39822.582638888889</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
         <v>39822.790972222225</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6">
+      <c r="H5" s="4"/>
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>0.367361111115315</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="7">
+      <c r="J5" s="4"/>
+      <c r="K5" s="6">
         <f t="shared" si="2"/>
         <v>3.4027777781981683E-2</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="str">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>39823.369444444441</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>39823.517361111109</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3">
         <v>39823.5625</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
         <v>39823.872916666667</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6">
+      <c r="H6" s="4"/>
+      <c r="I6" s="5">
         <f t="shared" si="1"/>
         <v>0.45833333333575865</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="7">
+      <c r="J6" s="4"/>
+      <c r="K6" s="6">
         <f t="shared" si="2"/>
         <v>0.12500000000242534</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="str">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>39824.415972222225</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <v>39824.568055555559</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4">
+      <c r="D7" s="4"/>
+      <c r="E7" s="3">
         <v>39824.584027777775</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
         <v>39824.731944444444</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6">
+      <c r="H7" s="4"/>
+      <c r="I7" s="5">
         <f t="shared" si="1"/>
         <v>0.30000000000291038</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="7">
+      <c r="J7" s="4"/>
+      <c r="K7" s="6">
         <f t="shared" si="2"/>
         <v>0.30000000000291038</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="str">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Sábado</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>39826.365972222222</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <v>39826.90625</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8">
+      <c r="D8" s="4"/>
+      <c r="E8" s="7">
         <v>39826.5</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="4">
+      <c r="F8" s="7"/>
+      <c r="G8" s="3">
         <v>39826.541666666664</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6">
+      <c r="H8" s="4"/>
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>0.5819444444423425</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="7">
+      <c r="J8" s="4"/>
+      <c r="K8" s="6">
         <f t="shared" si="2"/>
         <v>0.24861111110900919</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="str">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>39827.370833333334</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <v>39827.512499999997</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4">
+      <c r="D9" s="4"/>
+      <c r="E9" s="3">
         <v>39827.555555555555</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>39827.847916666666</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6">
+      <c r="H9" s="4"/>
+      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>0.43402777777373558</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="7">
+      <c r="J9" s="4"/>
+      <c r="K9" s="6">
         <f t="shared" si="2"/>
         <v>0.10069444444040226</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="str">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>39828.382638888892</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
         <v>39828.505555555559</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4">
+      <c r="D10" s="4"/>
+      <c r="E10" s="3">
         <v>39828.59375</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
         <v>39828.824999999997</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6">
+      <c r="H10" s="4"/>
+      <c r="I10" s="5">
         <f t="shared" si="1"/>
         <v>0.35416666666424135</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="7">
+      <c r="J10" s="4"/>
+      <c r="K10" s="6">
         <f t="shared" si="2"/>
         <v>2.0833333330908033E-2</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="str">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>39829.338194444441</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <v>39829.509722222225</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4">
+      <c r="D11" s="4"/>
+      <c r="E11" s="3">
         <v>39829.551388888889</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
         <v>39829.724999999999</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5">
         <f t="shared" si="1"/>
         <v>0.34513888889341615</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="7">
+      <c r="J11" s="4"/>
+      <c r="K11" s="6">
         <f t="shared" si="2"/>
         <v>1.1805555560082837E-2</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="str">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>39830.427083333336</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
         <v>39830.526388888888</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4">
+      <c r="D12" s="4"/>
+      <c r="E12" s="3">
         <v>39830.606944444444</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
         <v>39830.848611111112</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5">
         <f t="shared" si="1"/>
         <v>0.34097222222044365</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="7">
+      <c r="J12" s="4"/>
+      <c r="K12" s="6">
         <f t="shared" si="2"/>
         <v>7.63888888711034E-3</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="str">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>39833.432638888888</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
         <v>39833.540972222225</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4">
+      <c r="D13" s="4"/>
+      <c r="E13" s="3">
         <v>39833.574999999997</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
         <v>39833.930555555555</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6">
+      <c r="H13" s="4"/>
+      <c r="I13" s="5">
         <f t="shared" si="1"/>
         <v>0.46388888889487134</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="7">
+      <c r="J13" s="4"/>
+      <c r="K13" s="6">
         <f t="shared" si="2"/>
         <v>0.13055555556153803</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5" t="str">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>39834.40902777778</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
         <v>39834.563888888886</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4">
+      <c r="D14" s="4"/>
+      <c r="E14" s="3">
         <v>39834.602083333331</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
         <v>39834.818749999999</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6">
+      <c r="H14" s="4"/>
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>0.37152777777373558</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="7">
+      <c r="J14" s="4"/>
+      <c r="K14" s="6">
         <f t="shared" si="2"/>
         <v>3.8194444440402264E-2</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5" t="str">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>39835.433333333334</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <v>39835.532638888886</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4">
+      <c r="D15" s="4"/>
+      <c r="E15" s="3">
         <v>39835.580555555556</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
         <v>39835.811805555553</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6">
+      <c r="H15" s="4"/>
+      <c r="I15" s="5">
         <f t="shared" si="1"/>
         <v>0.33055555554892635</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="7">
+      <c r="J15" s="4"/>
+      <c r="K15" s="6">
         <f t="shared" si="2"/>
         <v>-2.7777777844069651E-3</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="str">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>39836.359722222223</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
         <v>39836.513888888891</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4">
+      <c r="D16" s="4"/>
+      <c r="E16" s="3">
         <v>39836.568055555559</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
         <v>39836.75</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5">
         <f t="shared" si="1"/>
         <v>0.33611111110803904</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="7">
+      <c r="J16" s="4"/>
+      <c r="K16" s="6">
         <f t="shared" si="2"/>
         <v>2.7777777747057253E-3</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5" t="str">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>39840.406944444447</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
         <v>39840.520138888889</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4">
+      <c r="D17" s="4"/>
+      <c r="E17" s="3">
         <v>39840.565972222219</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
         <v>39840.824305555558</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6">
+      <c r="H17" s="4"/>
+      <c r="I17" s="5">
         <f t="shared" si="1"/>
         <v>0.37152777778101154</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="7">
+      <c r="J17" s="4"/>
+      <c r="K17" s="6">
         <f t="shared" si="2"/>
         <v>3.8194444447678222E-2</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5" t="str">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>39841.382638888892</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
         <v>39841.50277777778</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4">
+      <c r="D18" s="4"/>
+      <c r="E18" s="3">
         <v>39841.536805555559</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
         <v>39841.789583333331</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6">
+      <c r="H18" s="4"/>
+      <c r="I18" s="5">
         <f t="shared" si="1"/>
         <v>0.37291666665987577</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="7">
+      <c r="J18" s="4"/>
+      <c r="K18" s="6">
         <f t="shared" si="2"/>
         <v>3.9583333326542458E-2</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5" t="str">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>39842.39166666667</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
         <v>39842.515277777777</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4">
+      <c r="D19" s="4"/>
+      <c r="E19" s="3">
         <v>39842.566666666666</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
         <v>39842.833333333336</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6">
+      <c r="H19" s="4"/>
+      <c r="I19" s="5">
         <f t="shared" si="1"/>
         <v>0.39027777777664596</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="7">
+      <c r="J19" s="4"/>
+      <c r="K19" s="6">
         <f t="shared" si="2"/>
         <v>5.6944444443312647E-2</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="str">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>39843.397916666669</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
         <v>39843.507638888892</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4">
+      <c r="D20" s="4"/>
+      <c r="E20" s="3">
         <v>39843.577777777777</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
         <v>39843.760416666664</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6">
+      <c r="H20" s="4"/>
+      <c r="I20" s="5">
         <f t="shared" si="1"/>
         <v>0.29236111111094942</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="7">
+      <c r="J20" s="4"/>
+      <c r="K20" s="6">
         <f t="shared" si="2"/>
         <v>-4.0972222222383892E-2</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5" t="str">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>39844.337500000001</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
         <v>39844.520138888889</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4">
+      <c r="D21" s="4"/>
+      <c r="E21" s="3">
         <v>39844.566666666666</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
         <v>39844.729861111111</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6">
+      <c r="H21" s="4"/>
+      <c r="I21" s="5">
         <f t="shared" si="1"/>
         <v>0.34583333333284827</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="7">
+      <c r="J21" s="4"/>
+      <c r="K21" s="6">
         <f t="shared" si="2"/>
         <v>1.2499999999514955E-2</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="str">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>39847.373611111114</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
         <v>39847.525694444441</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4">
+      <c r="D22" s="4"/>
+      <c r="E22" s="3">
         <v>39847.570138888892</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
         <v>39847.82708333333</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6">
+      <c r="H22" s="4"/>
+      <c r="I22" s="5">
         <f t="shared" si="1"/>
         <v>0.40902777776500443</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="7">
+      <c r="J22" s="4"/>
+      <c r="K22" s="6">
         <f t="shared" si="2"/>
         <v>7.5694444431671115E-2</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5" t="str">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>39848.381944444445</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
         <v>39848.524305555555</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4">
+      <c r="D23" s="4"/>
+      <c r="E23" s="3">
         <v>39848.575694444444</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>39848.804861111108</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6">
+      <c r="H23" s="4"/>
+      <c r="I23" s="5">
         <f t="shared" si="1"/>
         <v>0.37152777777373558</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="7">
+      <c r="J23" s="4"/>
+      <c r="K23" s="6">
         <f t="shared" si="2"/>
         <v>3.8194444440402264E-2</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5" t="str">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>39849.397222222222</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
         <v>39849.519444444442</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4">
+      <c r="D24" s="4"/>
+      <c r="E24" s="3">
         <v>39849.567361111112</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
         <v>39849.817361111112</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6">
+      <c r="H24" s="4"/>
+      <c r="I24" s="5">
         <f t="shared" si="1"/>
         <v>0.37222222222044365</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="7">
+      <c r="J24" s="4"/>
+      <c r="K24" s="6">
         <f t="shared" si="2"/>
         <v>3.888888888711034E-2</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5" t="str">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>39850.400000000001</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11">
+      <c r="B25" s="11"/>
+      <c r="C25" s="10">
         <v>39850.506944444445</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11">
+      <c r="D25" s="11"/>
+      <c r="E25" s="10">
         <v>39850.548611111109</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11">
+      <c r="F25" s="11"/>
+      <c r="G25" s="10">
         <v>39850.774305555555</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="6">
+      <c r="H25" s="11"/>
+      <c r="I25" s="5">
         <f t="shared" si="1"/>
         <v>0.33263888888905058</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="7">
+      <c r="J25" s="11"/>
+      <c r="K25" s="6">
         <f t="shared" ref="K25:K26" si="3">IF(OR(WEEKDAY(A25)=7,WEEKDAY(A25)=1),I25,I25-"08:00:00")</f>
         <v>-6.9444444428273799E-4</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5" t="str">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="str">
         <f t="shared" ref="M25:M33" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>39851.35</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11">
+      <c r="B26" s="11"/>
+      <c r="C26" s="10">
         <v>39851.538194444445</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11">
+      <c r="D26" s="11"/>
+      <c r="E26" s="10">
         <v>39851.579861111109</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11">
+      <c r="F26" s="11"/>
+      <c r="G26" s="10">
         <v>39851.729861111111</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="6">
+      <c r="H26" s="11"/>
+      <c r="I26" s="5">
         <f t="shared" si="1"/>
         <v>0.33819444444816327</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="7">
+      <c r="J26" s="11"/>
+      <c r="K26" s="6">
         <f t="shared" si="3"/>
         <v>4.8611111148299524E-3</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="5" t="str">
+      <c r="L26" s="11"/>
+      <c r="M26" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>39856.409722222219</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11">
+      <c r="B27" s="11"/>
+      <c r="C27" s="10">
         <v>39856.496527777781</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11">
+      <c r="D27" s="11"/>
+      <c r="E27" s="10">
         <v>39856.536805555559</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="11">
+      <c r="F27" s="11"/>
+      <c r="G27" s="10">
         <v>39856.788888888892</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="6">
+      <c r="H27" s="11"/>
+      <c r="I27" s="5">
         <f t="shared" si="1"/>
         <v>0.33888888889487134</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="7">
+      <c r="J27" s="11"/>
+      <c r="K27" s="6">
         <f>IF(OR(WEEKDAY(A27)=7,WEEKDAY(A27)=1),I27,I27-"08:00:00")</f>
         <v>5.5555555615380281E-3</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="5" t="str">
+      <c r="L27" s="11"/>
+      <c r="M27" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>39857.395833333336</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11">
+      <c r="B28" s="11"/>
+      <c r="C28" s="10">
         <v>39857.518055555556</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11">
+      <c r="D28" s="11"/>
+      <c r="E28" s="10">
         <v>39857.550694444442</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="11">
+      <c r="F28" s="11"/>
+      <c r="G28" s="10">
         <v>39857.786805555559</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="6">
+      <c r="H28" s="11"/>
+      <c r="I28" s="5">
         <f t="shared" si="1"/>
         <v>0.35833333333721384</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="7">
+      <c r="J28" s="11"/>
+      <c r="K28" s="6">
         <f>IF(OR(WEEKDAY(A28)=7,WEEKDAY(A28)=1),I28,I28-"08:00:00")</f>
         <v>2.5000000003880529E-2</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="5" t="str">
+      <c r="L28" s="11"/>
+      <c r="M28" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>39858.341666666667</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11">
+      <c r="B29" s="11"/>
+      <c r="C29" s="10">
         <v>39858.536805555559</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11">
+      <c r="D29" s="11"/>
+      <c r="E29" s="10">
         <v>39858.586111111108</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11">
+      <c r="F29" s="11"/>
+      <c r="G29" s="10">
         <v>39858.729166666664</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="6">
+      <c r="H29" s="11"/>
+      <c r="I29" s="5">
         <f>(G29-E29)+(C29-A29)</f>
         <v>0.33819444444816327</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="7">
+      <c r="J29" s="11"/>
+      <c r="K29" s="6">
         <f>IF(OR(WEEKDAY(A29)=7,WEEKDAY(A29)=1),I29,I29-"08:00:00")</f>
         <v>4.8611111148299524E-3</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="5" t="str">
+      <c r="L29" s="11"/>
+      <c r="M29" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>39861.387499999997</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11">
+      <c r="B30" s="11"/>
+      <c r="C30" s="10">
         <v>39861.513194444444</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11">
+      <c r="D30" s="11"/>
+      <c r="E30" s="10">
         <v>39861.563888888886</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="11">
+      <c r="F30" s="11"/>
+      <c r="G30" s="10">
         <v>39861.868750000001</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="6">
+      <c r="H30" s="11"/>
+      <c r="I30" s="5">
         <f>(G30-E30)+(C30-A30)</f>
         <v>0.43055555556202307</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="7">
+      <c r="J30" s="11"/>
+      <c r="K30" s="6">
         <f>IF(OR(WEEKDAY(A30)=7,WEEKDAY(A30)=1),I30,I30-"08:00:00")</f>
         <v>9.7222222228689759E-2</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="5" t="str">
+      <c r="L30" s="11"/>
+      <c r="M30" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>39862.400694444441</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11">
+      <c r="B31" s="11"/>
+      <c r="C31" s="10">
         <v>39862.509027777778</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11">
+      <c r="D31" s="11"/>
+      <c r="E31" s="10">
         <v>39862.554861111108</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11">
+      <c r="F31" s="11"/>
+      <c r="G31" s="10">
         <v>39862.804166666669</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="6">
+      <c r="H31" s="11"/>
+      <c r="I31" s="5">
         <f>(G31-E31)+(C31-A31)</f>
         <v>0.35763888889778173</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="7">
+      <c r="J31" s="11"/>
+      <c r="K31" s="6">
         <f>IF(OR(WEEKDAY(A31)=7,WEEKDAY(A31)=1),I31,I31-"08:00:00")</f>
         <v>2.4305555564448411E-2</v>
       </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="5" t="str">
+      <c r="L31" s="11"/>
+      <c r="M31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>39863.402083333334</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11">
+      <c r="B32" s="11"/>
+      <c r="C32" s="10">
         <v>39863.495833333334</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="11">
+      <c r="D32" s="11"/>
+      <c r="E32" s="10">
         <v>39863.54583333333</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11">
+      <c r="F32" s="11"/>
+      <c r="G32" s="10">
         <v>39863.89166666667</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="6">
+      <c r="H32" s="11"/>
+      <c r="I32" s="5">
         <f t="shared" ref="I32:I33" si="5">(G32-E32)+(C32-A32)</f>
         <v>0.43958333334012423</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="7">
+      <c r="J32" s="11"/>
+      <c r="K32" s="6">
         <f t="shared" ref="K32:K33" si="6">IF(OR(WEEKDAY(A32)=7,WEEKDAY(A32)=1),I32,I32-"08:00:00")</f>
         <v>0.10625000000679091</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="5" t="str">
+      <c r="L32" s="11"/>
+      <c r="M32" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>39864.402083333334</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11">
+      <c r="B33" s="11"/>
+      <c r="C33" s="10">
         <v>39864.504166666666</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11">
+      <c r="D33" s="11"/>
+      <c r="E33" s="10">
         <v>39864.572916666664</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="11">
+      <c r="F33" s="11"/>
+      <c r="G33" s="10">
         <v>39864.885416666664</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="6">
+      <c r="H33" s="11"/>
+      <c r="I33" s="5">
         <f t="shared" si="5"/>
         <v>0.41458333333139308</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="7">
+      <c r="J33" s="11"/>
+      <c r="K33" s="6">
         <f t="shared" si="6"/>
         <v>8.1249999998059763E-2</v>
       </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="5" t="str">
+      <c r="L33" s="11"/>
+      <c r="M33" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>39865.388194444444</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11">
+      <c r="B34" s="11"/>
+      <c r="C34" s="10">
         <v>39865.521527777775</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11">
+      <c r="D34" s="11"/>
+      <c r="E34" s="10">
         <v>39865.583333333336</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="11">
+      <c r="F34" s="11"/>
+      <c r="G34" s="10">
         <v>39865.804166666669</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="6">
+      <c r="H34" s="11"/>
+      <c r="I34" s="5">
         <f>(G34-E34)+(C34-A34)</f>
         <v>0.35416666666424135</v>
       </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="7">
+      <c r="J34" s="11"/>
+      <c r="K34" s="6">
         <f>IF(OR(WEEKDAY(A34)=7,WEEKDAY(A34)=1),I34,I34-"08:00:00")</f>
         <v>2.0833333330908033E-2</v>
       </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="5" t="str">
+      <c r="L34" s="11"/>
+      <c r="M34" s="4" t="str">
         <f>IF(WEEKDAY(A34)=1,"Domingo",IF(WEEKDAY(A34)=2,"Segunda",IF(WEEKDAY(A34)=3,"Terça",IF(WEEKDAY(A34)=4,"Quarta",IF(WEEKDAY(A34)=5,"Quinta",IF(WEEKDAY(A34)=6,"Sexta",IF(WEEKDAY(A34)=7,"Sábado","Domingo")))))))</f>
         <v>Sexta</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>39868.347916666666</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11">
+      <c r="B35" s="11"/>
+      <c r="C35" s="10">
         <v>39868.515972222223</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11">
+      <c r="D35" s="11"/>
+      <c r="E35" s="10">
         <v>39868.568055555559</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11">
+      <c r="F35" s="11"/>
+      <c r="G35" s="10">
         <v>39868.793055555558</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="6">
+      <c r="H35" s="11"/>
+      <c r="I35" s="5">
         <f>(G35-E35)+(C35-A35)</f>
         <v>0.39305555555620231</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="7">
+      <c r="J35" s="11"/>
+      <c r="K35" s="6">
         <f>IF(OR(WEEKDAY(A35)=7,WEEKDAY(A35)=1),I35,I35-"08:00:00")</f>
         <v>5.9722222222868993E-2</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="5" t="str">
+      <c r="L35" s="11"/>
+      <c r="M35" s="4" t="str">
         <f>IF(WEEKDAY(A35)=1,"Domingo",IF(WEEKDAY(A35)=2,"Segunda",IF(WEEKDAY(A35)=3,"Terça",IF(WEEKDAY(A35)=4,"Quarta",IF(WEEKDAY(A35)=5,"Quinta",IF(WEEKDAY(A35)=6,"Sexta",IF(WEEKDAY(A35)=7,"Sábado","Domingo")))))))</f>
         <v>Segunda</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>39869.368750000001</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11">
+      <c r="B36" s="11"/>
+      <c r="C36" s="10">
         <v>39869.52847222222</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="11">
+      <c r="D36" s="11"/>
+      <c r="E36" s="10">
         <v>39869.581250000003</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="11">
+      <c r="F36" s="11"/>
+      <c r="G36" s="10">
         <v>39869.84097222222</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="6">
-        <f t="shared" ref="I36:I38" si="7">(G36-E36)+(C36-A36)</f>
+      <c r="H36" s="11"/>
+      <c r="I36" s="5">
+        <f t="shared" ref="I36:I40" si="7">(G36-E36)+(C36-A36)</f>
         <v>0.41944444443652174</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="7">
-        <f t="shared" ref="K36:K38" si="8">IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
+      <c r="J36" s="11"/>
+      <c r="K36" s="6">
+        <f t="shared" ref="K36:K40" si="8">IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
         <v>8.611111110318842E-2</v>
       </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="5" t="str">
-        <f t="shared" ref="M36:M38" si="9">IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
+      <c r="L36" s="11"/>
+      <c r="M36" s="4" t="str">
+        <f t="shared" ref="M36:M40" si="9">IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
         <v>Terça</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>39870.415277777778</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11">
+      <c r="B37" s="11"/>
+      <c r="C37" s="10">
         <v>39870.541666666664</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="11">
+      <c r="D37" s="11"/>
+      <c r="E37" s="10">
         <v>39870.589583333334</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="11">
+      <c r="F37" s="11"/>
+      <c r="G37" s="10">
         <v>39870.865277777775</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="6">
+      <c r="H37" s="11"/>
+      <c r="I37" s="5">
         <f t="shared" si="7"/>
         <v>0.4020833333270275</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="7">
+      <c r="J37" s="11"/>
+      <c r="K37" s="6">
         <f t="shared" si="8"/>
         <v>6.8749999993694189E-2</v>
       </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="5" t="str">
+      <c r="L37" s="11"/>
+      <c r="M37" s="4" t="str">
         <f t="shared" si="9"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>39871.40902777778</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11">
+      <c r="B38" s="11"/>
+      <c r="C38" s="10">
         <v>39871.527083333334</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="11">
+      <c r="D38" s="11"/>
+      <c r="E38" s="10">
         <v>39871.601388888892</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="11">
+      <c r="F38" s="11"/>
+      <c r="G38" s="10">
         <v>39871.892361111109</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="6">
+      <c r="H38" s="11"/>
+      <c r="I38" s="5">
         <f t="shared" si="7"/>
         <v>0.40902777777228039</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="7">
+      <c r="J38" s="11"/>
+      <c r="K38" s="6">
         <f t="shared" si="8"/>
         <v>7.5694444438947073E-2</v>
       </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="5" t="str">
+      <c r="L38" s="11"/>
+      <c r="M38" s="4" t="str">
         <f t="shared" si="9"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="E39" s="2"/>
+      <c r="A39" s="10">
+        <v>39872.336805555555</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10">
+        <v>39872.510416666664</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10">
+        <v>39872.563194444447</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10">
+        <v>39872.697916666664</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="5">
+        <f t="shared" si="7"/>
+        <v>0.3083333333270275</v>
+      </c>
+      <c r="J39" s="11"/>
+      <c r="K39" s="6">
+        <f t="shared" si="8"/>
+        <v>-2.5000000006305811E-2</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Sexta</v>
+      </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="E40" s="2"/>
-      <c r="G40" s="13"/>
+      <c r="A40" s="10">
+        <v>39875.369444444441</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10">
+        <v>39875.522222222222</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10">
+        <v>39875.574305555558</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10">
+        <v>39875.88958333333</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="5">
+        <f t="shared" si="7"/>
+        <v>0.46805555555329192</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="6">
+        <f t="shared" si="8"/>
+        <v>0.13472222221995861</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="G42" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1728,370 +1793,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3">
+      <c r="A1" s="2">
         <v>39819.390277777777</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2">
         <v>39819.524305555555</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>39819.564583333333</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2">
         <v>39819.738194444442</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>39820.342361111114</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>39820.542361111111</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>39820.57708333333</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>39820.727777777778</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>39821.386111111111</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>39821.526388888888</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>39821.569444444445</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
         <v>39821.793055555558</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>39822.37777777778</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>39822.536805555559</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>39822.582638888889</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>39822.790972222225</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>39823.369444444441</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
         <v>39823.517361111109</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>39823.5625</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
         <v>39823.872916666667</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>39824.415972222225</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>39824.568055555559</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>39824.584027777775</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
         <v>39824.731944444444</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>39826.365972222222</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
         <v>39826.90625</v>
       </c>
       <c r="E7" s="1">
         <v>39826.5</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>39826.541666666664</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>39827.370833333334</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>39827.512499999997</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>39827.555555555555</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>39827.847916666666</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>39828.382638888892</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
         <v>39828.505555555559</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>39828.59375</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <v>39828.824999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>39829.338194444441</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
         <v>39829.509722222225</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>39829.551388888889</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <v>39829.724999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>39830.427083333336</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
         <v>39830.526388888888</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>39830.606944444444</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
         <v>39830.848611111112</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>39833.432638888888</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>39833.540972222225</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>39833.574999999997</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>39833.930555555555</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>39834.40902777778</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
         <v>39834.563888888886</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>39834.602083333331</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
         <v>39834.818749999999</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>39835.433333333334</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
         <v>39835.532638888886</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>39835.580555555556</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
         <v>39835.811805555553</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>39836.359722222223</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
         <v>39836.513888888891</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>39836.568055555559</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
         <v>39836.75</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>39840.406944444447</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
         <v>39840.520138888889</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>39840.565972222219</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
         <v>39840.824305555558</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>39841.382638888892</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
         <v>39841.50277777778</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>39841.536805555559</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <v>39841.789583333331</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>39842.39166666667</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
         <v>39842.515277777777</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>39842.566666666666</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
         <v>39842.833333333336</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>39843.397916666669</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
         <v>39843.507638888892</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>39843.577777777777</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
         <v>39843.760416666664</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>39844.337500000001</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
         <v>39844.520138888889</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>39844.566666666666</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
         <v>39844.729861111111</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>39847.373611111114</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
         <v>39847.525694444441</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>39847.570138888892</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
         <v>39847.82708333333</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>39848.381944444445</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
         <v>39848.524305555555</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>39848.575694444444</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
         <v>39848.804861111108</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>39849.397222222222</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
         <v>39849.519444444442</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>39849.567361111112</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
         <v>39849.817361111112</v>
       </c>
     </row>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -133,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -157,9 +157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +461,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1619,17 +1616,17 @@
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="5">
-        <f t="shared" ref="I36:I40" si="7">(G36-E36)+(C36-A36)</f>
+        <f t="shared" ref="I36:I41" si="7">(G36-E36)+(C36-A36)</f>
         <v>0.41944444443652174</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="6">
-        <f t="shared" ref="K36:K40" si="8">IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
+        <f t="shared" ref="K36:K41" si="8">IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
         <v>8.611111110318842E-2</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="4" t="str">
-        <f t="shared" ref="M36:M40" si="9">IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M36:M41" si="9">IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
         <v>Terça</v>
       </c>
     </row>
@@ -1762,7 +1759,36 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="B41" s="13"/>
+      <c r="A41" s="10">
+        <v>39876.338194444441</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="10">
+        <v>39876.513194444444</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10">
+        <v>39876.561805555553</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10">
+        <v>39876.834722222222</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="5">
+        <f t="shared" si="7"/>
+        <v>0.44791666667151731</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="6">
+        <f t="shared" si="8"/>
+        <v>0.11458333333818399</v>
+      </c>
+      <c r="L41" s="11"/>
+      <c r="M41" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Terça</v>
+      </c>
     </row>
     <row r="42" spans="1:13">
       <c r="G42" s="12"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -457,11 +457,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:M41"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1794,8 +1797,8 @@
       <c r="G42" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -133,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -156,7 +156,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,11 +459,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:M41"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1619,17 +1618,17 @@
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="5">
-        <f t="shared" ref="I36:I41" si="7">(G36-E36)+(C36-A36)</f>
+        <f t="shared" ref="I36:I44" si="7">(G36-E36)+(C36-A36)</f>
         <v>0.41944444443652174</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="6">
-        <f t="shared" ref="K36:K41" si="8">IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
+        <f t="shared" ref="K36:K44" si="8">IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
         <v>8.611111110318842E-2</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="4" t="str">
-        <f t="shared" ref="M36:M41" si="9">IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M36:M44" si="9">IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
         <v>Terça</v>
       </c>
     </row>
@@ -1794,7 +1793,100 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="G42" s="12"/>
+      <c r="A42" s="10">
+        <v>39877.395138888889</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10">
+        <v>39877.527777777781</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10">
+        <v>39877.579861111109</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10">
+        <v>39877.790972222225</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="5">
+        <f t="shared" si="7"/>
+        <v>0.34375000000727596</v>
+      </c>
+      <c r="J42" s="11"/>
+      <c r="K42" s="6">
+        <f t="shared" si="8"/>
+        <v>1.0416666673942643E-2</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="10">
+        <v>39878.407638888886</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10">
+        <v>39878.508333333331</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10">
+        <v>39878.550694444442</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10">
+        <v>39878.800694444442</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="5">
+        <f t="shared" si="7"/>
+        <v>0.35069444444525288</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="6">
+        <f t="shared" si="8"/>
+        <v>1.7361111111919569E-2</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="10">
+        <v>39879.397222222222</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10">
+        <v>39879.51458333333</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="10">
+        <v>39879.564583333333</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10">
+        <v>39879.74722222222</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="5">
+        <f t="shared" si="7"/>
+        <v>0.29999999999563443</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="6">
+        <f t="shared" si="8"/>
+        <v>-3.3333333337698889E-2</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Sexta</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -13,6 +13,42 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>rbatista</author>
+  </authors>
+  <commentList>
+    <comment ref="A27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Véspera de carnaval</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Manutenção na moto</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47,7 +83,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +105,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -133,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -156,6 +198,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,11 +504,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -594,7 +639,7 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I28" si="1">(G4-E4)+(C4-A4)</f>
+        <f t="shared" ref="I4:I29" si="1">(G4-E4)+(C4-A4)</f>
         <v>0.36388888888905058</v>
       </c>
       <c r="J4" s="4"/>
@@ -1271,12 +1316,12 @@
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="6">
-        <f t="shared" ref="K25:K26" si="3">IF(OR(WEEKDAY(A25)=7,WEEKDAY(A25)=1),I25,I25-"08:00:00")</f>
+        <f t="shared" ref="K25" si="3">IF(OR(WEEKDAY(A25)=7,WEEKDAY(A25)=1),I25,I25-"08:00:00")</f>
         <v>-6.9444444428273799E-4</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="str">
-        <f t="shared" ref="M25:M33" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M25:M34" si="4">IF(WEEKDAY(A25)=1,"Domingo",IF(WEEKDAY(A25)=2,"Segunda",IF(WEEKDAY(A25)=3,"Terça",IF(WEEKDAY(A25)=4,"Quarta",IF(WEEKDAY(A25)=5,"Quinta",IF(WEEKDAY(A25)=6,"Sexta",IF(WEEKDAY(A25)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -1303,7 +1348,7 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="6">
-        <f t="shared" si="3"/>
+        <f>IF(OR(WEEKDAY(A26)=7,WEEKDAY(A26)=1),I26,I26-"08:00:00")</f>
         <v>4.8611111148299524E-3</v>
       </c>
       <c r="L26" s="11"/>
@@ -1314,583 +1359,857 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="10">
-        <v>39856.409722222219</v>
+        <v>39854</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="10">
-        <v>39856.496527777781</v>
-      </c>
+      <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="10">
-        <v>39856.536805555559</v>
-      </c>
+      <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="10">
-        <v>39856.788888888892</v>
-      </c>
+      <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="5">
-        <f t="shared" si="1"/>
-        <v>0.33888888889487134</v>
-      </c>
+      <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="6">
         <f>IF(OR(WEEKDAY(A27)=7,WEEKDAY(A27)=1),I27,I27-"08:00:00")</f>
-        <v>5.5555555615380281E-3</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarta</v>
+        <v>Segunda</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="10">
-        <v>39857.395833333336</v>
+        <v>39856.409722222219</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="10">
-        <v>39857.518055555556</v>
+        <v>39856.496527777781</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="10">
-        <v>39857.550694444442</v>
+        <v>39856.536805555559</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="10">
-        <v>39857.786805555559</v>
+        <v>39856.788888888892</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="5">
         <f t="shared" si="1"/>
-        <v>0.35833333333721384</v>
+        <v>0.33888888889487134</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="6">
         <f>IF(OR(WEEKDAY(A28)=7,WEEKDAY(A28)=1),I28,I28-"08:00:00")</f>
-        <v>2.5000000003880529E-2</v>
+        <v>5.5555555615380281E-3</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quinta</v>
+        <v>Quarta</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="10">
-        <v>39858.341666666667</v>
+        <v>39857.395833333336</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="10">
-        <v>39858.536805555559</v>
+        <v>39857.518055555556</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="10">
-        <v>39858.586111111108</v>
+        <v>39857.550694444442</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="10">
-        <v>39858.729166666664</v>
+        <v>39857.786805555559</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="5">
-        <f>(G29-E29)+(C29-A29)</f>
-        <v>0.33819444444816327</v>
+        <f t="shared" si="1"/>
+        <v>0.35833333333721384</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="6">
         <f>IF(OR(WEEKDAY(A29)=7,WEEKDAY(A29)=1),I29,I29-"08:00:00")</f>
-        <v>4.8611111148299524E-3</v>
+        <v>2.5000000003880529E-2</v>
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Sexta</v>
+        <v>Quinta</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="10">
-        <v>39861.387499999997</v>
+        <v>39858.341666666667</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="10">
-        <v>39861.513194444444</v>
+        <v>39858.536805555559</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="10">
-        <v>39861.563888888886</v>
+        <v>39858.586111111108</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="10">
-        <v>39861.868750000001</v>
+        <v>39858.729166666664</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="5">
         <f>(G30-E30)+(C30-A30)</f>
-        <v>0.43055555556202307</v>
+        <v>0.33819444444816327</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="6">
         <f>IF(OR(WEEKDAY(A30)=7,WEEKDAY(A30)=1),I30,I30-"08:00:00")</f>
-        <v>9.7222222228689759E-2</v>
+        <v>4.8611111148299524E-3</v>
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Segunda</v>
+        <v>Sexta</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="10">
-        <v>39862.400694444441</v>
+        <v>39861.387499999997</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="10">
-        <v>39862.509027777778</v>
+        <v>39861.513194444444</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="10">
-        <v>39862.554861111108</v>
+        <v>39861.563888888886</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="10">
-        <v>39862.804166666669</v>
+        <v>39861.868750000001</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="5">
         <f>(G31-E31)+(C31-A31)</f>
-        <v>0.35763888889778173</v>
+        <v>0.43055555556202307</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="6">
         <f>IF(OR(WEEKDAY(A31)=7,WEEKDAY(A31)=1),I31,I31-"08:00:00")</f>
-        <v>2.4305555564448411E-2</v>
+        <v>9.7222222228689759E-2</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Terça</v>
+        <v>Segunda</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="10">
-        <v>39863.402083333334</v>
+        <v>39862.400694444441</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="10">
-        <v>39863.495833333334</v>
+        <v>39862.509027777778</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="10">
-        <v>39863.54583333333</v>
+        <v>39862.554861111108</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="10">
-        <v>39863.89166666667</v>
+        <v>39862.804166666669</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="5">
-        <f t="shared" ref="I32:I33" si="5">(G32-E32)+(C32-A32)</f>
-        <v>0.43958333334012423</v>
+        <f>(G32-E32)+(C32-A32)</f>
+        <v>0.35763888889778173</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="6">
-        <f t="shared" ref="K32:K33" si="6">IF(OR(WEEKDAY(A32)=7,WEEKDAY(A32)=1),I32,I32-"08:00:00")</f>
-        <v>0.10625000000679091</v>
+        <f>IF(OR(WEEKDAY(A32)=7,WEEKDAY(A32)=1),I32,I32-"08:00:00")</f>
+        <v>2.4305555564448411E-2</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quarta</v>
+        <v>Terça</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="10">
-        <v>39864.402083333334</v>
+        <v>39863.402083333334</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="10">
-        <v>39864.504166666666</v>
+        <v>39863.495833333334</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="10">
-        <v>39864.572916666664</v>
+        <v>39863.54583333333</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="10">
-        <v>39864.885416666664</v>
+        <v>39863.89166666667</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="5">
-        <f t="shared" si="5"/>
-        <v>0.41458333333139308</v>
+        <f t="shared" ref="I33:I34" si="5">(G33-E33)+(C33-A33)</f>
+        <v>0.43958333334012423</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="6">
-        <f t="shared" si="6"/>
-        <v>8.1249999998059763E-2</v>
+        <f t="shared" ref="K33:K34" si="6">IF(OR(WEEKDAY(A33)=7,WEEKDAY(A33)=1),I33,I33-"08:00:00")</f>
+        <v>0.10625000000679091</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Quinta</v>
+        <v>Quarta</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="10">
-        <v>39865.388194444444</v>
+        <v>39864.402083333334</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="10">
-        <v>39865.521527777775</v>
+        <v>39864.504166666666</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="10">
-        <v>39865.583333333336</v>
+        <v>39864.572916666664</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="10">
-        <v>39865.804166666669</v>
+        <v>39864.885416666664</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="5">
-        <f>(G34-E34)+(C34-A34)</f>
-        <v>0.35416666666424135</v>
+        <f t="shared" si="5"/>
+        <v>0.41458333333139308</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="6">
-        <f>IF(OR(WEEKDAY(A34)=7,WEEKDAY(A34)=1),I34,I34-"08:00:00")</f>
-        <v>2.0833333330908033E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.1249999998059763E-2</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="4" t="str">
-        <f>IF(WEEKDAY(A34)=1,"Domingo",IF(WEEKDAY(A34)=2,"Segunda",IF(WEEKDAY(A34)=3,"Terça",IF(WEEKDAY(A34)=4,"Quarta",IF(WEEKDAY(A34)=5,"Quinta",IF(WEEKDAY(A34)=6,"Sexta",IF(WEEKDAY(A34)=7,"Sábado","Domingo")))))))</f>
-        <v>Sexta</v>
+        <f t="shared" si="4"/>
+        <v>Quinta</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="10">
-        <v>39868.347916666666</v>
+        <v>39865.388194444444</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="10">
-        <v>39868.515972222223</v>
+        <v>39865.521527777775</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="10">
-        <v>39868.568055555559</v>
+        <v>39865.583333333336</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="10">
-        <v>39868.793055555558</v>
+        <v>39865.804166666669</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="5">
         <f>(G35-E35)+(C35-A35)</f>
-        <v>0.39305555555620231</v>
+        <v>0.35416666666424135</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="6">
         <f>IF(OR(WEEKDAY(A35)=7,WEEKDAY(A35)=1),I35,I35-"08:00:00")</f>
-        <v>5.9722222222868993E-2</v>
+        <v>2.0833333330908033E-2</v>
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="4" t="str">
         <f>IF(WEEKDAY(A35)=1,"Domingo",IF(WEEKDAY(A35)=2,"Segunda",IF(WEEKDAY(A35)=3,"Terça",IF(WEEKDAY(A35)=4,"Quarta",IF(WEEKDAY(A35)=5,"Quinta",IF(WEEKDAY(A35)=6,"Sexta",IF(WEEKDAY(A35)=7,"Sábado","Domingo")))))))</f>
-        <v>Segunda</v>
+        <v>Sexta</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="10">
-        <v>39869.368750000001</v>
+        <v>39868.347916666666</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="10">
-        <v>39869.52847222222</v>
+        <v>39868.515972222223</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="10">
-        <v>39869.581250000003</v>
+        <v>39868.568055555559</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="10">
-        <v>39869.84097222222</v>
+        <v>39868.793055555558</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="5">
-        <f t="shared" ref="I36:I44" si="7">(G36-E36)+(C36-A36)</f>
-        <v>0.41944444443652174</v>
+        <f>(G36-E36)+(C36-A36)</f>
+        <v>0.39305555555620231</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="6">
-        <f t="shared" ref="K36:K44" si="8">IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
-        <v>8.611111110318842E-2</v>
+        <f>IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
+        <v>5.9722222222868993E-2</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="4" t="str">
-        <f t="shared" ref="M36:M44" si="9">IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
-        <v>Terça</v>
+        <f>IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
+        <v>Segunda</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="10">
-        <v>39870.415277777778</v>
+        <v>39869.368750000001</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="10">
-        <v>39870.541666666664</v>
+        <v>39869.52847222222</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="10">
-        <v>39870.589583333334</v>
+        <v>39869.581250000003</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="10">
-        <v>39870.865277777775</v>
+        <v>39869.84097222222</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="5">
-        <f t="shared" si="7"/>
-        <v>0.4020833333270275</v>
+        <f t="shared" ref="I37:I53" si="7">(G37-E37)+(C37-A37)</f>
+        <v>0.41944444443652174</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="6">
-        <f t="shared" si="8"/>
-        <v>6.8749999993694189E-2</v>
+        <f t="shared" ref="K37:K53" si="8">IF(OR(WEEKDAY(A37)=7,WEEKDAY(A37)=1),I37,I37-"08:00:00")</f>
+        <v>8.611111110318842E-2</v>
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>Quarta</v>
+        <f t="shared" ref="M37:M53" si="9">IF(WEEKDAY(A37)=1,"Domingo",IF(WEEKDAY(A37)=2,"Segunda",IF(WEEKDAY(A37)=3,"Terça",IF(WEEKDAY(A37)=4,"Quarta",IF(WEEKDAY(A37)=5,"Quinta",IF(WEEKDAY(A37)=6,"Sexta",IF(WEEKDAY(A37)=7,"Sábado","Domingo")))))))</f>
+        <v>Terça</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="10">
-        <v>39871.40902777778</v>
+        <v>39870.415277777778</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="10">
-        <v>39871.527083333334</v>
+        <v>39870.541666666664</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="10">
-        <v>39871.601388888892</v>
+        <v>39870.589583333334</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="10">
-        <v>39871.892361111109</v>
+        <v>39870.865277777775</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="5">
         <f t="shared" si="7"/>
-        <v>0.40902777777228039</v>
+        <v>0.4020833333270275</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="6">
         <f t="shared" si="8"/>
-        <v>7.5694444438947073E-2</v>
+        <v>6.8749999993694189E-2</v>
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quinta</v>
+        <v>Quarta</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="10">
-        <v>39872.336805555555</v>
+        <v>39871.40902777778</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="10">
-        <v>39872.510416666664</v>
+        <v>39871.527083333334</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="10">
-        <v>39872.563194444447</v>
+        <v>39871.601388888892</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="10">
-        <v>39872.697916666664</v>
+        <v>39871.892361111109</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="5">
         <f t="shared" si="7"/>
-        <v>0.3083333333270275</v>
+        <v>0.40902777777228039</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="6">
         <f t="shared" si="8"/>
-        <v>-2.5000000006305811E-2</v>
+        <v>7.5694444438947073E-2</v>
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Sexta</v>
+        <v>Quinta</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="10">
-        <v>39875.369444444441</v>
+        <v>39872.336805555555</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="10">
-        <v>39875.522222222222</v>
+        <v>39872.510416666664</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="10">
-        <v>39875.574305555558</v>
+        <v>39872.563194444447</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10">
-        <v>39875.88958333333</v>
+        <v>39872.697916666664</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="5">
         <f t="shared" si="7"/>
-        <v>0.46805555555329192</v>
+        <v>0.3083333333270275</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="6">
         <f t="shared" si="8"/>
-        <v>0.13472222221995861</v>
+        <v>-2.5000000006305811E-2</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Segunda</v>
+        <v>Sexta</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="10">
-        <v>39876.338194444441</v>
+        <v>39875.369444444441</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="10">
-        <v>39876.513194444444</v>
+        <v>39875.522222222222</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="10">
-        <v>39876.561805555553</v>
+        <v>39875.574305555558</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="10">
-        <v>39876.834722222222</v>
+        <v>39875.88958333333</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="5">
         <f t="shared" si="7"/>
-        <v>0.44791666667151731</v>
+        <v>0.46805555555329192</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="6">
         <f t="shared" si="8"/>
-        <v>0.11458333333818399</v>
+        <v>0.13472222221995861</v>
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Terça</v>
+        <v>Segunda</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="10">
-        <v>39877.395138888889</v>
+        <v>39876.338194444441</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="10">
-        <v>39877.527777777781</v>
+        <v>39876.513194444444</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="10">
-        <v>39877.579861111109</v>
+        <v>39876.561805555553</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="10">
-        <v>39877.790972222225</v>
+        <v>39876.834722222222</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="5">
         <f t="shared" si="7"/>
-        <v>0.34375000000727596</v>
+        <v>0.44791666667151731</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="6">
         <f t="shared" si="8"/>
-        <v>1.0416666673942643E-2</v>
+        <v>0.11458333333818399</v>
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quarta</v>
+        <v>Terça</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="10">
-        <v>39878.407638888886</v>
+        <v>39877.395138888889</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="10">
-        <v>39878.508333333331</v>
+        <v>39877.527777777781</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="10">
-        <v>39878.550694444442</v>
+        <v>39877.579861111109</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="10">
-        <v>39878.800694444442</v>
+        <v>39877.790972222225</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="5">
         <f t="shared" si="7"/>
-        <v>0.35069444444525288</v>
+        <v>0.34375000000727596</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="6">
         <f t="shared" si="8"/>
-        <v>1.7361111111919569E-2</v>
+        <v>1.0416666673942643E-2</v>
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>Quinta</v>
+        <v>Quarta</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="10">
-        <v>39879.397222222222</v>
+        <v>39878.407638888886</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="10">
-        <v>39879.51458333333</v>
+        <v>39878.508333333331</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="10">
-        <v>39879.564583333333</v>
+        <v>39878.550694444442</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="10">
-        <v>39879.74722222222</v>
+        <v>39878.800694444442</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="5">
         <f t="shared" si="7"/>
-        <v>0.29999999999563443</v>
+        <v>0.35069444444525288</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="6">
         <f t="shared" si="8"/>
-        <v>-3.3333333337698889E-2</v>
+        <v>1.7361111111919569E-2</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="4" t="str">
         <f t="shared" si="9"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="10">
+        <v>39879.397222222222</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="10">
+        <v>39879.51458333333</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="10">
+        <v>39879.564583333333</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10">
+        <v>39879.74722222222</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="5">
+        <f t="shared" si="7"/>
+        <v>0.29999999999563443</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="6">
+        <f t="shared" si="8"/>
+        <v>-3.3333333337698889E-2</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="4" t="str">
+        <f t="shared" si="9"/>
         <v>Sexta</v>
       </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="10">
+        <v>39882.407638888886</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="10">
+        <v>39882.51666666667</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="10">
+        <v>39882.564583333333</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="10">
+        <v>39882.875</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="5">
+        <f t="shared" si="7"/>
+        <v>0.41944444445107365</v>
+      </c>
+      <c r="J46" s="11"/>
+      <c r="K46" s="6">
+        <f t="shared" si="8"/>
+        <v>8.6111111117740335E-2</v>
+      </c>
+      <c r="L46" s="11"/>
+      <c r="M46" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="10">
+        <v>39883.405555555553</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="10">
+        <v>39883.51666666667</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="10">
+        <v>39883.565972222219</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="10">
+        <v>39883.796527777777</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="5">
+        <f t="shared" si="7"/>
+        <v>0.34166666667442769</v>
+      </c>
+      <c r="J47" s="11"/>
+      <c r="K47" s="6">
+        <f t="shared" si="8"/>
+        <v>8.3333333410943733E-3</v>
+      </c>
+      <c r="L47" s="11"/>
+      <c r="M47" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="10">
+        <v>39884.40347222222</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="10">
+        <v>39884.530555555553</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="10">
+        <v>39884.588194444441</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="10">
+        <v>39884.793749999997</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="5">
+        <f t="shared" si="7"/>
+        <v>0.33263888888905058</v>
+      </c>
+      <c r="J48" s="11"/>
+      <c r="K48" s="6">
+        <f t="shared" si="8"/>
+        <v>-6.9444444428273799E-4</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="10">
+        <v>39885.347222222219</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10">
+        <v>39885.511805555558</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="10">
+        <v>39885.560416666667</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="10">
+        <v>39885.888888888891</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="5">
+        <f t="shared" si="7"/>
+        <v>0.49305555556202307</v>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="6">
+        <f t="shared" si="8"/>
+        <v>0.15972222222868976</v>
+      </c>
+      <c r="L49" s="11"/>
+      <c r="M49" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="10">
+        <v>39886</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="6">
+        <f t="shared" si="8"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="L50" s="11"/>
+      <c r="M50" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="10">
+        <v>39889.413194444445</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="10">
+        <v>39889.513888888891</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="10">
+        <v>39889.563194444447</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10">
+        <v>39889.795138888891</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="5">
+        <f t="shared" si="7"/>
+        <v>0.33263888888905058</v>
+      </c>
+      <c r="J51" s="11"/>
+      <c r="K51" s="6">
+        <f t="shared" si="8"/>
+        <v>-6.9444444428273799E-4</v>
+      </c>
+      <c r="L51" s="11"/>
+      <c r="M51" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="10">
+        <v>39890.410416666666</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10">
+        <v>39890.515972222223</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="10">
+        <v>39890.560416666667</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="10">
+        <v>39890.795138888891</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="5">
+        <f t="shared" si="7"/>
+        <v>0.34027777778101154</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="6">
+        <f t="shared" si="8"/>
+        <v>6.9444444476782219E-3</v>
+      </c>
+      <c r="L52" s="11"/>
+      <c r="M52" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="10">
+        <v>39891.408333333333</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10">
+        <v>39891.512499999997</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="10">
+        <v>39891.5625</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="10">
+        <v>39891.792361111111</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="5">
+        <f t="shared" si="7"/>
+        <v>0.33402777777519077</v>
+      </c>
+      <c r="J53" s="11"/>
+      <c r="K53" s="6">
+        <f t="shared" si="8"/>
+        <v>6.944444418574558E-4</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="C54" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -83,7 +83,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +111,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -198,9 +206,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,11 +510,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1348,7 +1354,7 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="6">
-        <f>IF(OR(WEEKDAY(A26)=7,WEEKDAY(A26)=1),I26,I26-"08:00:00")</f>
+        <f t="shared" ref="K26:K32" si="5">IF(OR(WEEKDAY(A26)=7,WEEKDAY(A26)=1),I26,I26-"08:00:00")</f>
         <v>4.8611111148299524E-3</v>
       </c>
       <c r="L26" s="11"/>
@@ -1371,7 +1377,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="6">
-        <f>IF(OR(WEEKDAY(A27)=7,WEEKDAY(A27)=1),I27,I27-"08:00:00")</f>
+        <f t="shared" si="5"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="L27" s="11"/>
@@ -1403,7 +1409,7 @@
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="6">
-        <f>IF(OR(WEEKDAY(A28)=7,WEEKDAY(A28)=1),I28,I28-"08:00:00")</f>
+        <f t="shared" si="5"/>
         <v>5.5555555615380281E-3</v>
       </c>
       <c r="L28" s="11"/>
@@ -1435,7 +1441,7 @@
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="6">
-        <f>IF(OR(WEEKDAY(A29)=7,WEEKDAY(A29)=1),I29,I29-"08:00:00")</f>
+        <f t="shared" si="5"/>
         <v>2.5000000003880529E-2</v>
       </c>
       <c r="L29" s="11"/>
@@ -1467,7 +1473,7 @@
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="6">
-        <f>IF(OR(WEEKDAY(A30)=7,WEEKDAY(A30)=1),I30,I30-"08:00:00")</f>
+        <f t="shared" si="5"/>
         <v>4.8611111148299524E-3</v>
       </c>
       <c r="L30" s="11"/>
@@ -1499,7 +1505,7 @@
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="6">
-        <f>IF(OR(WEEKDAY(A31)=7,WEEKDAY(A31)=1),I31,I31-"08:00:00")</f>
+        <f t="shared" si="5"/>
         <v>9.7222222228689759E-2</v>
       </c>
       <c r="L31" s="11"/>
@@ -1531,7 +1537,7 @@
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="6">
-        <f>IF(OR(WEEKDAY(A32)=7,WEEKDAY(A32)=1),I32,I32-"08:00:00")</f>
+        <f t="shared" si="5"/>
         <v>2.4305555564448411E-2</v>
       </c>
       <c r="L32" s="11"/>
@@ -1558,12 +1564,12 @@
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="5">
-        <f t="shared" ref="I33:I34" si="5">(G33-E33)+(C33-A33)</f>
+        <f t="shared" ref="I33:I34" si="6">(G33-E33)+(C33-A33)</f>
         <v>0.43958333334012423</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="6">
-        <f t="shared" ref="K33:K34" si="6">IF(OR(WEEKDAY(A33)=7,WEEKDAY(A33)=1),I33,I33-"08:00:00")</f>
+        <f t="shared" ref="K33:K34" si="7">IF(OR(WEEKDAY(A33)=7,WEEKDAY(A33)=1),I33,I33-"08:00:00")</f>
         <v>0.10625000000679091</v>
       </c>
       <c r="L33" s="11"/>
@@ -1590,12 +1596,12 @@
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41458333333139308</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.1249999998059763E-2</v>
       </c>
       <c r="L34" s="11"/>
@@ -1686,17 +1692,17 @@
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="5">
-        <f t="shared" ref="I37:I53" si="7">(G37-E37)+(C37-A37)</f>
+        <f t="shared" ref="I37:I53" si="8">(G37-E37)+(C37-A37)</f>
         <v>0.41944444443652174</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="6">
-        <f t="shared" ref="K37:K53" si="8">IF(OR(WEEKDAY(A37)=7,WEEKDAY(A37)=1),I37,I37-"08:00:00")</f>
+        <f t="shared" ref="K37:K53" si="9">IF(OR(WEEKDAY(A37)=7,WEEKDAY(A37)=1),I37,I37-"08:00:00")</f>
         <v>8.611111110318842E-2</v>
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="4" t="str">
-        <f t="shared" ref="M37:M53" si="9">IF(WEEKDAY(A37)=1,"Domingo",IF(WEEKDAY(A37)=2,"Segunda",IF(WEEKDAY(A37)=3,"Terça",IF(WEEKDAY(A37)=4,"Quarta",IF(WEEKDAY(A37)=5,"Quinta",IF(WEEKDAY(A37)=6,"Sexta",IF(WEEKDAY(A37)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M37:M53" si="10">IF(WEEKDAY(A37)=1,"Domingo",IF(WEEKDAY(A37)=2,"Segunda",IF(WEEKDAY(A37)=3,"Terça",IF(WEEKDAY(A37)=4,"Quarta",IF(WEEKDAY(A37)=5,"Quinta",IF(WEEKDAY(A37)=6,"Sexta",IF(WEEKDAY(A37)=7,"Sábado","Domingo")))))))</f>
         <v>Terça</v>
       </c>
     </row>
@@ -1718,17 +1724,17 @@
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4020833333270275</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.8749999993694189E-2</v>
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Quarta</v>
       </c>
     </row>
@@ -1750,17 +1756,17 @@
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.40902777777228039</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.5694444438947073E-2</v>
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Quinta</v>
       </c>
     </row>
@@ -1782,17 +1788,17 @@
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.3083333333270275</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.5000000006305811E-2</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Sexta</v>
       </c>
     </row>
@@ -1814,17 +1820,17 @@
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.46805555555329192</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13472222221995861</v>
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Segunda</v>
       </c>
     </row>
@@ -1846,17 +1852,17 @@
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.44791666667151731</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11458333333818399</v>
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Terça</v>
       </c>
     </row>
@@ -1878,17 +1884,17 @@
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34375000000727596</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0416666673942643E-2</v>
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Quarta</v>
       </c>
     </row>
@@ -1910,17 +1916,17 @@
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.35069444444525288</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7361111111919569E-2</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Quinta</v>
       </c>
     </row>
@@ -1942,17 +1948,17 @@
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29999999999563443</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.3333333337698889E-2</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Sexta</v>
       </c>
     </row>
@@ -1974,17 +1980,17 @@
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.41944444445107365</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.6111111117740335E-2</v>
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Segunda</v>
       </c>
     </row>
@@ -2006,17 +2012,17 @@
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34166666667442769</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.3333333410943733E-3</v>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Terça</v>
       </c>
     </row>
@@ -2038,17 +2044,17 @@
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33263888888905058</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6.9444444428273799E-4</v>
       </c>
       <c r="L48" s="11"/>
       <c r="M48" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Quarta</v>
       </c>
     </row>
@@ -2070,17 +2076,17 @@
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.49305555556202307</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15972222222868976</v>
       </c>
       <c r="L49" s="11"/>
       <c r="M49" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Quinta</v>
       </c>
     </row>
@@ -2098,12 +2104,12 @@
       <c r="I50" s="5"/>
       <c r="J50" s="11"/>
       <c r="K50" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Sexta</v>
       </c>
     </row>
@@ -2125,17 +2131,17 @@
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33263888888905058</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6.9444444428273799E-4</v>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Segunda</v>
       </c>
     </row>
@@ -2157,17 +2163,17 @@
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34027777778101154</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.9444444476782219E-3</v>
       </c>
       <c r="L52" s="11"/>
       <c r="M52" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Terça</v>
       </c>
     </row>
@@ -2189,22 +2195,54 @@
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.33402777777519077</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.944444418574558E-4</v>
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="C54" s="12"/>
+      <c r="A54" s="10">
+        <v>39892.408333333333</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="10">
+        <v>39892.495138888888</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10">
+        <v>39892.566666666666</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10">
+        <v>39892.793055555558</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="5">
+        <f t="shared" ref="I54" si="11">(G54-E54)+(C54-A54)</f>
+        <v>0.31319444444670808</v>
+      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="6">
+        <f t="shared" ref="K54" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
+        <v>-2.0138888886625239E-2</v>
+      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="4" t="str">
+        <f t="shared" ref="M54" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -83,7 +83,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +111,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -206,7 +198,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,11 +502,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2227,22 +2219,86 @@
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="5">
-        <f t="shared" ref="I54" si="11">(G54-E54)+(C54-A54)</f>
+        <f t="shared" ref="I54:I56" si="11">(G54-E54)+(C54-A54)</f>
         <v>0.31319444444670808</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="6">
-        <f t="shared" ref="K54" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
+        <f t="shared" ref="K54:K56" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
         <v>-2.0138888886625239E-2</v>
       </c>
       <c r="L54" s="11"/>
       <c r="M54" s="4" t="str">
-        <f t="shared" ref="M54" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M54:M56" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="12"/>
+      <c r="A55" s="10">
+        <v>39893.338888888888</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="10">
+        <v>39893.508333333331</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="10">
+        <v>39893.546527777777</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10">
+        <v>39893.68472222222</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="5">
+        <f t="shared" si="11"/>
+        <v>0.30763888888759539</v>
+      </c>
+      <c r="J55" s="11"/>
+      <c r="K55" s="6">
+        <f t="shared" si="12"/>
+        <v>-2.569444444573793E-2</v>
+      </c>
+      <c r="L55" s="11"/>
+      <c r="M55" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="10">
+        <v>39896.398611111108</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="10">
+        <v>39896.510416666664</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="10">
+        <v>39896.565972222219</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="10">
+        <v>39896.782638888886</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="5">
+        <f t="shared" si="11"/>
+        <v>0.32847222222335404</v>
+      </c>
+      <c r="J56" s="11"/>
+      <c r="K56" s="6">
+        <f t="shared" si="12"/>
+        <v>-4.861111109979277E-3</v>
+      </c>
+      <c r="L56" s="11"/>
+      <c r="M56" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -198,7 +198,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,11 +504,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2219,17 +2221,17 @@
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="5">
-        <f t="shared" ref="I54:I56" si="11">(G54-E54)+(C54-A54)</f>
+        <f t="shared" ref="I54:I68" si="11">(G54-E54)+(C54-A54)</f>
         <v>0.31319444444670808</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="6">
-        <f t="shared" ref="K54:K56" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
+        <f t="shared" ref="K54:K68" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
         <v>-2.0138888886625239E-2</v>
       </c>
       <c r="L54" s="11"/>
       <c r="M54" s="4" t="str">
-        <f t="shared" ref="M54:M56" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M54:M68" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -2298,7 +2300,391 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="12"/>
+      <c r="A57" s="10">
+        <v>39897.394444444442</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="10">
+        <v>39897.518750000003</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="10">
+        <v>39897.571527777778</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="10">
+        <v>39897.776388888888</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="5">
+        <f t="shared" si="11"/>
+        <v>0.32916666667006211</v>
+      </c>
+      <c r="J57" s="11"/>
+      <c r="K57" s="6">
+        <f t="shared" si="12"/>
+        <v>-4.1666666632712013E-3</v>
+      </c>
+      <c r="L57" s="11"/>
+      <c r="M57" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="10">
+        <v>39898.401388888888</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="10">
+        <v>39898.519444444442</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="10">
+        <v>39898.579861111109</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="10">
+        <v>39898.799305555556</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.33750000000145519</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="6">
+        <f t="shared" si="12"/>
+        <v>4.1666666681218767E-3</v>
+      </c>
+      <c r="L58" s="11"/>
+      <c r="M58" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="10">
+        <v>39899.319444444445</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="10">
+        <v>39899.513888888891</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="10">
+        <v>39899.554166666669</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="10">
+        <v>39899.697916666664</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.33819444444088731</v>
+      </c>
+      <c r="J59" s="11"/>
+      <c r="K59" s="6">
+        <f t="shared" si="12"/>
+        <v>4.8611111075539948E-3</v>
+      </c>
+      <c r="L59" s="11"/>
+      <c r="M59" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="10">
+        <v>39903.402083333334</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="10">
+        <v>39903.509722222225</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="10">
+        <v>39903.551388888889</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="10">
+        <v>39903.805555555555</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="5">
+        <f t="shared" si="11"/>
+        <v>0.36180555555620231</v>
+      </c>
+      <c r="J60" s="11"/>
+      <c r="K60" s="6">
+        <f t="shared" si="12"/>
+        <v>2.8472222222868993E-2</v>
+      </c>
+      <c r="L60" s="11"/>
+      <c r="M60" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="10">
+        <v>39904.404166666667</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="10">
+        <v>39904.511111111111</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="10">
+        <v>39904.544444444444</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="10">
+        <v>39904.854861111111</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="5">
+        <f t="shared" si="11"/>
+        <v>0.41736111111094942</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="6">
+        <f t="shared" si="12"/>
+        <v>8.4027777777616108E-2</v>
+      </c>
+      <c r="L61" s="11"/>
+      <c r="M61" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="10">
+        <v>39905.40902777778</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="10">
+        <v>39905.526388888888</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="10">
+        <v>39905.570833333331</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="10">
+        <v>39905.836805555555</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="5">
+        <f t="shared" si="11"/>
+        <v>0.38333333333139308</v>
+      </c>
+      <c r="J62" s="11"/>
+      <c r="K62" s="6">
+        <f t="shared" si="12"/>
+        <v>4.9999999998059763E-2</v>
+      </c>
+      <c r="L62" s="11"/>
+      <c r="M62" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="10">
+        <v>39906.408333333333</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="10">
+        <v>39906.518750000003</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="10">
+        <v>39906.563888888886</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="10">
+        <v>39906.830555555556</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="5">
+        <f t="shared" si="11"/>
+        <v>0.37708333334012423</v>
+      </c>
+      <c r="J63" s="11"/>
+      <c r="K63" s="6">
+        <f t="shared" si="12"/>
+        <v>4.3750000006790912E-2</v>
+      </c>
+      <c r="L63" s="11"/>
+      <c r="M63" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="10">
+        <v>39907.327777777777</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="10">
+        <v>39907.522222222222</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="10">
+        <v>39907.565972222219</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="10">
+        <v>39907.717361111114</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="5">
+        <f t="shared" si="11"/>
+        <v>0.34583333334012423</v>
+      </c>
+      <c r="J64" s="11"/>
+      <c r="K64" s="6">
+        <f t="shared" si="12"/>
+        <v>1.2500000006790912E-2</v>
+      </c>
+      <c r="L64" s="11"/>
+      <c r="M64" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="10">
+        <v>39910.405555555553</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="10">
+        <v>39910.51666666667</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="10">
+        <v>39910.559027777781</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="10">
+        <v>39910.844444444447</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="5">
+        <f t="shared" si="11"/>
+        <v>0.39652777778246673</v>
+      </c>
+      <c r="J65" s="11"/>
+      <c r="K65" s="6">
+        <f t="shared" si="12"/>
+        <v>6.3194444449133413E-2</v>
+      </c>
+      <c r="L65" s="11"/>
+      <c r="M65" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="10">
+        <v>39911.404166666667</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="10">
+        <v>39911.520138888889</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="10">
+        <v>39911.561111111114</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="10">
+        <v>39911.842361111114</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="5">
+        <f t="shared" si="11"/>
+        <v>0.39722222222189885</v>
+      </c>
+      <c r="J66" s="11"/>
+      <c r="K66" s="6">
+        <f t="shared" si="12"/>
+        <v>6.3888888888565531E-2</v>
+      </c>
+      <c r="L66" s="11"/>
+      <c r="M66" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="10">
+        <v>39912.402083333334</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="10">
+        <v>39912.519444444442</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="10">
+        <v>39912.56527777778</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="10">
+        <v>39912.804166666669</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="5">
+        <f t="shared" si="11"/>
+        <v>0.35624999999708962</v>
+      </c>
+      <c r="J67" s="11"/>
+      <c r="K67" s="6">
+        <f t="shared" si="12"/>
+        <v>2.2916666663756302E-2</v>
+      </c>
+      <c r="L67" s="11"/>
+      <c r="M67" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="10">
+        <v>39913.401388888888</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="10">
+        <v>39913.524305555555</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="10">
+        <v>39913.600694444445</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="10">
+        <v>39913.838888888888</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="5">
+        <f t="shared" si="11"/>
+        <v>0.36111111110949423</v>
+      </c>
+      <c r="J68" s="11"/>
+      <c r="K68" s="6">
+        <f t="shared" si="12"/>
+        <v>2.7777777776160917E-2</v>
+      </c>
+      <c r="L68" s="11"/>
+      <c r="M68" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="B69" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -83,7 +83,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +112,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +138,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -170,12 +182,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -187,7 +215,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,8 +228,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2"/>
+    <xf numFmtId="22" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -504,11 +539,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -529,31 +564,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -750,161 +785,161 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3">
+      <c r="A8" s="12">
         <v>39826.365972222222</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12">
         <v>39826.90625</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14">
         <v>39826.5</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="3">
+      <c r="F8" s="14"/>
+      <c r="G8" s="12">
         <v>39826.541666666664</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5">
+      <c r="H8" s="13"/>
+      <c r="I8" s="15">
         <f t="shared" si="1"/>
         <v>0.5819444444423425</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6">
+      <c r="J8" s="13"/>
+      <c r="K8" s="16">
         <f t="shared" si="2"/>
         <v>0.24861111110900919</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="str">
+      <c r="L8" s="13"/>
+      <c r="M8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="3">
+      <c r="A9" s="12">
         <v>39827.370833333334</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12">
         <v>39827.512499999997</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3">
+      <c r="D9" s="13"/>
+      <c r="E9" s="12">
         <v>39827.555555555555</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <v>39827.847916666666</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5">
+      <c r="H9" s="13"/>
+      <c r="I9" s="15">
         <f t="shared" si="1"/>
         <v>0.43402777777373558</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6">
+      <c r="J9" s="13"/>
+      <c r="K9" s="16">
         <f t="shared" si="2"/>
         <v>0.10069444444040226</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="str">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="3">
+      <c r="A10" s="12">
         <v>39828.382638888892</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12">
         <v>39828.505555555559</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3">
+      <c r="D10" s="13"/>
+      <c r="E10" s="12">
         <v>39828.59375</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
         <v>39828.824999999997</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5">
+      <c r="H10" s="13"/>
+      <c r="I10" s="15">
         <f t="shared" si="1"/>
         <v>0.35416666666424135</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="6">
+      <c r="J10" s="13"/>
+      <c r="K10" s="16">
         <f t="shared" si="2"/>
         <v>2.0833333330908033E-2</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="str">
+      <c r="L10" s="13"/>
+      <c r="M10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="3">
+      <c r="A11" s="12">
         <v>39829.338194444441</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12">
         <v>39829.509722222225</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3">
+      <c r="D11" s="13"/>
+      <c r="E11" s="12">
         <v>39829.551388888889</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>39829.724999999999</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5">
+      <c r="H11" s="13"/>
+      <c r="I11" s="15">
         <f t="shared" si="1"/>
         <v>0.34513888889341615</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="6">
+      <c r="J11" s="13"/>
+      <c r="K11" s="16">
         <f t="shared" si="2"/>
         <v>1.1805555560082837E-2</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="str">
+      <c r="L11" s="13"/>
+      <c r="M11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="3">
+      <c r="A12" s="12">
         <v>39830.427083333336</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12">
         <v>39830.526388888888</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3">
+      <c r="D12" s="13"/>
+      <c r="E12" s="12">
         <v>39830.606944444444</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <v>39830.848611111112</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5">
+      <c r="H12" s="13"/>
+      <c r="I12" s="15">
         <f t="shared" si="1"/>
         <v>0.34097222222044365</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="6">
+      <c r="J12" s="13"/>
+      <c r="K12" s="16">
         <f t="shared" si="2"/>
         <v>7.63888888711034E-3</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="str">
+      <c r="L12" s="13"/>
+      <c r="M12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Sexta</v>
       </c>
@@ -1038,161 +1073,161 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="3">
+      <c r="A17" s="12">
         <v>39840.406944444447</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12">
         <v>39840.520138888889</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3">
+      <c r="D17" s="13"/>
+      <c r="E17" s="12">
         <v>39840.565972222219</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
         <v>39840.824305555558</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5">
+      <c r="H17" s="13"/>
+      <c r="I17" s="15">
         <f t="shared" si="1"/>
         <v>0.37152777778101154</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="6">
+      <c r="J17" s="13"/>
+      <c r="K17" s="16">
         <f t="shared" si="2"/>
         <v>3.8194444447678222E-2</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="str">
+      <c r="L17" s="13"/>
+      <c r="M17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="3">
+      <c r="A18" s="12">
         <v>39841.382638888892</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12">
         <v>39841.50277777778</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3">
+      <c r="D18" s="13"/>
+      <c r="E18" s="12">
         <v>39841.536805555559</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
         <v>39841.789583333331</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5">
+      <c r="H18" s="13"/>
+      <c r="I18" s="15">
         <f t="shared" si="1"/>
         <v>0.37291666665987577</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="6">
+      <c r="J18" s="13"/>
+      <c r="K18" s="16">
         <f t="shared" si="2"/>
         <v>3.9583333326542458E-2</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4" t="str">
+      <c r="L18" s="13"/>
+      <c r="M18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="3">
+      <c r="A19" s="12">
         <v>39842.39166666667</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12">
         <v>39842.515277777777</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3">
+      <c r="D19" s="13"/>
+      <c r="E19" s="12">
         <v>39842.566666666666</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
         <v>39842.833333333336</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5">
+      <c r="H19" s="13"/>
+      <c r="I19" s="15">
         <f t="shared" si="1"/>
         <v>0.39027777777664596</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="6">
+      <c r="J19" s="13"/>
+      <c r="K19" s="16">
         <f t="shared" si="2"/>
         <v>5.6944444443312647E-2</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="str">
+      <c r="L19" s="13"/>
+      <c r="M19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3">
+      <c r="A20" s="12">
         <v>39843.397916666669</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12">
         <v>39843.507638888892</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3">
+      <c r="D20" s="13"/>
+      <c r="E20" s="12">
         <v>39843.577777777777</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
         <v>39843.760416666664</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5">
+      <c r="H20" s="13"/>
+      <c r="I20" s="15">
         <f t="shared" si="1"/>
         <v>0.29236111111094942</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="6">
+      <c r="J20" s="13"/>
+      <c r="K20" s="16">
         <f t="shared" si="2"/>
         <v>-4.0972222222383892E-2</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4" t="str">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="3">
+      <c r="A21" s="12">
         <v>39844.337500000001</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12">
         <v>39844.520138888889</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3">
+      <c r="D21" s="13"/>
+      <c r="E21" s="12">
         <v>39844.566666666666</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
         <v>39844.729861111111</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5">
+      <c r="H21" s="13"/>
+      <c r="I21" s="15">
         <f t="shared" si="1"/>
         <v>0.34583333333284827</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="6">
+      <c r="J21" s="13"/>
+      <c r="K21" s="16">
         <f t="shared" si="2"/>
         <v>1.2499999999514955E-2</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4" t="str">
+      <c r="L21" s="13"/>
+      <c r="M21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Sexta</v>
       </c>
@@ -1294,27 +1329,27 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>39850.400000000001</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="10">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9">
         <v>39850.506944444445</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10">
+      <c r="D25" s="10"/>
+      <c r="E25" s="9">
         <v>39850.548611111109</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10">
+      <c r="F25" s="10"/>
+      <c r="G25" s="9">
         <v>39850.774305555555</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="5">
         <f t="shared" si="1"/>
         <v>0.33263888888905058</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="6">
         <f t="shared" ref="K25" si="3">IF(OR(WEEKDAY(A25)=7,WEEKDAY(A25)=1),I25,I25-"08:00:00")</f>
         <v>-6.9444444428273799E-4</v>
@@ -1326,1365 +1361,1653 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>39851.35</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9">
         <v>39851.538194444445</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10">
+      <c r="D26" s="10"/>
+      <c r="E26" s="9">
         <v>39851.579861111109</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10">
+      <c r="F26" s="10"/>
+      <c r="G26" s="9">
         <v>39851.729861111111</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="5">
         <f t="shared" si="1"/>
         <v>0.33819444444816327</v>
       </c>
-      <c r="J26" s="11"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="6">
         <f t="shared" ref="K26:K32" si="5">IF(OR(WEEKDAY(A26)=7,WEEKDAY(A26)=1),I26,I26-"08:00:00")</f>
         <v>4.8611111148299524E-3</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="10">
+      <c r="A27" s="12">
         <v>39854</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="6">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="16">
         <f t="shared" si="5"/>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="4" t="str">
+      <c r="L27" s="13"/>
+      <c r="M27" s="13" t="str">
         <f t="shared" si="4"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="10">
+      <c r="A28" s="12">
         <v>39856.409722222219</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="10">
+      <c r="B28" s="13"/>
+      <c r="C28" s="12">
         <v>39856.496527777781</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10">
+      <c r="D28" s="13"/>
+      <c r="E28" s="12">
         <v>39856.536805555559</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10">
+      <c r="F28" s="13"/>
+      <c r="G28" s="12">
         <v>39856.788888888892</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="5">
+      <c r="H28" s="13"/>
+      <c r="I28" s="15">
         <f t="shared" si="1"/>
         <v>0.33888888889487134</v>
       </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="6">
+      <c r="J28" s="13"/>
+      <c r="K28" s="16">
         <f t="shared" si="5"/>
         <v>5.5555555615380281E-3</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="4" t="str">
+      <c r="L28" s="13"/>
+      <c r="M28" s="13" t="str">
         <f t="shared" si="4"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="10">
+      <c r="A29" s="12">
         <v>39857.395833333336</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10">
+      <c r="B29" s="13"/>
+      <c r="C29" s="12">
         <v>39857.518055555556</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="10">
+      <c r="D29" s="13"/>
+      <c r="E29" s="12">
         <v>39857.550694444442</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="10">
+      <c r="F29" s="13"/>
+      <c r="G29" s="12">
         <v>39857.786805555559</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="5">
+      <c r="H29" s="13"/>
+      <c r="I29" s="15">
         <f t="shared" si="1"/>
         <v>0.35833333333721384</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="6">
+      <c r="J29" s="13"/>
+      <c r="K29" s="16">
         <f t="shared" si="5"/>
         <v>2.5000000003880529E-2</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="4" t="str">
+      <c r="L29" s="13"/>
+      <c r="M29" s="13" t="str">
         <f t="shared" si="4"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="10">
+      <c r="A30" s="12">
         <v>39858.341666666667</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10">
+      <c r="B30" s="13"/>
+      <c r="C30" s="12">
         <v>39858.536805555559</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="10">
+      <c r="D30" s="13"/>
+      <c r="E30" s="12">
         <v>39858.586111111108</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10">
+      <c r="F30" s="13"/>
+      <c r="G30" s="12">
         <v>39858.729166666664</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="5">
+      <c r="H30" s="13"/>
+      <c r="I30" s="15">
         <f>(G30-E30)+(C30-A30)</f>
         <v>0.33819444444816327</v>
       </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="6">
+      <c r="J30" s="13"/>
+      <c r="K30" s="16">
         <f t="shared" si="5"/>
         <v>4.8611111148299524E-3</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="4" t="str">
+      <c r="L30" s="13"/>
+      <c r="M30" s="13" t="str">
         <f t="shared" si="4"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>39861.387499999997</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9">
         <v>39861.513194444444</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10">
+      <c r="D31" s="10"/>
+      <c r="E31" s="9">
         <v>39861.563888888886</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10">
+      <c r="F31" s="10"/>
+      <c r="G31" s="9">
         <v>39861.868750000001</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="5">
         <f>(G31-E31)+(C31-A31)</f>
         <v>0.43055555556202307</v>
       </c>
-      <c r="J31" s="11"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="6">
         <f t="shared" si="5"/>
         <v>9.7222222228689759E-2</v>
       </c>
-      <c r="L31" s="11"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>39862.400694444441</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="10">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9">
         <v>39862.509027777778</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="10">
+      <c r="D32" s="10"/>
+      <c r="E32" s="9">
         <v>39862.554861111108</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10">
+      <c r="F32" s="10"/>
+      <c r="G32" s="9">
         <v>39862.804166666669</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="5">
         <f>(G32-E32)+(C32-A32)</f>
         <v>0.35763888889778173</v>
       </c>
-      <c r="J32" s="11"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="6">
         <f t="shared" si="5"/>
         <v>2.4305555564448411E-2</v>
       </c>
-      <c r="L32" s="11"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>39863.402083333334</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="10">
+      <c r="B33" s="10"/>
+      <c r="C33" s="9">
         <v>39863.495833333334</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="10">
+      <c r="D33" s="10"/>
+      <c r="E33" s="9">
         <v>39863.54583333333</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10">
+      <c r="F33" s="10"/>
+      <c r="G33" s="9">
         <v>39863.89166666667</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="5">
         <f t="shared" ref="I33:I34" si="6">(G33-E33)+(C33-A33)</f>
         <v>0.43958333334012423</v>
       </c>
-      <c r="J33" s="11"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="6">
         <f t="shared" ref="K33:K34" si="7">IF(OR(WEEKDAY(A33)=7,WEEKDAY(A33)=1),I33,I33-"08:00:00")</f>
         <v>0.10625000000679091</v>
       </c>
-      <c r="L33" s="11"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>39864.402083333334</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="10">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9">
         <v>39864.504166666666</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="10">
+      <c r="D34" s="10"/>
+      <c r="E34" s="9">
         <v>39864.572916666664</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="10">
+      <c r="F34" s="10"/>
+      <c r="G34" s="9">
         <v>39864.885416666664</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="5">
         <f t="shared" si="6"/>
         <v>0.41458333333139308</v>
       </c>
-      <c r="J34" s="11"/>
+      <c r="J34" s="10"/>
       <c r="K34" s="6">
         <f t="shared" si="7"/>
         <v>8.1249999998059763E-2</v>
       </c>
-      <c r="L34" s="11"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="4" t="str">
         <f t="shared" si="4"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>39865.388194444444</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10">
+      <c r="B35" s="10"/>
+      <c r="C35" s="9">
         <v>39865.521527777775</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="10">
+      <c r="D35" s="10"/>
+      <c r="E35" s="9">
         <v>39865.583333333336</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="10">
+      <c r="F35" s="10"/>
+      <c r="G35" s="9">
         <v>39865.804166666669</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="5">
         <f>(G35-E35)+(C35-A35)</f>
         <v>0.35416666666424135</v>
       </c>
-      <c r="J35" s="11"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="6">
         <f>IF(OR(WEEKDAY(A35)=7,WEEKDAY(A35)=1),I35,I35-"08:00:00")</f>
         <v>2.0833333330908033E-2</v>
       </c>
-      <c r="L35" s="11"/>
+      <c r="L35" s="10"/>
       <c r="M35" s="4" t="str">
         <f>IF(WEEKDAY(A35)=1,"Domingo",IF(WEEKDAY(A35)=2,"Segunda",IF(WEEKDAY(A35)=3,"Terça",IF(WEEKDAY(A35)=4,"Quarta",IF(WEEKDAY(A35)=5,"Quinta",IF(WEEKDAY(A35)=6,"Sexta",IF(WEEKDAY(A35)=7,"Sábado","Domingo")))))))</f>
         <v>Sexta</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="10">
+      <c r="A36" s="12">
         <v>39868.347916666666</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="10">
+      <c r="B36" s="13"/>
+      <c r="C36" s="12">
         <v>39868.515972222223</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="10">
+      <c r="D36" s="13"/>
+      <c r="E36" s="12">
         <v>39868.568055555559</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10">
+      <c r="F36" s="13"/>
+      <c r="G36" s="12">
         <v>39868.793055555558</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="5">
+      <c r="H36" s="13"/>
+      <c r="I36" s="15">
         <f>(G36-E36)+(C36-A36)</f>
         <v>0.39305555555620231</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="6">
+      <c r="J36" s="13"/>
+      <c r="K36" s="16">
         <f>IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
         <v>5.9722222222868993E-2</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="4" t="str">
+      <c r="L36" s="13"/>
+      <c r="M36" s="13" t="str">
         <f>IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
         <v>Segunda</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="10">
+      <c r="A37" s="12">
         <v>39869.368750000001</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="10">
+      <c r="B37" s="13"/>
+      <c r="C37" s="12">
         <v>39869.52847222222</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="10">
+      <c r="D37" s="13"/>
+      <c r="E37" s="12">
         <v>39869.581250000003</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="10">
+      <c r="F37" s="13"/>
+      <c r="G37" s="12">
         <v>39869.84097222222</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="5">
+      <c r="H37" s="13"/>
+      <c r="I37" s="15">
         <f t="shared" ref="I37:I53" si="8">(G37-E37)+(C37-A37)</f>
         <v>0.41944444443652174</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="6">
+      <c r="J37" s="13"/>
+      <c r="K37" s="16">
         <f t="shared" ref="K37:K53" si="9">IF(OR(WEEKDAY(A37)=7,WEEKDAY(A37)=1),I37,I37-"08:00:00")</f>
         <v>8.611111110318842E-2</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="4" t="str">
+      <c r="L37" s="13"/>
+      <c r="M37" s="13" t="str">
         <f t="shared" ref="M37:M53" si="10">IF(WEEKDAY(A37)=1,"Domingo",IF(WEEKDAY(A37)=2,"Segunda",IF(WEEKDAY(A37)=3,"Terça",IF(WEEKDAY(A37)=4,"Quarta",IF(WEEKDAY(A37)=5,"Quinta",IF(WEEKDAY(A37)=6,"Sexta",IF(WEEKDAY(A37)=7,"Sábado","Domingo")))))))</f>
         <v>Terça</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="10">
+      <c r="A38" s="12">
         <v>39870.415277777778</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="10">
+      <c r="B38" s="13"/>
+      <c r="C38" s="12">
         <v>39870.541666666664</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="10">
+      <c r="D38" s="13"/>
+      <c r="E38" s="12">
         <v>39870.589583333334</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="10">
+      <c r="F38" s="13"/>
+      <c r="G38" s="12">
         <v>39870.865277777775</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="5">
+      <c r="H38" s="13"/>
+      <c r="I38" s="15">
         <f t="shared" si="8"/>
         <v>0.4020833333270275</v>
       </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="6">
+      <c r="J38" s="13"/>
+      <c r="K38" s="16">
         <f t="shared" si="9"/>
         <v>6.8749999993694189E-2</v>
       </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="4" t="str">
+      <c r="L38" s="13"/>
+      <c r="M38" s="13" t="str">
         <f t="shared" si="10"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="10">
+      <c r="A39" s="12">
         <v>39871.40902777778</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="10">
+      <c r="B39" s="13"/>
+      <c r="C39" s="12">
         <v>39871.527083333334</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="10">
+      <c r="D39" s="13"/>
+      <c r="E39" s="12">
         <v>39871.601388888892</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="10">
+      <c r="F39" s="13"/>
+      <c r="G39" s="12">
         <v>39871.892361111109</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="5">
+      <c r="H39" s="13"/>
+      <c r="I39" s="15">
         <f t="shared" si="8"/>
         <v>0.40902777777228039</v>
       </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="6">
+      <c r="J39" s="13"/>
+      <c r="K39" s="16">
         <f t="shared" si="9"/>
         <v>7.5694444438947073E-2</v>
       </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="4" t="str">
+      <c r="L39" s="13"/>
+      <c r="M39" s="13" t="str">
         <f t="shared" si="10"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="10">
+      <c r="A40" s="12">
         <v>39872.336805555555</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="10">
+      <c r="B40" s="13"/>
+      <c r="C40" s="12">
         <v>39872.510416666664</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="10">
+      <c r="D40" s="13"/>
+      <c r="E40" s="12">
         <v>39872.563194444447</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="10">
+      <c r="F40" s="13"/>
+      <c r="G40" s="12">
         <v>39872.697916666664</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="5">
+      <c r="H40" s="13"/>
+      <c r="I40" s="15">
         <f t="shared" si="8"/>
         <v>0.3083333333270275</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="6">
+      <c r="J40" s="13"/>
+      <c r="K40" s="16">
         <f t="shared" si="9"/>
         <v>-2.5000000006305811E-2</v>
       </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="4" t="str">
+      <c r="L40" s="13"/>
+      <c r="M40" s="13" t="str">
         <f t="shared" si="10"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>39875.369444444441</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="10">
+      <c r="B41" s="10"/>
+      <c r="C41" s="9">
         <v>39875.522222222222</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="10">
+      <c r="D41" s="10"/>
+      <c r="E41" s="9">
         <v>39875.574305555558</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="10">
+      <c r="F41" s="10"/>
+      <c r="G41" s="9">
         <v>39875.88958333333</v>
       </c>
-      <c r="H41" s="11"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="5">
         <f t="shared" si="8"/>
         <v>0.46805555555329192</v>
       </c>
-      <c r="J41" s="11"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="6">
         <f t="shared" si="9"/>
         <v>0.13472222221995861</v>
       </c>
-      <c r="L41" s="11"/>
+      <c r="L41" s="10"/>
       <c r="M41" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>39876.338194444441</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10">
+      <c r="B42" s="10"/>
+      <c r="C42" s="9">
         <v>39876.513194444444</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="10">
+      <c r="D42" s="10"/>
+      <c r="E42" s="9">
         <v>39876.561805555553</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10">
+      <c r="F42" s="10"/>
+      <c r="G42" s="9">
         <v>39876.834722222222</v>
       </c>
-      <c r="H42" s="11"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="5">
         <f t="shared" si="8"/>
         <v>0.44791666667151731</v>
       </c>
-      <c r="J42" s="11"/>
+      <c r="J42" s="10"/>
       <c r="K42" s="6">
         <f t="shared" si="9"/>
         <v>0.11458333333818399</v>
       </c>
-      <c r="L42" s="11"/>
+      <c r="L42" s="10"/>
       <c r="M42" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <v>39877.395138888889</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10">
+      <c r="B43" s="10"/>
+      <c r="C43" s="9">
         <v>39877.527777777781</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="10">
+      <c r="D43" s="10"/>
+      <c r="E43" s="9">
         <v>39877.579861111109</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10">
+      <c r="F43" s="10"/>
+      <c r="G43" s="9">
         <v>39877.790972222225</v>
       </c>
-      <c r="H43" s="11"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="5">
         <f t="shared" si="8"/>
         <v>0.34375000000727596</v>
       </c>
-      <c r="J43" s="11"/>
+      <c r="J43" s="10"/>
       <c r="K43" s="6">
         <f t="shared" si="9"/>
         <v>1.0416666673942643E-2</v>
       </c>
-      <c r="L43" s="11"/>
+      <c r="L43" s="10"/>
       <c r="M43" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="10">
+      <c r="A44" s="9">
         <v>39878.407638888886</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10">
+      <c r="B44" s="10"/>
+      <c r="C44" s="9">
         <v>39878.508333333331</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="10">
+      <c r="D44" s="10"/>
+      <c r="E44" s="9">
         <v>39878.550694444442</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="10">
+      <c r="F44" s="10"/>
+      <c r="G44" s="9">
         <v>39878.800694444442</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="5">
         <f t="shared" si="8"/>
         <v>0.35069444444525288</v>
       </c>
-      <c r="J44" s="11"/>
+      <c r="J44" s="10"/>
       <c r="K44" s="6">
         <f t="shared" si="9"/>
         <v>1.7361111111919569E-2</v>
       </c>
-      <c r="L44" s="11"/>
+      <c r="L44" s="10"/>
       <c r="M44" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <v>39879.397222222222</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="10">
+      <c r="B45" s="10"/>
+      <c r="C45" s="9">
         <v>39879.51458333333</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="10">
+      <c r="D45" s="10"/>
+      <c r="E45" s="9">
         <v>39879.564583333333</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="10">
+      <c r="F45" s="10"/>
+      <c r="G45" s="9">
         <v>39879.74722222222</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="5">
         <f t="shared" si="8"/>
         <v>0.29999999999563443</v>
       </c>
-      <c r="J45" s="11"/>
+      <c r="J45" s="10"/>
       <c r="K45" s="6">
         <f t="shared" si="9"/>
         <v>-3.3333333337698889E-2</v>
       </c>
-      <c r="L45" s="11"/>
+      <c r="L45" s="10"/>
       <c r="M45" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="10">
+      <c r="A46" s="12">
         <v>39882.407638888886</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="10">
+      <c r="B46" s="13"/>
+      <c r="C46" s="12">
         <v>39882.51666666667</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="10">
+      <c r="D46" s="13"/>
+      <c r="E46" s="12">
         <v>39882.564583333333</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="10">
+      <c r="F46" s="13"/>
+      <c r="G46" s="12">
         <v>39882.875</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="5">
+      <c r="H46" s="13"/>
+      <c r="I46" s="15">
         <f t="shared" si="8"/>
         <v>0.41944444445107365</v>
       </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="6">
+      <c r="J46" s="13"/>
+      <c r="K46" s="16">
         <f t="shared" si="9"/>
         <v>8.6111111117740335E-2</v>
       </c>
-      <c r="L46" s="11"/>
-      <c r="M46" s="4" t="str">
+      <c r="L46" s="13"/>
+      <c r="M46" s="13" t="str">
         <f t="shared" si="10"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="10">
+      <c r="A47" s="12">
         <v>39883.405555555553</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="10">
+      <c r="B47" s="13"/>
+      <c r="C47" s="12">
         <v>39883.51666666667</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="10">
+      <c r="D47" s="13"/>
+      <c r="E47" s="12">
         <v>39883.565972222219</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="10">
+      <c r="F47" s="13"/>
+      <c r="G47" s="12">
         <v>39883.796527777777</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="5">
+      <c r="H47" s="13"/>
+      <c r="I47" s="15">
         <f t="shared" si="8"/>
         <v>0.34166666667442769</v>
       </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="6">
+      <c r="J47" s="13"/>
+      <c r="K47" s="16">
         <f t="shared" si="9"/>
         <v>8.3333333410943733E-3</v>
       </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="4" t="str">
+      <c r="L47" s="13"/>
+      <c r="M47" s="13" t="str">
         <f t="shared" si="10"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="10">
+      <c r="A48" s="12">
         <v>39884.40347222222</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="10">
+      <c r="B48" s="13"/>
+      <c r="C48" s="12">
         <v>39884.530555555553</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="10">
+      <c r="D48" s="13"/>
+      <c r="E48" s="12">
         <v>39884.588194444441</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="10">
+      <c r="F48" s="13"/>
+      <c r="G48" s="12">
         <v>39884.793749999997</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="5">
+      <c r="H48" s="13"/>
+      <c r="I48" s="15">
         <f t="shared" si="8"/>
         <v>0.33263888888905058</v>
       </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="6">
+      <c r="J48" s="13"/>
+      <c r="K48" s="16">
         <f t="shared" si="9"/>
         <v>-6.9444444428273799E-4</v>
       </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="4" t="str">
+      <c r="L48" s="13"/>
+      <c r="M48" s="13" t="str">
         <f t="shared" si="10"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="10">
+      <c r="A49" s="12">
         <v>39885.347222222219</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10">
+      <c r="B49" s="13"/>
+      <c r="C49" s="12">
         <v>39885.511805555558</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="10">
+      <c r="D49" s="13"/>
+      <c r="E49" s="12">
         <v>39885.560416666667</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="10">
+      <c r="F49" s="13"/>
+      <c r="G49" s="12">
         <v>39885.888888888891</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="5">
+      <c r="H49" s="13"/>
+      <c r="I49" s="15">
         <f t="shared" si="8"/>
         <v>0.49305555556202307</v>
       </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="6">
+      <c r="J49" s="13"/>
+      <c r="K49" s="16">
         <f t="shared" si="9"/>
         <v>0.15972222222868976</v>
       </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="4" t="str">
+      <c r="L49" s="13"/>
+      <c r="M49" s="13" t="str">
         <f t="shared" si="10"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="10">
+      <c r="A50" s="12">
         <v>39886</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="6">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="16">
         <f t="shared" si="9"/>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="L50" s="11"/>
-      <c r="M50" s="4" t="str">
+      <c r="L50" s="13"/>
+      <c r="M50" s="13" t="str">
         <f t="shared" si="10"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="10">
+      <c r="A51" s="9">
         <v>39889.413194444445</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="10">
+      <c r="B51" s="10"/>
+      <c r="C51" s="9">
         <v>39889.513888888891</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="10">
+      <c r="D51" s="10"/>
+      <c r="E51" s="9">
         <v>39889.563194444447</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="10">
+      <c r="F51" s="10"/>
+      <c r="G51" s="9">
         <v>39889.795138888891</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="5">
         <f t="shared" si="8"/>
         <v>0.33263888888905058</v>
       </c>
-      <c r="J51" s="11"/>
+      <c r="J51" s="10"/>
       <c r="K51" s="6">
         <f t="shared" si="9"/>
         <v>-6.9444444428273799E-4</v>
       </c>
-      <c r="L51" s="11"/>
+      <c r="L51" s="10"/>
       <c r="M51" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="10">
+      <c r="A52" s="9">
         <v>39890.410416666666</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10">
+      <c r="B52" s="10"/>
+      <c r="C52" s="9">
         <v>39890.515972222223</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="10">
+      <c r="D52" s="10"/>
+      <c r="E52" s="9">
         <v>39890.560416666667</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="10">
+      <c r="F52" s="10"/>
+      <c r="G52" s="9">
         <v>39890.795138888891</v>
       </c>
-      <c r="H52" s="11"/>
+      <c r="H52" s="10"/>
       <c r="I52" s="5">
         <f t="shared" si="8"/>
         <v>0.34027777778101154</v>
       </c>
-      <c r="J52" s="11"/>
+      <c r="J52" s="10"/>
       <c r="K52" s="6">
         <f t="shared" si="9"/>
         <v>6.9444444476782219E-3</v>
       </c>
-      <c r="L52" s="11"/>
+      <c r="L52" s="10"/>
       <c r="M52" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="10">
+      <c r="A53" s="9">
         <v>39891.408333333333</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10">
+      <c r="B53" s="10"/>
+      <c r="C53" s="9">
         <v>39891.512499999997</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="10">
+      <c r="D53" s="10"/>
+      <c r="E53" s="9">
         <v>39891.5625</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="10">
+      <c r="F53" s="10"/>
+      <c r="G53" s="9">
         <v>39891.792361111111</v>
       </c>
-      <c r="H53" s="11"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="5">
         <f t="shared" si="8"/>
         <v>0.33402777777519077</v>
       </c>
-      <c r="J53" s="11"/>
+      <c r="J53" s="10"/>
       <c r="K53" s="6">
         <f t="shared" si="9"/>
         <v>6.944444418574558E-4</v>
       </c>
-      <c r="L53" s="11"/>
+      <c r="L53" s="10"/>
       <c r="M53" s="4" t="str">
         <f t="shared" si="10"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="10">
+      <c r="A54" s="9">
         <v>39892.408333333333</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="10">
+      <c r="B54" s="10"/>
+      <c r="C54" s="9">
         <v>39892.495138888888</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="10">
+      <c r="D54" s="10"/>
+      <c r="E54" s="9">
         <v>39892.566666666666</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="10">
+      <c r="F54" s="10"/>
+      <c r="G54" s="9">
         <v>39892.793055555558</v>
       </c>
-      <c r="H54" s="11"/>
+      <c r="H54" s="10"/>
       <c r="I54" s="5">
-        <f t="shared" ref="I54:I68" si="11">(G54-E54)+(C54-A54)</f>
+        <f t="shared" ref="I54:I77" si="11">(G54-E54)+(C54-A54)</f>
         <v>0.31319444444670808</v>
       </c>
-      <c r="J54" s="11"/>
+      <c r="J54" s="10"/>
       <c r="K54" s="6">
-        <f t="shared" ref="K54:K68" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
+        <f t="shared" ref="K54:K77" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
         <v>-2.0138888886625239E-2</v>
       </c>
-      <c r="L54" s="11"/>
+      <c r="L54" s="10"/>
       <c r="M54" s="4" t="str">
-        <f t="shared" ref="M54:M68" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M54:M77" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="10">
+      <c r="A55" s="9">
         <v>39893.338888888888</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="10">
+      <c r="B55" s="10"/>
+      <c r="C55" s="9">
         <v>39893.508333333331</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="10">
+      <c r="D55" s="10"/>
+      <c r="E55" s="9">
         <v>39893.546527777777</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="10">
+      <c r="F55" s="10"/>
+      <c r="G55" s="9">
         <v>39893.68472222222</v>
       </c>
-      <c r="H55" s="11"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="5">
         <f t="shared" si="11"/>
         <v>0.30763888888759539</v>
       </c>
-      <c r="J55" s="11"/>
+      <c r="J55" s="10"/>
       <c r="K55" s="6">
         <f t="shared" si="12"/>
         <v>-2.569444444573793E-2</v>
       </c>
-      <c r="L55" s="11"/>
+      <c r="L55" s="10"/>
       <c r="M55" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="10">
+      <c r="A56" s="12">
         <v>39896.398611111108</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="10">
+      <c r="B56" s="13"/>
+      <c r="C56" s="12">
         <v>39896.510416666664</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="10">
+      <c r="D56" s="13"/>
+      <c r="E56" s="12">
         <v>39896.565972222219</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="10">
+      <c r="F56" s="13"/>
+      <c r="G56" s="12">
         <v>39896.782638888886</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="5">
+      <c r="H56" s="13"/>
+      <c r="I56" s="15">
         <f t="shared" si="11"/>
         <v>0.32847222222335404</v>
       </c>
-      <c r="J56" s="11"/>
-      <c r="K56" s="6">
+      <c r="J56" s="13"/>
+      <c r="K56" s="16">
         <f t="shared" si="12"/>
         <v>-4.861111109979277E-3</v>
       </c>
-      <c r="L56" s="11"/>
-      <c r="M56" s="4" t="str">
+      <c r="L56" s="13"/>
+      <c r="M56" s="13" t="str">
         <f t="shared" si="13"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="10">
+      <c r="A57" s="12">
         <v>39897.394444444442</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="10">
+      <c r="B57" s="13"/>
+      <c r="C57" s="12">
         <v>39897.518750000003</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="10">
+      <c r="D57" s="13"/>
+      <c r="E57" s="12">
         <v>39897.571527777778</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="10">
+      <c r="F57" s="13"/>
+      <c r="G57" s="12">
         <v>39897.776388888888</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="5">
+      <c r="H57" s="13"/>
+      <c r="I57" s="15">
         <f t="shared" si="11"/>
         <v>0.32916666667006211</v>
       </c>
-      <c r="J57" s="11"/>
-      <c r="K57" s="6">
+      <c r="J57" s="13"/>
+      <c r="K57" s="16">
         <f t="shared" si="12"/>
         <v>-4.1666666632712013E-3</v>
       </c>
-      <c r="L57" s="11"/>
-      <c r="M57" s="4" t="str">
+      <c r="L57" s="13"/>
+      <c r="M57" s="13" t="str">
         <f t="shared" si="13"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="10">
+      <c r="A58" s="12">
         <v>39898.401388888888</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="10">
+      <c r="B58" s="13"/>
+      <c r="C58" s="12">
         <v>39898.519444444442</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="10">
+      <c r="D58" s="13"/>
+      <c r="E58" s="12">
         <v>39898.579861111109</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="10">
+      <c r="F58" s="13"/>
+      <c r="G58" s="12">
         <v>39898.799305555556</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="5">
+      <c r="H58" s="13"/>
+      <c r="I58" s="15">
         <f t="shared" si="11"/>
         <v>0.33750000000145519</v>
       </c>
-      <c r="J58" s="11"/>
-      <c r="K58" s="6">
+      <c r="J58" s="13"/>
+      <c r="K58" s="16">
         <f t="shared" si="12"/>
         <v>4.1666666681218767E-3</v>
       </c>
-      <c r="L58" s="11"/>
-      <c r="M58" s="4" t="str">
+      <c r="L58" s="13"/>
+      <c r="M58" s="13" t="str">
         <f t="shared" si="13"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="10">
+      <c r="A59" s="12">
         <v>39899.319444444445</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="10">
+      <c r="B59" s="13"/>
+      <c r="C59" s="12">
         <v>39899.513888888891</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="10">
+      <c r="D59" s="13"/>
+      <c r="E59" s="12">
         <v>39899.554166666669</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="10">
+      <c r="F59" s="13"/>
+      <c r="G59" s="12">
         <v>39899.697916666664</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="5">
+      <c r="H59" s="13"/>
+      <c r="I59" s="15">
         <f t="shared" si="11"/>
         <v>0.33819444444088731</v>
       </c>
-      <c r="J59" s="11"/>
-      <c r="K59" s="6">
+      <c r="J59" s="13"/>
+      <c r="K59" s="16">
         <f t="shared" si="12"/>
         <v>4.8611111075539948E-3</v>
       </c>
-      <c r="L59" s="11"/>
-      <c r="M59" s="4" t="str">
+      <c r="L59" s="13"/>
+      <c r="M59" s="13" t="str">
         <f t="shared" si="13"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="10">
+      <c r="A60" s="9">
         <v>39903.402083333334</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="10">
+      <c r="B60" s="10"/>
+      <c r="C60" s="9">
         <v>39903.509722222225</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="10">
+      <c r="D60" s="10"/>
+      <c r="E60" s="9">
         <v>39903.551388888889</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="10">
+      <c r="F60" s="10"/>
+      <c r="G60" s="9">
         <v>39903.805555555555</v>
       </c>
-      <c r="H60" s="11"/>
+      <c r="H60" s="10"/>
       <c r="I60" s="5">
         <f t="shared" si="11"/>
         <v>0.36180555555620231</v>
       </c>
-      <c r="J60" s="11"/>
+      <c r="J60" s="10"/>
       <c r="K60" s="6">
         <f t="shared" si="12"/>
         <v>2.8472222222868993E-2</v>
       </c>
-      <c r="L60" s="11"/>
+      <c r="L60" s="10"/>
       <c r="M60" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="10">
+      <c r="A61" s="9">
         <v>39904.404166666667</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="10">
+      <c r="B61" s="10"/>
+      <c r="C61" s="9">
         <v>39904.511111111111</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="10">
+      <c r="D61" s="10"/>
+      <c r="E61" s="9">
         <v>39904.544444444444</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="10">
+      <c r="F61" s="10"/>
+      <c r="G61" s="9">
         <v>39904.854861111111</v>
       </c>
-      <c r="H61" s="11"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="5">
         <f t="shared" si="11"/>
         <v>0.41736111111094942</v>
       </c>
-      <c r="J61" s="11"/>
+      <c r="J61" s="10"/>
       <c r="K61" s="6">
         <f t="shared" si="12"/>
         <v>8.4027777777616108E-2</v>
       </c>
-      <c r="L61" s="11"/>
+      <c r="L61" s="10"/>
       <c r="M61" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="10">
+      <c r="A62" s="9">
         <v>39905.40902777778</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="10">
+      <c r="B62" s="10"/>
+      <c r="C62" s="9">
         <v>39905.526388888888</v>
       </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="10">
+      <c r="D62" s="10"/>
+      <c r="E62" s="9">
         <v>39905.570833333331</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="10">
+      <c r="F62" s="10"/>
+      <c r="G62" s="9">
         <v>39905.836805555555</v>
       </c>
-      <c r="H62" s="11"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="5">
         <f t="shared" si="11"/>
         <v>0.38333333333139308</v>
       </c>
-      <c r="J62" s="11"/>
+      <c r="J62" s="10"/>
       <c r="K62" s="6">
         <f t="shared" si="12"/>
         <v>4.9999999998059763E-2</v>
       </c>
-      <c r="L62" s="11"/>
+      <c r="L62" s="10"/>
       <c r="M62" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="10">
+      <c r="A63" s="9">
         <v>39906.408333333333</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="10">
+      <c r="B63" s="10"/>
+      <c r="C63" s="9">
         <v>39906.518750000003</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="10">
+      <c r="D63" s="10"/>
+      <c r="E63" s="9">
         <v>39906.563888888886</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="10">
+      <c r="F63" s="10"/>
+      <c r="G63" s="9">
         <v>39906.830555555556</v>
       </c>
-      <c r="H63" s="11"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="5">
         <f t="shared" si="11"/>
         <v>0.37708333334012423</v>
       </c>
-      <c r="J63" s="11"/>
+      <c r="J63" s="10"/>
       <c r="K63" s="6">
         <f t="shared" si="12"/>
         <v>4.3750000006790912E-2</v>
       </c>
-      <c r="L63" s="11"/>
+      <c r="L63" s="10"/>
       <c r="M63" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="10">
+      <c r="A64" s="9">
         <v>39907.327777777777</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="10">
+      <c r="B64" s="10"/>
+      <c r="C64" s="9">
         <v>39907.522222222222</v>
       </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="10">
+      <c r="D64" s="10"/>
+      <c r="E64" s="9">
         <v>39907.565972222219</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="10">
+      <c r="F64" s="10"/>
+      <c r="G64" s="9">
         <v>39907.717361111114</v>
       </c>
-      <c r="H64" s="11"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="5">
         <f t="shared" si="11"/>
         <v>0.34583333334012423</v>
       </c>
-      <c r="J64" s="11"/>
+      <c r="J64" s="10"/>
       <c r="K64" s="6">
         <f t="shared" si="12"/>
         <v>1.2500000006790912E-2</v>
       </c>
-      <c r="L64" s="11"/>
+      <c r="L64" s="10"/>
       <c r="M64" s="4" t="str">
         <f t="shared" si="13"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="10">
+      <c r="A65" s="12">
         <v>39910.405555555553</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="10">
+      <c r="B65" s="13"/>
+      <c r="C65" s="12">
         <v>39910.51666666667</v>
       </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="10">
+      <c r="D65" s="13"/>
+      <c r="E65" s="12">
         <v>39910.559027777781</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="10">
+      <c r="F65" s="13"/>
+      <c r="G65" s="12">
         <v>39910.844444444447</v>
       </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="5">
+      <c r="H65" s="13"/>
+      <c r="I65" s="15">
         <f t="shared" si="11"/>
         <v>0.39652777778246673</v>
       </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="6">
+      <c r="J65" s="13"/>
+      <c r="K65" s="16">
         <f t="shared" si="12"/>
         <v>6.3194444449133413E-2</v>
       </c>
-      <c r="L65" s="11"/>
-      <c r="M65" s="4" t="str">
+      <c r="L65" s="13"/>
+      <c r="M65" s="13" t="str">
         <f t="shared" si="13"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="10">
+      <c r="A66" s="12">
         <v>39911.404166666667</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="10">
+      <c r="B66" s="13"/>
+      <c r="C66" s="12">
         <v>39911.520138888889</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="10">
+      <c r="D66" s="13"/>
+      <c r="E66" s="12">
         <v>39911.561111111114</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="10">
+      <c r="F66" s="13"/>
+      <c r="G66" s="12">
         <v>39911.842361111114</v>
       </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="5">
+      <c r="H66" s="13"/>
+      <c r="I66" s="15">
         <f t="shared" si="11"/>
         <v>0.39722222222189885</v>
       </c>
-      <c r="J66" s="11"/>
-      <c r="K66" s="6">
+      <c r="J66" s="13"/>
+      <c r="K66" s="16">
         <f t="shared" si="12"/>
         <v>6.3888888888565531E-2</v>
       </c>
-      <c r="L66" s="11"/>
-      <c r="M66" s="4" t="str">
+      <c r="L66" s="13"/>
+      <c r="M66" s="13" t="str">
         <f t="shared" si="13"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="10">
+      <c r="A67" s="12">
         <v>39912.402083333334</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="10">
+      <c r="B67" s="13"/>
+      <c r="C67" s="12">
         <v>39912.519444444442</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="10">
+      <c r="D67" s="13"/>
+      <c r="E67" s="12">
         <v>39912.56527777778</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="10">
+      <c r="F67" s="13"/>
+      <c r="G67" s="12">
         <v>39912.804166666669</v>
       </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="5">
+      <c r="H67" s="13"/>
+      <c r="I67" s="15">
         <f t="shared" si="11"/>
         <v>0.35624999999708962</v>
       </c>
-      <c r="J67" s="11"/>
-      <c r="K67" s="6">
+      <c r="J67" s="13"/>
+      <c r="K67" s="16">
         <f t="shared" si="12"/>
         <v>2.2916666663756302E-2</v>
       </c>
-      <c r="L67" s="11"/>
-      <c r="M67" s="4" t="str">
+      <c r="L67" s="13"/>
+      <c r="M67" s="13" t="str">
         <f t="shared" si="13"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="10">
+      <c r="A68" s="12">
         <v>39913.401388888888</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="10">
+      <c r="B68" s="13"/>
+      <c r="C68" s="12">
         <v>39913.524305555555</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="10">
+      <c r="D68" s="13"/>
+      <c r="E68" s="12">
         <v>39913.600694444445</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="10">
+      <c r="F68" s="13"/>
+      <c r="G68" s="12">
         <v>39913.838888888888</v>
       </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="5">
+      <c r="H68" s="13"/>
+      <c r="I68" s="15">
         <f t="shared" si="11"/>
         <v>0.36111111110949423</v>
       </c>
-      <c r="J68" s="11"/>
-      <c r="K68" s="6">
+      <c r="J68" s="13"/>
+      <c r="K68" s="16">
         <f t="shared" si="12"/>
         <v>2.7777777776160917E-2</v>
       </c>
-      <c r="L68" s="11"/>
-      <c r="M68" s="4" t="str">
+      <c r="L68" s="13"/>
+      <c r="M68" s="13" t="str">
         <f t="shared" si="13"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="B69" s="12"/>
+      <c r="A69" s="12">
+        <v>39914.323611111111</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="12">
+        <v>39914.515972222223</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="12">
+        <v>39914.561111111114</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="12">
+        <v>39914.701388888891</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="15">
+        <f t="shared" si="11"/>
+        <v>0.33263888888905058</v>
+      </c>
+      <c r="J69" s="13"/>
+      <c r="K69" s="16">
+        <f t="shared" si="12"/>
+        <v>-6.9444444428273799E-4</v>
+      </c>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13" t="str">
+        <f t="shared" si="13"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="9">
+        <v>39917.460416666669</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="9">
+        <v>39917.519444444442</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="9">
+        <v>39917.568055555559</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="9">
+        <v>39917.852083333331</v>
+      </c>
+      <c r="H70" s="10"/>
+      <c r="I70" s="5">
+        <f t="shared" si="11"/>
+        <v>0.34305555554601597</v>
+      </c>
+      <c r="J70" s="10"/>
+      <c r="K70" s="6">
+        <f t="shared" si="12"/>
+        <v>9.7222222126826519E-3</v>
+      </c>
+      <c r="L70" s="10"/>
+      <c r="M70" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="9">
+        <v>39918.399305555555</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="9">
+        <v>39918.520138888889</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="9">
+        <v>39918.565972222219</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="9">
+        <v>39918.786805555559</v>
+      </c>
+      <c r="H71" s="10"/>
+      <c r="I71" s="5">
+        <f t="shared" si="11"/>
+        <v>0.34166666667442769</v>
+      </c>
+      <c r="J71" s="10"/>
+      <c r="K71" s="6">
+        <f t="shared" si="12"/>
+        <v>8.3333333410943733E-3</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="9">
+        <v>39919.395833333336</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="9">
+        <v>39919.520138888889</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="9">
+        <v>39919.561111111114</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="9">
+        <v>39919.777777777781</v>
+      </c>
+      <c r="H72" s="10"/>
+      <c r="I72" s="5">
+        <f t="shared" si="11"/>
+        <v>0.34097222222044365</v>
+      </c>
+      <c r="J72" s="10"/>
+      <c r="K72" s="6">
+        <f t="shared" si="12"/>
+        <v>7.63888888711034E-3</v>
+      </c>
+      <c r="L72" s="10"/>
+      <c r="M72" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="9">
+        <v>39920.415972222225</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="9">
+        <v>39920.561111111114</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="9">
+        <v>39920.597916666666</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="9">
+        <v>39920.795138888891</v>
+      </c>
+      <c r="H73" s="10"/>
+      <c r="I73" s="5">
+        <f t="shared" si="11"/>
+        <v>0.34236111111385981</v>
+      </c>
+      <c r="J73" s="10"/>
+      <c r="K73" s="6">
+        <f t="shared" si="12"/>
+        <v>9.0277777805264914E-3</v>
+      </c>
+      <c r="L73" s="10"/>
+      <c r="M73" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="9">
+        <v>39921.326388888891</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="9">
+        <v>39921.505555555559</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="9">
+        <v>39921.547222222223</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="9">
+        <v>39921.693055555559</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="I74" s="5">
+        <f t="shared" si="11"/>
+        <v>0.32500000000436557</v>
+      </c>
+      <c r="J74" s="10"/>
+      <c r="K74" s="6">
+        <f t="shared" si="12"/>
+        <v>-8.3333333289677403E-3</v>
+      </c>
+      <c r="L74" s="10"/>
+      <c r="M74" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="12">
+        <v>39924.40625</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="12">
+        <v>39924.523611111108</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="12">
+        <v>39924.563888888886</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="12">
+        <v>39924.784722222219</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="15">
+        <f t="shared" si="11"/>
+        <v>0.33819444444088731</v>
+      </c>
+      <c r="J75" s="13"/>
+      <c r="K75" s="16">
+        <f t="shared" si="12"/>
+        <v>4.8611111075539948E-3</v>
+      </c>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13" t="str">
+        <f t="shared" si="13"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="12">
+        <v>39925.397916666669</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="12">
+        <v>39925.504166666666</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="12">
+        <v>39925.545138888891</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="12">
+        <v>39925.772916666669</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="15">
+        <f t="shared" si="11"/>
+        <v>0.33402777777519077</v>
+      </c>
+      <c r="J76" s="13"/>
+      <c r="K76" s="16">
+        <f t="shared" si="12"/>
+        <v>6.944444418574558E-4</v>
+      </c>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13" t="str">
+        <f t="shared" si="13"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="12">
+        <v>39926.375</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="12">
+        <v>39926.517361111109</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="12">
+        <v>39926.565972222219</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="12">
+        <v>39926.754861111112</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="15">
+        <f t="shared" si="11"/>
+        <v>0.33125000000291038</v>
+      </c>
+      <c r="J77" s="13"/>
+      <c r="K77" s="16">
+        <f t="shared" si="12"/>
+        <v>-2.0833333304229318E-3</v>
+      </c>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13" t="str">
+        <f t="shared" si="13"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="B78" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -19,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>rbatista</author>
+    <author>renato</author>
   </authors>
   <commentList>
     <comment ref="A27" authorId="0">
@@ -44,6 +45,29 @@
             <family val="2"/>
           </rPr>
           <t>Manutenção na moto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A82" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Feriado: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dia do Trabalho</t>
         </r>
       </text>
     </comment>
@@ -83,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +142,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -203,7 +240,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -225,9 +262,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -235,6 +269,9 @@
     <xf numFmtId="22" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -539,11 +576,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M77" sqref="M77"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -785,161 +822,161 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>39826.365972222222</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11">
         <v>39826.90625</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13">
         <v>39826.5</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12">
+      <c r="F8" s="13"/>
+      <c r="G8" s="11">
         <v>39826.541666666664</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15">
+      <c r="H8" s="12"/>
+      <c r="I8" s="14">
         <f t="shared" si="1"/>
         <v>0.5819444444423425</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="16">
+      <c r="J8" s="12"/>
+      <c r="K8" s="15">
         <f t="shared" si="2"/>
         <v>0.24861111110900919</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13" t="str">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>39827.370833333334</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11">
         <v>39827.512499999997</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12">
+      <c r="D9" s="12"/>
+      <c r="E9" s="11">
         <v>39827.555555555555</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
         <v>39827.847916666666</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15">
+      <c r="H9" s="12"/>
+      <c r="I9" s="14">
         <f t="shared" si="1"/>
         <v>0.43402777777373558</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="16">
+      <c r="J9" s="12"/>
+      <c r="K9" s="15">
         <f t="shared" si="2"/>
         <v>0.10069444444040226</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13" t="str">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>39828.382638888892</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11">
         <v>39828.505555555559</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12">
+      <c r="D10" s="12"/>
+      <c r="E10" s="11">
         <v>39828.59375</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
         <v>39828.824999999997</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="15">
+      <c r="H10" s="12"/>
+      <c r="I10" s="14">
         <f t="shared" si="1"/>
         <v>0.35416666666424135</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="16">
+      <c r="J10" s="12"/>
+      <c r="K10" s="15">
         <f t="shared" si="2"/>
         <v>2.0833333330908033E-2</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13" t="str">
+      <c r="L10" s="12"/>
+      <c r="M10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>39829.338194444441</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11">
         <v>39829.509722222225</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11">
         <v>39829.551388888889</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
         <v>39829.724999999999</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="15">
+      <c r="H11" s="12"/>
+      <c r="I11" s="14">
         <f t="shared" si="1"/>
         <v>0.34513888889341615</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="16">
+      <c r="J11" s="12"/>
+      <c r="K11" s="15">
         <f t="shared" si="2"/>
         <v>1.1805555560082837E-2</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13" t="str">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>39830.427083333336</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11">
         <v>39830.526388888888</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12">
+      <c r="D12" s="12"/>
+      <c r="E12" s="11">
         <v>39830.606944444444</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
         <v>39830.848611111112</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="15">
+      <c r="H12" s="12"/>
+      <c r="I12" s="14">
         <f t="shared" si="1"/>
         <v>0.34097222222044365</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="16">
+      <c r="J12" s="12"/>
+      <c r="K12" s="15">
         <f t="shared" si="2"/>
         <v>7.63888888711034E-3</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13" t="str">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sexta</v>
       </c>
@@ -1073,161 +1110,161 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>39840.406944444447</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11">
         <v>39840.520138888889</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12">
+      <c r="D17" s="12"/>
+      <c r="E17" s="11">
         <v>39840.565972222219</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
         <v>39840.824305555558</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="15">
+      <c r="H17" s="12"/>
+      <c r="I17" s="14">
         <f t="shared" si="1"/>
         <v>0.37152777778101154</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="16">
+      <c r="J17" s="12"/>
+      <c r="K17" s="15">
         <f t="shared" si="2"/>
         <v>3.8194444447678222E-2</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13" t="str">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>39841.382638888892</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11">
         <v>39841.50277777778</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12">
+      <c r="D18" s="12"/>
+      <c r="E18" s="11">
         <v>39841.536805555559</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11">
         <v>39841.789583333331</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="15">
+      <c r="H18" s="12"/>
+      <c r="I18" s="14">
         <f t="shared" si="1"/>
         <v>0.37291666665987577</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="16">
+      <c r="J18" s="12"/>
+      <c r="K18" s="15">
         <f t="shared" si="2"/>
         <v>3.9583333326542458E-2</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13" t="str">
+      <c r="L18" s="12"/>
+      <c r="M18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>39842.39166666667</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11">
         <v>39842.515277777777</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12">
+      <c r="D19" s="12"/>
+      <c r="E19" s="11">
         <v>39842.566666666666</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
         <v>39842.833333333336</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="15">
+      <c r="H19" s="12"/>
+      <c r="I19" s="14">
         <f t="shared" si="1"/>
         <v>0.39027777777664596</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="16">
+      <c r="J19" s="12"/>
+      <c r="K19" s="15">
         <f t="shared" si="2"/>
         <v>5.6944444443312647E-2</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13" t="str">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>39843.397916666669</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11">
         <v>39843.507638888892</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12">
+      <c r="D20" s="12"/>
+      <c r="E20" s="11">
         <v>39843.577777777777</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
         <v>39843.760416666664</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="15">
+      <c r="H20" s="12"/>
+      <c r="I20" s="14">
         <f t="shared" si="1"/>
         <v>0.29236111111094942</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="16">
+      <c r="J20" s="12"/>
+      <c r="K20" s="15">
         <f t="shared" si="2"/>
         <v>-4.0972222222383892E-2</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13" t="str">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>39844.337500000001</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11">
         <v>39844.520138888889</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12">
+      <c r="D21" s="12"/>
+      <c r="E21" s="11">
         <v>39844.566666666666</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
         <v>39844.729861111111</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="15">
+      <c r="H21" s="12"/>
+      <c r="I21" s="14">
         <f t="shared" si="1"/>
         <v>0.34583333333284827</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="16">
+      <c r="J21" s="12"/>
+      <c r="K21" s="15">
         <f t="shared" si="2"/>
         <v>1.2499999999514955E-2</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13" t="str">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Sexta</v>
       </c>
@@ -1393,120 +1430,120 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>39854</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="16">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="15">
         <f t="shared" si="5"/>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13" t="str">
+      <c r="L27" s="12"/>
+      <c r="M27" s="12" t="str">
         <f t="shared" si="4"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>39856.409722222219</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="12">
+      <c r="B28" s="12"/>
+      <c r="C28" s="11">
         <v>39856.496527777781</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12">
+      <c r="D28" s="12"/>
+      <c r="E28" s="11">
         <v>39856.536805555559</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12">
+      <c r="F28" s="12"/>
+      <c r="G28" s="11">
         <v>39856.788888888892</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="15">
+      <c r="H28" s="12"/>
+      <c r="I28" s="14">
         <f t="shared" si="1"/>
         <v>0.33888888889487134</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="16">
+      <c r="J28" s="12"/>
+      <c r="K28" s="15">
         <f t="shared" si="5"/>
         <v>5.5555555615380281E-3</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13" t="str">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12" t="str">
         <f t="shared" si="4"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>39857.395833333336</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="12">
+      <c r="B29" s="12"/>
+      <c r="C29" s="11">
         <v>39857.518055555556</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12">
+      <c r="D29" s="12"/>
+      <c r="E29" s="11">
         <v>39857.550694444442</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="12">
+      <c r="F29" s="12"/>
+      <c r="G29" s="11">
         <v>39857.786805555559</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="15">
+      <c r="H29" s="12"/>
+      <c r="I29" s="14">
         <f t="shared" si="1"/>
         <v>0.35833333333721384</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="16">
+      <c r="J29" s="12"/>
+      <c r="K29" s="15">
         <f t="shared" si="5"/>
         <v>2.5000000003880529E-2</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13" t="str">
+      <c r="L29" s="12"/>
+      <c r="M29" s="12" t="str">
         <f t="shared" si="4"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>39858.341666666667</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="12">
+      <c r="B30" s="12"/>
+      <c r="C30" s="11">
         <v>39858.536805555559</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12">
+      <c r="D30" s="12"/>
+      <c r="E30" s="11">
         <v>39858.586111111108</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12">
+      <c r="F30" s="12"/>
+      <c r="G30" s="11">
         <v>39858.729166666664</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="15">
+      <c r="H30" s="12"/>
+      <c r="I30" s="14">
         <f>(G30-E30)+(C30-A30)</f>
         <v>0.33819444444816327</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="16">
+      <c r="J30" s="12"/>
+      <c r="K30" s="15">
         <f t="shared" si="5"/>
         <v>4.8611111148299524E-3</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13" t="str">
+      <c r="L30" s="12"/>
+      <c r="M30" s="12" t="str">
         <f t="shared" si="4"/>
         <v>Sexta</v>
       </c>
@@ -1672,161 +1709,161 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <v>39868.347916666666</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="12">
+      <c r="B36" s="12"/>
+      <c r="C36" s="11">
         <v>39868.515972222223</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="12">
+      <c r="D36" s="12"/>
+      <c r="E36" s="11">
         <v>39868.568055555559</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="12">
+      <c r="F36" s="12"/>
+      <c r="G36" s="11">
         <v>39868.793055555558</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="15">
+      <c r="H36" s="12"/>
+      <c r="I36" s="14">
         <f>(G36-E36)+(C36-A36)</f>
         <v>0.39305555555620231</v>
       </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="16">
+      <c r="J36" s="12"/>
+      <c r="K36" s="15">
         <f>IF(OR(WEEKDAY(A36)=7,WEEKDAY(A36)=1),I36,I36-"08:00:00")</f>
         <v>5.9722222222868993E-2</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13" t="str">
+      <c r="L36" s="12"/>
+      <c r="M36" s="12" t="str">
         <f>IF(WEEKDAY(A36)=1,"Domingo",IF(WEEKDAY(A36)=2,"Segunda",IF(WEEKDAY(A36)=3,"Terça",IF(WEEKDAY(A36)=4,"Quarta",IF(WEEKDAY(A36)=5,"Quinta",IF(WEEKDAY(A36)=6,"Sexta",IF(WEEKDAY(A36)=7,"Sábado","Domingo")))))))</f>
         <v>Segunda</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <v>39869.368750000001</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="12">
+      <c r="B37" s="12"/>
+      <c r="C37" s="11">
         <v>39869.52847222222</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12">
+      <c r="D37" s="12"/>
+      <c r="E37" s="11">
         <v>39869.581250000003</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="12">
+      <c r="F37" s="12"/>
+      <c r="G37" s="11">
         <v>39869.84097222222</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="15">
+      <c r="H37" s="12"/>
+      <c r="I37" s="14">
         <f t="shared" ref="I37:I53" si="8">(G37-E37)+(C37-A37)</f>
         <v>0.41944444443652174</v>
       </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="16">
+      <c r="J37" s="12"/>
+      <c r="K37" s="15">
         <f t="shared" ref="K37:K53" si="9">IF(OR(WEEKDAY(A37)=7,WEEKDAY(A37)=1),I37,I37-"08:00:00")</f>
         <v>8.611111110318842E-2</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13" t="str">
+      <c r="L37" s="12"/>
+      <c r="M37" s="12" t="str">
         <f t="shared" ref="M37:M53" si="10">IF(WEEKDAY(A37)=1,"Domingo",IF(WEEKDAY(A37)=2,"Segunda",IF(WEEKDAY(A37)=3,"Terça",IF(WEEKDAY(A37)=4,"Quarta",IF(WEEKDAY(A37)=5,"Quinta",IF(WEEKDAY(A37)=6,"Sexta",IF(WEEKDAY(A37)=7,"Sábado","Domingo")))))))</f>
         <v>Terça</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="12">
+      <c r="A38" s="11">
         <v>39870.415277777778</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="12">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11">
         <v>39870.541666666664</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="12">
+      <c r="D38" s="12"/>
+      <c r="E38" s="11">
         <v>39870.589583333334</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="12">
+      <c r="F38" s="12"/>
+      <c r="G38" s="11">
         <v>39870.865277777775</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="15">
+      <c r="H38" s="12"/>
+      <c r="I38" s="14">
         <f t="shared" si="8"/>
         <v>0.4020833333270275</v>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="16">
+      <c r="J38" s="12"/>
+      <c r="K38" s="15">
         <f t="shared" si="9"/>
         <v>6.8749999993694189E-2</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13" t="str">
+      <c r="L38" s="12"/>
+      <c r="M38" s="12" t="str">
         <f t="shared" si="10"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <v>39871.40902777778</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="12">
+      <c r="B39" s="12"/>
+      <c r="C39" s="11">
         <v>39871.527083333334</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12">
+      <c r="D39" s="12"/>
+      <c r="E39" s="11">
         <v>39871.601388888892</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="12">
+      <c r="F39" s="12"/>
+      <c r="G39" s="11">
         <v>39871.892361111109</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="15">
+      <c r="H39" s="12"/>
+      <c r="I39" s="14">
         <f t="shared" si="8"/>
         <v>0.40902777777228039</v>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="16">
+      <c r="J39" s="12"/>
+      <c r="K39" s="15">
         <f t="shared" si="9"/>
         <v>7.5694444438947073E-2</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13" t="str">
+      <c r="L39" s="12"/>
+      <c r="M39" s="12" t="str">
         <f t="shared" si="10"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="12">
+      <c r="A40" s="11">
         <v>39872.336805555555</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="12">
+      <c r="B40" s="12"/>
+      <c r="C40" s="11">
         <v>39872.510416666664</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="12">
+      <c r="D40" s="12"/>
+      <c r="E40" s="11">
         <v>39872.563194444447</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="12">
+      <c r="F40" s="12"/>
+      <c r="G40" s="11">
         <v>39872.697916666664</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="15">
+      <c r="H40" s="12"/>
+      <c r="I40" s="14">
         <f t="shared" si="8"/>
         <v>0.3083333333270275</v>
       </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="16">
+      <c r="J40" s="12"/>
+      <c r="K40" s="15">
         <f t="shared" si="9"/>
         <v>-2.5000000006305811E-2</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13" t="str">
+      <c r="L40" s="12"/>
+      <c r="M40" s="12" t="str">
         <f t="shared" si="10"/>
         <v>Sexta</v>
       </c>
@@ -1992,152 +2029,152 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="12">
+      <c r="A46" s="11">
         <v>39882.407638888886</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="12">
+      <c r="B46" s="12"/>
+      <c r="C46" s="11">
         <v>39882.51666666667</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="12">
+      <c r="D46" s="12"/>
+      <c r="E46" s="11">
         <v>39882.564583333333</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="12">
+      <c r="F46" s="12"/>
+      <c r="G46" s="11">
         <v>39882.875</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="15">
+      <c r="H46" s="12"/>
+      <c r="I46" s="14">
         <f t="shared" si="8"/>
         <v>0.41944444445107365</v>
       </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="16">
+      <c r="J46" s="12"/>
+      <c r="K46" s="15">
         <f t="shared" si="9"/>
         <v>8.6111111117740335E-2</v>
       </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13" t="str">
+      <c r="L46" s="12"/>
+      <c r="M46" s="12" t="str">
         <f t="shared" si="10"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="12">
+      <c r="A47" s="11">
         <v>39883.405555555553</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="12">
+      <c r="B47" s="12"/>
+      <c r="C47" s="11">
         <v>39883.51666666667</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="12">
+      <c r="D47" s="12"/>
+      <c r="E47" s="11">
         <v>39883.565972222219</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="12">
+      <c r="F47" s="12"/>
+      <c r="G47" s="11">
         <v>39883.796527777777</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="15">
+      <c r="H47" s="12"/>
+      <c r="I47" s="14">
         <f t="shared" si="8"/>
         <v>0.34166666667442769</v>
       </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="16">
+      <c r="J47" s="12"/>
+      <c r="K47" s="15">
         <f t="shared" si="9"/>
         <v>8.3333333410943733E-3</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13" t="str">
+      <c r="L47" s="12"/>
+      <c r="M47" s="12" t="str">
         <f t="shared" si="10"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="12">
+      <c r="A48" s="11">
         <v>39884.40347222222</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="12">
+      <c r="B48" s="12"/>
+      <c r="C48" s="11">
         <v>39884.530555555553</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="12">
+      <c r="D48" s="12"/>
+      <c r="E48" s="11">
         <v>39884.588194444441</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="12">
+      <c r="F48" s="12"/>
+      <c r="G48" s="11">
         <v>39884.793749999997</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="15">
+      <c r="H48" s="12"/>
+      <c r="I48" s="14">
         <f t="shared" si="8"/>
         <v>0.33263888888905058</v>
       </c>
-      <c r="J48" s="13"/>
-      <c r="K48" s="16">
+      <c r="J48" s="12"/>
+      <c r="K48" s="15">
         <f t="shared" si="9"/>
         <v>-6.9444444428273799E-4</v>
       </c>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13" t="str">
+      <c r="L48" s="12"/>
+      <c r="M48" s="12" t="str">
         <f t="shared" si="10"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="12">
+      <c r="A49" s="11">
         <v>39885.347222222219</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="12">
+      <c r="B49" s="12"/>
+      <c r="C49" s="11">
         <v>39885.511805555558</v>
       </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="12">
+      <c r="D49" s="12"/>
+      <c r="E49" s="11">
         <v>39885.560416666667</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="12">
+      <c r="F49" s="12"/>
+      <c r="G49" s="11">
         <v>39885.888888888891</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="15">
+      <c r="H49" s="12"/>
+      <c r="I49" s="14">
         <f t="shared" si="8"/>
         <v>0.49305555556202307</v>
       </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="16">
+      <c r="J49" s="12"/>
+      <c r="K49" s="15">
         <f t="shared" si="9"/>
         <v>0.15972222222868976</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13" t="str">
+      <c r="L49" s="12"/>
+      <c r="M49" s="12" t="str">
         <f t="shared" si="10"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="12">
+      <c r="A50" s="11">
         <v>39886</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="16">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="15">
         <f t="shared" si="9"/>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13" t="str">
+      <c r="L50" s="12"/>
+      <c r="M50" s="12" t="str">
         <f t="shared" si="10"/>
         <v>Sexta</v>
       </c>
@@ -2256,17 +2293,17 @@
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="5">
-        <f t="shared" ref="I54:I77" si="11">(G54-E54)+(C54-A54)</f>
+        <f t="shared" ref="I54:I85" si="11">(G54-E54)+(C54-A54)</f>
         <v>0.31319444444670808</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="6">
-        <f t="shared" ref="K54:K77" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
+        <f t="shared" ref="K54:K85" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
         <v>-2.0138888886625239E-2</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="4" t="str">
-        <f t="shared" ref="M54:M77" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M54:M85" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -2303,129 +2340,129 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="12">
+      <c r="A56" s="11">
         <v>39896.398611111108</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="12">
+      <c r="B56" s="12"/>
+      <c r="C56" s="11">
         <v>39896.510416666664</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="12">
+      <c r="D56" s="12"/>
+      <c r="E56" s="11">
         <v>39896.565972222219</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="12">
+      <c r="F56" s="12"/>
+      <c r="G56" s="11">
         <v>39896.782638888886</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="15">
+      <c r="H56" s="12"/>
+      <c r="I56" s="14">
         <f t="shared" si="11"/>
         <v>0.32847222222335404</v>
       </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="16">
+      <c r="J56" s="12"/>
+      <c r="K56" s="15">
         <f t="shared" si="12"/>
         <v>-4.861111109979277E-3</v>
       </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13" t="str">
+      <c r="L56" s="12"/>
+      <c r="M56" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="12">
+      <c r="A57" s="11">
         <v>39897.394444444442</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="12">
+      <c r="B57" s="12"/>
+      <c r="C57" s="11">
         <v>39897.518750000003</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="12">
+      <c r="D57" s="12"/>
+      <c r="E57" s="11">
         <v>39897.571527777778</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="12">
+      <c r="F57" s="12"/>
+      <c r="G57" s="11">
         <v>39897.776388888888</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="15">
+      <c r="H57" s="12"/>
+      <c r="I57" s="14">
         <f t="shared" si="11"/>
         <v>0.32916666667006211</v>
       </c>
-      <c r="J57" s="13"/>
-      <c r="K57" s="16">
+      <c r="J57" s="12"/>
+      <c r="K57" s="15">
         <f t="shared" si="12"/>
         <v>-4.1666666632712013E-3</v>
       </c>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13" t="str">
+      <c r="L57" s="12"/>
+      <c r="M57" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="12">
+      <c r="A58" s="11">
         <v>39898.401388888888</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="12">
+      <c r="B58" s="12"/>
+      <c r="C58" s="11">
         <v>39898.519444444442</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="12">
+      <c r="D58" s="12"/>
+      <c r="E58" s="11">
         <v>39898.579861111109</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="12">
+      <c r="F58" s="12"/>
+      <c r="G58" s="11">
         <v>39898.799305555556</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="15">
+      <c r="H58" s="12"/>
+      <c r="I58" s="14">
         <f t="shared" si="11"/>
         <v>0.33750000000145519</v>
       </c>
-      <c r="J58" s="13"/>
-      <c r="K58" s="16">
+      <c r="J58" s="12"/>
+      <c r="K58" s="15">
         <f t="shared" si="12"/>
         <v>4.1666666681218767E-3</v>
       </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13" t="str">
+      <c r="L58" s="12"/>
+      <c r="M58" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="12">
+      <c r="A59" s="11">
         <v>39899.319444444445</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="12">
+      <c r="B59" s="12"/>
+      <c r="C59" s="11">
         <v>39899.513888888891</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="12">
+      <c r="D59" s="12"/>
+      <c r="E59" s="11">
         <v>39899.554166666669</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="12">
+      <c r="F59" s="12"/>
+      <c r="G59" s="11">
         <v>39899.697916666664</v>
       </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="15">
+      <c r="H59" s="12"/>
+      <c r="I59" s="14">
         <f t="shared" si="11"/>
         <v>0.33819444444088731</v>
       </c>
-      <c r="J59" s="13"/>
-      <c r="K59" s="16">
+      <c r="J59" s="12"/>
+      <c r="K59" s="15">
         <f t="shared" si="12"/>
         <v>4.8611111075539948E-3</v>
       </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13" t="str">
+      <c r="L59" s="12"/>
+      <c r="M59" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Quinta</v>
       </c>
@@ -2591,161 +2628,161 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="12">
+      <c r="A65" s="11">
         <v>39910.405555555553</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="12">
+      <c r="B65" s="12"/>
+      <c r="C65" s="11">
         <v>39910.51666666667</v>
       </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="12">
+      <c r="D65" s="12"/>
+      <c r="E65" s="11">
         <v>39910.559027777781</v>
       </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="12">
+      <c r="F65" s="12"/>
+      <c r="G65" s="11">
         <v>39910.844444444447</v>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="15">
+      <c r="H65" s="12"/>
+      <c r="I65" s="14">
         <f t="shared" si="11"/>
         <v>0.39652777778246673</v>
       </c>
-      <c r="J65" s="13"/>
-      <c r="K65" s="16">
+      <c r="J65" s="12"/>
+      <c r="K65" s="15">
         <f t="shared" si="12"/>
         <v>6.3194444449133413E-2</v>
       </c>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13" t="str">
+      <c r="L65" s="12"/>
+      <c r="M65" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="12">
+      <c r="A66" s="11">
         <v>39911.404166666667</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="12">
+      <c r="B66" s="12"/>
+      <c r="C66" s="11">
         <v>39911.520138888889</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="12">
+      <c r="D66" s="12"/>
+      <c r="E66" s="11">
         <v>39911.561111111114</v>
       </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="12">
+      <c r="F66" s="12"/>
+      <c r="G66" s="11">
         <v>39911.842361111114</v>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="15">
+      <c r="H66" s="12"/>
+      <c r="I66" s="14">
         <f t="shared" si="11"/>
         <v>0.39722222222189885</v>
       </c>
-      <c r="J66" s="13"/>
-      <c r="K66" s="16">
+      <c r="J66" s="12"/>
+      <c r="K66" s="15">
         <f t="shared" si="12"/>
         <v>6.3888888888565531E-2</v>
       </c>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13" t="str">
+      <c r="L66" s="12"/>
+      <c r="M66" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="12">
+      <c r="A67" s="11">
         <v>39912.402083333334</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="12">
+      <c r="B67" s="12"/>
+      <c r="C67" s="11">
         <v>39912.519444444442</v>
       </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="12">
+      <c r="D67" s="12"/>
+      <c r="E67" s="11">
         <v>39912.56527777778</v>
       </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="12">
+      <c r="F67" s="12"/>
+      <c r="G67" s="11">
         <v>39912.804166666669</v>
       </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="15">
+      <c r="H67" s="12"/>
+      <c r="I67" s="14">
         <f t="shared" si="11"/>
         <v>0.35624999999708962</v>
       </c>
-      <c r="J67" s="13"/>
-      <c r="K67" s="16">
+      <c r="J67" s="12"/>
+      <c r="K67" s="15">
         <f t="shared" si="12"/>
         <v>2.2916666663756302E-2</v>
       </c>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13" t="str">
+      <c r="L67" s="12"/>
+      <c r="M67" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="12">
+      <c r="A68" s="11">
         <v>39913.401388888888</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="12">
+      <c r="B68" s="12"/>
+      <c r="C68" s="11">
         <v>39913.524305555555</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="12">
+      <c r="D68" s="12"/>
+      <c r="E68" s="11">
         <v>39913.600694444445</v>
       </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="12">
+      <c r="F68" s="12"/>
+      <c r="G68" s="11">
         <v>39913.838888888888</v>
       </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="15">
+      <c r="H68" s="12"/>
+      <c r="I68" s="14">
         <f t="shared" si="11"/>
         <v>0.36111111110949423</v>
       </c>
-      <c r="J68" s="13"/>
-      <c r="K68" s="16">
+      <c r="J68" s="12"/>
+      <c r="K68" s="15">
         <f t="shared" si="12"/>
         <v>2.7777777776160917E-2</v>
       </c>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13" t="str">
+      <c r="L68" s="12"/>
+      <c r="M68" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="12">
+      <c r="A69" s="11">
         <v>39914.323611111111</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="12">
+      <c r="B69" s="12"/>
+      <c r="C69" s="11">
         <v>39914.515972222223</v>
       </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="12">
+      <c r="D69" s="12"/>
+      <c r="E69" s="11">
         <v>39914.561111111114</v>
       </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="12">
+      <c r="F69" s="12"/>
+      <c r="G69" s="11">
         <v>39914.701388888891</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="15">
+      <c r="H69" s="12"/>
+      <c r="I69" s="14">
         <f t="shared" si="11"/>
         <v>0.33263888888905058</v>
       </c>
-      <c r="J69" s="13"/>
-      <c r="K69" s="16">
+      <c r="J69" s="12"/>
+      <c r="K69" s="15">
         <f t="shared" si="12"/>
         <v>-6.9444444428273799E-4</v>
       </c>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13" t="str">
+      <c r="L69" s="12"/>
+      <c r="M69" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Sexta</v>
       </c>
@@ -2911,103 +2948,355 @@
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="12">
+      <c r="A75" s="11">
         <v>39924.40625</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="12">
+      <c r="B75" s="12"/>
+      <c r="C75" s="11">
         <v>39924.523611111108</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="12">
+      <c r="D75" s="12"/>
+      <c r="E75" s="11">
         <v>39924.563888888886</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="12">
+      <c r="F75" s="12"/>
+      <c r="G75" s="11">
         <v>39924.784722222219</v>
       </c>
-      <c r="H75" s="13"/>
-      <c r="I75" s="15">
+      <c r="H75" s="12"/>
+      <c r="I75" s="14">
         <f t="shared" si="11"/>
         <v>0.33819444444088731</v>
       </c>
-      <c r="J75" s="13"/>
-      <c r="K75" s="16">
+      <c r="J75" s="12"/>
+      <c r="K75" s="15">
         <f t="shared" si="12"/>
         <v>4.8611111075539948E-3</v>
       </c>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13" t="str">
+      <c r="L75" s="12"/>
+      <c r="M75" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="12">
+      <c r="A76" s="11">
         <v>39925.397916666669</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="12">
+      <c r="B76" s="12"/>
+      <c r="C76" s="11">
         <v>39925.504166666666</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="12">
+      <c r="D76" s="12"/>
+      <c r="E76" s="11">
         <v>39925.545138888891</v>
       </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="12">
+      <c r="F76" s="12"/>
+      <c r="G76" s="11">
         <v>39925.772916666669</v>
       </c>
-      <c r="H76" s="13"/>
-      <c r="I76" s="15">
+      <c r="H76" s="12"/>
+      <c r="I76" s="14">
         <f t="shared" si="11"/>
         <v>0.33402777777519077</v>
       </c>
-      <c r="J76" s="13"/>
-      <c r="K76" s="16">
+      <c r="J76" s="12"/>
+      <c r="K76" s="15">
         <f t="shared" si="12"/>
         <v>6.944444418574558E-4</v>
       </c>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13" t="str">
+      <c r="L76" s="12"/>
+      <c r="M76" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="12">
+      <c r="A77" s="11">
         <v>39926.375</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="12">
+      <c r="B77" s="12"/>
+      <c r="C77" s="11">
         <v>39926.517361111109</v>
       </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12">
+      <c r="D77" s="12"/>
+      <c r="E77" s="11">
         <v>39926.565972222219</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="12">
+      <c r="F77" s="12"/>
+      <c r="G77" s="11">
         <v>39926.754861111112</v>
       </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="15">
+      <c r="H77" s="12"/>
+      <c r="I77" s="14">
         <f t="shared" si="11"/>
         <v>0.33125000000291038</v>
       </c>
-      <c r="J77" s="13"/>
-      <c r="K77" s="16">
+      <c r="J77" s="12"/>
+      <c r="K77" s="15">
         <f t="shared" si="12"/>
         <v>-2.0833333304229318E-3</v>
       </c>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13" t="str">
+      <c r="L77" s="12"/>
+      <c r="M77" s="12" t="str">
         <f t="shared" si="13"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="B78" s="11"/>
+      <c r="A78" s="11">
+        <v>39927.401388888888</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="11">
+        <v>39927.50277777778</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="11">
+        <v>39927.576388888891</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="11">
+        <v>39927.795138888891</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="14">
+        <f t="shared" si="11"/>
+        <v>0.32013888889196096</v>
+      </c>
+      <c r="J78" s="12"/>
+      <c r="K78" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.3194444441372355E-2</v>
+      </c>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="11">
+        <v>39928.32916666667</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="11">
+        <v>39928.509027777778</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="11">
+        <v>39928.54791666667</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="11">
+        <v>39928.697222222225</v>
+      </c>
+      <c r="H79" s="12"/>
+      <c r="I79" s="14">
+        <f t="shared" si="11"/>
+        <v>0.32916666666278616</v>
+      </c>
+      <c r="J79" s="12"/>
+      <c r="K79" s="15">
+        <f t="shared" si="12"/>
+        <v>-4.1666666705471589E-3</v>
+      </c>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="11">
+        <v>39931.401388888888</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="11">
+        <v>39931.52847222222</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="11">
+        <v>39931.568055555559</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="11">
+        <v>39931.789583333331</v>
+      </c>
+      <c r="H80" s="12"/>
+      <c r="I80" s="14">
+        <f t="shared" si="11"/>
+        <v>0.34861111110512866</v>
+      </c>
+      <c r="J80" s="12"/>
+      <c r="K80" s="15">
+        <f t="shared" si="12"/>
+        <v>1.5277777771795342E-2</v>
+      </c>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="11">
+        <v>39932.336805555555</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="11">
+        <v>39932.537499999999</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="11">
+        <v>39932.586805555555</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="11">
+        <v>39932.70208333333</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="14">
+        <f t="shared" si="11"/>
+        <v>0.31597222221898846</v>
+      </c>
+      <c r="J81" s="12"/>
+      <c r="K81" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.7361111114344852E-2</v>
+      </c>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="9">
+        <v>39933</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="9">
+        <v>39933</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="9">
+        <v>39933</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="9">
+        <v>39933</v>
+      </c>
+      <c r="H82" s="10"/>
+      <c r="I82" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="10"/>
+      <c r="K82" s="17">
+        <v>0</v>
+      </c>
+      <c r="L82" s="10"/>
+      <c r="M82" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="9">
+        <v>39934.364583333336</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="9">
+        <v>39934.525000000001</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="9">
+        <v>39934.572222222225</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="9">
+        <v>39934.758333333331</v>
+      </c>
+      <c r="H83" s="10"/>
+      <c r="I83" s="16">
+        <f t="shared" si="11"/>
+        <v>0.34652777777228039</v>
+      </c>
+      <c r="J83" s="10"/>
+      <c r="K83" s="17">
+        <f t="shared" si="12"/>
+        <v>1.3194444438947073E-2</v>
+      </c>
+      <c r="L83" s="10"/>
+      <c r="M83" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="9">
+        <v>39935.329861111109</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="9">
+        <v>39935.550694444442</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="9">
+        <v>39935.587500000001</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="9">
+        <v>39935.667361111111</v>
+      </c>
+      <c r="H84" s="10"/>
+      <c r="I84" s="16">
+        <f t="shared" si="11"/>
+        <v>0.3006944444423425</v>
+      </c>
+      <c r="J84" s="10"/>
+      <c r="K84" s="17">
+        <f t="shared" si="12"/>
+        <v>-3.2638888890990814E-2</v>
+      </c>
+      <c r="L84" s="10"/>
+      <c r="M84" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="9">
+        <v>39938.381944444445</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="9">
+        <v>39938.531944444447</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9">
+        <v>39938.583333333336</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="9">
+        <v>39938.785416666666</v>
+      </c>
+      <c r="H85" s="10"/>
+      <c r="I85" s="16">
+        <f t="shared" si="11"/>
+        <v>0.35208333333139308</v>
+      </c>
+      <c r="J85" s="10"/>
+      <c r="K85" s="17">
+        <f t="shared" si="12"/>
+        <v>1.8749999998059763E-2</v>
+      </c>
+      <c r="L85" s="10"/>
+      <c r="M85" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v>Segunda</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -576,7 +576,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
@@ -2293,17 +2293,17 @@
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="5">
-        <f t="shared" ref="I54:I85" si="11">(G54-E54)+(C54-A54)</f>
+        <f t="shared" ref="I54:I86" si="11">(G54-E54)+(C54-A54)</f>
         <v>0.31319444444670808</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="6">
-        <f t="shared" ref="K54:K85" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
+        <f t="shared" ref="K54:K86" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
         <v>-2.0138888886625239E-2</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="4" t="str">
-        <f t="shared" ref="M54:M85" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M54:M86" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -3296,6 +3296,38 @@
       <c r="M85" s="18" t="str">
         <f t="shared" si="13"/>
         <v>Segunda</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="9">
+        <v>39939.408333333333</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="9">
+        <v>39939.520833333336</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="9">
+        <v>39939.568749999999</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="9">
+        <v>39939.831944444442</v>
+      </c>
+      <c r="H86" s="10"/>
+      <c r="I86" s="16">
+        <f t="shared" si="11"/>
+        <v>0.37569444444670808</v>
+      </c>
+      <c r="J86" s="10"/>
+      <c r="K86" s="17">
+        <f t="shared" si="12"/>
+        <v>4.2361111113374761E-2</v>
+      </c>
+      <c r="L86" s="10"/>
+      <c r="M86" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v>Terça</v>
       </c>
     </row>
   </sheetData>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -68,6 +68,29 @@
             <charset val="1"/>
           </rPr>
           <t>Dia do Trabalho</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A88" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>renato:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Verificar os 10 min do almoço.</t>
         </r>
       </text>
     </comment>
@@ -576,11 +599,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2293,17 +2316,17 @@
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="5">
-        <f t="shared" ref="I54:I86" si="11">(G54-E54)+(C54-A54)</f>
+        <f t="shared" ref="I54:I88" si="11">(G54-E54)+(C54-A54)</f>
         <v>0.31319444444670808</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="6">
-        <f t="shared" ref="K54:K86" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
+        <f t="shared" ref="K54:K88" si="12">IF(OR(WEEKDAY(A54)=7,WEEKDAY(A54)=1),I54,I54-"08:00:00")</f>
         <v>-2.0138888886625239E-2</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="4" t="str">
-        <f t="shared" ref="M54:M86" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="M54:M88" si="13">IF(WEEKDAY(A54)=1,"Domingo",IF(WEEKDAY(A54)=2,"Segunda",IF(WEEKDAY(A54)=3,"Terça",IF(WEEKDAY(A54)=4,"Quarta",IF(WEEKDAY(A54)=5,"Quinta",IF(WEEKDAY(A54)=6,"Sexta",IF(WEEKDAY(A54)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -3328,6 +3351,70 @@
       <c r="M86" s="18" t="str">
         <f t="shared" si="13"/>
         <v>Terça</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="9">
+        <v>39940.400000000001</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="9">
+        <v>39940.523611111108</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="9">
+        <v>39940.568055555559</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="9">
+        <v>39940.831944444442</v>
+      </c>
+      <c r="H87" s="10"/>
+      <c r="I87" s="16">
+        <f t="shared" si="11"/>
+        <v>0.38749999998981366</v>
+      </c>
+      <c r="J87" s="10"/>
+      <c r="K87" s="17">
+        <f t="shared" si="12"/>
+        <v>5.4166666656480345E-2</v>
+      </c>
+      <c r="L87" s="10"/>
+      <c r="M87" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v>Quarta</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="9">
+        <v>39941.405555555553</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="9">
+        <v>39941.536111111112</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="9">
+        <v>39941.570833333331</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="9">
+        <v>39941.801388888889</v>
+      </c>
+      <c r="H88" s="10"/>
+      <c r="I88" s="16">
+        <f t="shared" si="11"/>
+        <v>0.36111111111677019</v>
+      </c>
+      <c r="J88" s="10"/>
+      <c r="K88" s="17">
+        <f t="shared" si="12"/>
+        <v>2.7777777783436874E-2</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="18" t="str">
+        <f t="shared" si="13"/>
+        <v>Quinta</v>
       </c>
     </row>
   </sheetData>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -587,11 +587,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="P89" s="8"/>
       <c r="Q89" s="15" t="str">
-        <f t="shared" ref="Q89:Q90" si="18">IF(WEEKDAY(A89)=1,"Domingo",IF(WEEKDAY(A89)=2,"Segunda",IF(WEEKDAY(A89)=3,"Terça",IF(WEEKDAY(A89)=4,"Quarta",IF(WEEKDAY(A89)=5,"Quinta",IF(WEEKDAY(A89)=6,"Sexta",IF(WEEKDAY(A89)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="Q89:Q91" si="18">IF(WEEKDAY(A89)=1,"Domingo",IF(WEEKDAY(A89)=2,"Segunda",IF(WEEKDAY(A89)=3,"Terça",IF(WEEKDAY(A89)=4,"Quarta",IF(WEEKDAY(A89)=5,"Quinta",IF(WEEKDAY(A89)=6,"Sexta",IF(WEEKDAY(A89)=7,"Sábado","Domingo")))))))</f>
         <v>Sexta</v>
       </c>
     </row>
@@ -4341,28 +4341,112 @@
       </c>
       <c r="H90" s="10"/>
       <c r="I90" s="20">
-        <f t="shared" ref="I90" si="19">E90-C90</f>
+        <f t="shared" ref="I90:I91" si="19">E90-C90</f>
         <v>4.2361111110949423E-2</v>
       </c>
       <c r="J90" s="10"/>
       <c r="K90" s="12">
-        <f t="shared" ref="K90" si="20">(G90-E90)+(C90-A90)</f>
+        <f t="shared" ref="K90:K91" si="20">(G90-E90)+(C90-A90)</f>
         <v>0.34236111111385981</v>
       </c>
       <c r="L90" s="10"/>
       <c r="M90" s="12">
-        <f t="shared" ref="M90" si="21">IF((E90-C90)*1440&lt;60,K90-(("01:00:00"-I90)),K90)</f>
+        <f t="shared" ref="M90:M91" si="21">IF((E90-C90)*1440&lt;60,K90-(("01:00:00"-I90)),K90)</f>
         <v>0.34236111111385981</v>
       </c>
       <c r="N90" s="10"/>
       <c r="O90" s="13">
-        <f t="shared" ref="O90" si="22">IF(OR(WEEKDAY(A90)=7,WEEKDAY(A90)=1),M90,M90-"08:00:00")</f>
+        <f t="shared" ref="O90:O91" si="22">IF(OR(WEEKDAY(A90)=7,WEEKDAY(A90)=1),M90,M90-"08:00:00")</f>
         <v>9.0277777805264914E-3</v>
       </c>
       <c r="P90" s="10"/>
       <c r="Q90" s="10" t="str">
         <f t="shared" si="18"/>
         <v>Segunda</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="11">
+        <v>39946.412499999999</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="9">
+        <v>39946.527083333334</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11">
+        <v>39946.56527777778</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="11">
+        <v>39946.788194444445</v>
+      </c>
+      <c r="H91" s="10"/>
+      <c r="I91" s="20">
+        <f t="shared" ref="I91" si="23">E91-C91</f>
+        <v>3.8194444445252884E-2</v>
+      </c>
+      <c r="J91" s="10"/>
+      <c r="K91" s="12">
+        <f t="shared" ref="K91" si="24">(G91-E91)+(C91-A91)</f>
+        <v>0.33750000000145519</v>
+      </c>
+      <c r="L91" s="10"/>
+      <c r="M91" s="12">
+        <f t="shared" ref="M91" si="25">IF((E91-C91)*1440&lt;60,K91-(("01:00:00"-I91)),K91)</f>
+        <v>0.33402777778004139</v>
+      </c>
+      <c r="N91" s="10"/>
+      <c r="O91" s="13">
+        <f t="shared" ref="O91" si="26">IF(OR(WEEKDAY(A91)=7,WEEKDAY(A91)=1),M91,M91-"08:00:00")</f>
+        <v>6.944444467080757E-4</v>
+      </c>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10" t="str">
+        <f t="shared" ref="Q91" si="27">IF(WEEKDAY(A91)=1,"Domingo",IF(WEEKDAY(A91)=2,"Segunda",IF(WEEKDAY(A91)=3,"Terça",IF(WEEKDAY(A91)=4,"Quarta",IF(WEEKDAY(A91)=5,"Quinta",IF(WEEKDAY(A91)=6,"Sexta",IF(WEEKDAY(A91)=7,"Sábado","Domingo")))))))</f>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="11">
+        <v>39947.411111111112</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11">
+        <v>39947.525694444441</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11">
+        <v>39947.572222222225</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="11">
+        <v>39947.795138888891</v>
+      </c>
+      <c r="H92" s="10"/>
+      <c r="I92" s="20">
+        <f t="shared" ref="I92" si="28">E92-C92</f>
+        <v>4.652777778392192E-2</v>
+      </c>
+      <c r="J92" s="10"/>
+      <c r="K92" s="12">
+        <f t="shared" ref="K92" si="29">(G92-E92)+(C92-A92)</f>
+        <v>0.33749999999417923</v>
+      </c>
+      <c r="L92" s="10"/>
+      <c r="M92" s="12">
+        <f t="shared" ref="M92" si="30">IF((E92-C92)*1440&lt;60,K92-(("01:00:00"-I92)),K92)</f>
+        <v>0.33749999999417923</v>
+      </c>
+      <c r="N92" s="10"/>
+      <c r="O92" s="13">
+        <f t="shared" ref="O92" si="31">IF(OR(WEEKDAY(A92)=7,WEEKDAY(A92)=1),M92,M92-"08:00:00")</f>
+        <v>4.1666666608459191E-3</v>
+      </c>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10" t="str">
+        <f t="shared" ref="Q92" si="32">IF(WEEKDAY(A92)=1,"Domingo",IF(WEEKDAY(A92)=2,"Segunda",IF(WEEKDAY(A92)=3,"Terça",IF(WEEKDAY(A92)=4,"Quarta",IF(WEEKDAY(A92)=5,"Quinta",IF(WEEKDAY(A92)=6,"Sexta",IF(WEEKDAY(A92)=7,"Sábado","Domingo")))))))</f>
+        <v>Quarta</v>
       </c>
     </row>
   </sheetData>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -587,11 +587,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S92"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="P89" s="8"/>
       <c r="Q89" s="15" t="str">
-        <f t="shared" ref="Q89:Q91" si="18">IF(WEEKDAY(A89)=1,"Domingo",IF(WEEKDAY(A89)=2,"Segunda",IF(WEEKDAY(A89)=3,"Terça",IF(WEEKDAY(A89)=4,"Quarta",IF(WEEKDAY(A89)=5,"Quinta",IF(WEEKDAY(A89)=6,"Sexta",IF(WEEKDAY(A89)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="Q89:Q90" si="18">IF(WEEKDAY(A89)=1,"Domingo",IF(WEEKDAY(A89)=2,"Segunda",IF(WEEKDAY(A89)=3,"Terça",IF(WEEKDAY(A89)=4,"Quarta",IF(WEEKDAY(A89)=5,"Quinta",IF(WEEKDAY(A89)=6,"Sexta",IF(WEEKDAY(A89)=7,"Sábado","Domingo")))))))</f>
         <v>Sexta</v>
       </c>
     </row>
@@ -4341,22 +4341,22 @@
       </c>
       <c r="H90" s="10"/>
       <c r="I90" s="20">
-        <f t="shared" ref="I90:I91" si="19">E90-C90</f>
+        <f t="shared" ref="I90" si="19">E90-C90</f>
         <v>4.2361111110949423E-2</v>
       </c>
       <c r="J90" s="10"/>
       <c r="K90" s="12">
-        <f t="shared" ref="K90:K91" si="20">(G90-E90)+(C90-A90)</f>
+        <f t="shared" ref="K90" si="20">(G90-E90)+(C90-A90)</f>
         <v>0.34236111111385981</v>
       </c>
       <c r="L90" s="10"/>
       <c r="M90" s="12">
-        <f t="shared" ref="M90:M91" si="21">IF((E90-C90)*1440&lt;60,K90-(("01:00:00"-I90)),K90)</f>
+        <f t="shared" ref="M90" si="21">IF((E90-C90)*1440&lt;60,K90-(("01:00:00"-I90)),K90)</f>
         <v>0.34236111111385981</v>
       </c>
       <c r="N90" s="10"/>
       <c r="O90" s="13">
-        <f t="shared" ref="O90:O91" si="22">IF(OR(WEEKDAY(A90)=7,WEEKDAY(A90)=1),M90,M90-"08:00:00")</f>
+        <f t="shared" ref="O90" si="22">IF(OR(WEEKDAY(A90)=7,WEEKDAY(A90)=1),M90,M90-"08:00:00")</f>
         <v>9.0277777805264914E-3</v>
       </c>
       <c r="P90" s="10"/>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="H92" s="10"/>
       <c r="I92" s="20">
-        <f t="shared" ref="I92" si="28">E92-C92</f>
+        <f t="shared" ref="I92:I93" si="28">E92-C92</f>
         <v>4.652777778392192E-2</v>
       </c>
       <c r="J92" s="10"/>
@@ -4445,8 +4445,50 @@
       </c>
       <c r="P92" s="10"/>
       <c r="Q92" s="10" t="str">
-        <f t="shared" ref="Q92" si="32">IF(WEEKDAY(A92)=1,"Domingo",IF(WEEKDAY(A92)=2,"Segunda",IF(WEEKDAY(A92)=3,"Terça",IF(WEEKDAY(A92)=4,"Quarta",IF(WEEKDAY(A92)=5,"Quinta",IF(WEEKDAY(A92)=6,"Sexta",IF(WEEKDAY(A92)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="Q92:Q93" si="32">IF(WEEKDAY(A92)=1,"Domingo",IF(WEEKDAY(A92)=2,"Segunda",IF(WEEKDAY(A92)=3,"Terça",IF(WEEKDAY(A92)=4,"Quarta",IF(WEEKDAY(A92)=5,"Quinta",IF(WEEKDAY(A92)=6,"Sexta",IF(WEEKDAY(A92)=7,"Sábado","Domingo")))))))</f>
         <v>Quarta</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="11">
+        <v>39948.409722222219</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11">
+        <v>39948.538194444445</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11">
+        <v>39948.576388888891</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="11">
+        <v>39948.805555555555</v>
+      </c>
+      <c r="H93" s="10"/>
+      <c r="I93" s="20">
+        <f t="shared" ref="I93" si="33">E93-C93</f>
+        <v>3.8194444445252884E-2</v>
+      </c>
+      <c r="J93" s="10"/>
+      <c r="K93" s="12">
+        <f t="shared" ref="K93" si="34">(G93-E93)+(C93-A93)</f>
+        <v>0.35763888889050577</v>
+      </c>
+      <c r="L93" s="10"/>
+      <c r="M93" s="12">
+        <f t="shared" ref="M93" si="35">IF((E93-C93)*1440&lt;60,K93-(("01:00:00"-I93)),K93)</f>
+        <v>0.35416666666909197</v>
+      </c>
+      <c r="N93" s="10"/>
+      <c r="O93" s="13">
+        <f t="shared" ref="O93" si="36">IF(OR(WEEKDAY(A93)=7,WEEKDAY(A93)=1),M93,M93-"08:00:00")</f>
+        <v>2.0833333335758653E-2</v>
+      </c>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10" t="str">
+        <f t="shared" ref="Q93" si="37">IF(WEEKDAY(A93)=1,"Domingo",IF(WEEKDAY(A93)=2,"Segunda",IF(WEEKDAY(A93)=3,"Terça",IF(WEEKDAY(A93)=4,"Quarta",IF(WEEKDAY(A93)=5,"Quinta",IF(WEEKDAY(A93)=6,"Sexta",IF(WEEKDAY(A93)=7,"Sábado","Domingo")))))))</f>
+        <v>Quinta</v>
       </c>
     </row>
   </sheetData>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -245,7 +245,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -283,6 +283,11 @@
     <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -587,11 +592,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94:Q95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4425,7 +4430,7 @@
       </c>
       <c r="H92" s="10"/>
       <c r="I92" s="20">
-        <f t="shared" ref="I92:I93" si="28">E92-C92</f>
+        <f t="shared" ref="I92" si="28">E92-C92</f>
         <v>4.652777778392192E-2</v>
       </c>
       <c r="J92" s="10"/>
@@ -4445,7 +4450,7 @@
       </c>
       <c r="P92" s="10"/>
       <c r="Q92" s="10" t="str">
-        <f t="shared" ref="Q92:Q93" si="32">IF(WEEKDAY(A92)=1,"Domingo",IF(WEEKDAY(A92)=2,"Segunda",IF(WEEKDAY(A92)=3,"Terça",IF(WEEKDAY(A92)=4,"Quarta",IF(WEEKDAY(A92)=5,"Quinta",IF(WEEKDAY(A92)=6,"Sexta",IF(WEEKDAY(A92)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="Q92" si="32">IF(WEEKDAY(A92)=1,"Domingo",IF(WEEKDAY(A92)=2,"Segunda",IF(WEEKDAY(A92)=3,"Terça",IF(WEEKDAY(A92)=4,"Quarta",IF(WEEKDAY(A92)=5,"Quinta",IF(WEEKDAY(A92)=6,"Sexta",IF(WEEKDAY(A92)=7,"Sábado","Domingo")))))))</f>
         <v>Quarta</v>
       </c>
     </row>
@@ -4467,28 +4472,112 @@
       </c>
       <c r="H93" s="10"/>
       <c r="I93" s="20">
-        <f t="shared" ref="I93" si="33">E93-C93</f>
+        <f t="shared" ref="I93:I95" si="33">E93-C93</f>
         <v>3.8194444445252884E-2</v>
       </c>
       <c r="J93" s="10"/>
       <c r="K93" s="12">
-        <f t="shared" ref="K93" si="34">(G93-E93)+(C93-A93)</f>
+        <f t="shared" ref="K93:K95" si="34">(G93-E93)+(C93-A93)</f>
         <v>0.35763888889050577</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="12">
-        <f t="shared" ref="M93" si="35">IF((E93-C93)*1440&lt;60,K93-(("01:00:00"-I93)),K93)</f>
+        <f t="shared" ref="M93:M95" si="35">IF((E93-C93)*1440&lt;60,K93-(("01:00:00"-I93)),K93)</f>
         <v>0.35416666666909197</v>
       </c>
       <c r="N93" s="10"/>
       <c r="O93" s="13">
-        <f t="shared" ref="O93" si="36">IF(OR(WEEKDAY(A93)=7,WEEKDAY(A93)=1),M93,M93-"08:00:00")</f>
+        <f t="shared" ref="O93:O95" si="36">IF(OR(WEEKDAY(A93)=7,WEEKDAY(A93)=1),M93,M93-"08:00:00")</f>
         <v>2.0833333335758653E-2</v>
       </c>
       <c r="P93" s="10"/>
       <c r="Q93" s="10" t="str">
-        <f t="shared" ref="Q93" si="37">IF(WEEKDAY(A93)=1,"Domingo",IF(WEEKDAY(A93)=2,"Segunda",IF(WEEKDAY(A93)=3,"Terça",IF(WEEKDAY(A93)=4,"Quarta",IF(WEEKDAY(A93)=5,"Quinta",IF(WEEKDAY(A93)=6,"Sexta",IF(WEEKDAY(A93)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="Q93:Q95" si="37">IF(WEEKDAY(A93)=1,"Domingo",IF(WEEKDAY(A93)=2,"Segunda",IF(WEEKDAY(A93)=3,"Terça",IF(WEEKDAY(A93)=4,"Quarta",IF(WEEKDAY(A93)=5,"Quinta",IF(WEEKDAY(A93)=6,"Sexta",IF(WEEKDAY(A93)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="21">
+        <v>39949.319444444445</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="21">
+        <v>39949.549305555556</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="21">
+        <v>39949.586805555555</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="21">
+        <v>39949.700694444444</v>
+      </c>
+      <c r="H94" s="8"/>
+      <c r="I94" s="22">
+        <f t="shared" si="33"/>
+        <v>3.7499999998544808E-2</v>
+      </c>
+      <c r="J94" s="8"/>
+      <c r="K94" s="14">
+        <f t="shared" si="34"/>
+        <v>0.34375</v>
+      </c>
+      <c r="L94" s="8"/>
+      <c r="M94" s="14">
+        <f t="shared" si="35"/>
+        <v>0.33958333333187812</v>
+      </c>
+      <c r="N94" s="8"/>
+      <c r="O94" s="23">
+        <f t="shared" si="36"/>
+        <v>6.2499999985448085E-3</v>
+      </c>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v>Sexta</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="21">
+        <v>39952.402083333334</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="21">
+        <v>39952.541666666664</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="21">
+        <v>39952.582638888889</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="21">
+        <v>39952.788194444445</v>
+      </c>
+      <c r="H95" s="8"/>
+      <c r="I95" s="22">
+        <f t="shared" si="33"/>
+        <v>4.0972222224809229E-2</v>
+      </c>
+      <c r="J95" s="8"/>
+      <c r="K95" s="14">
+        <f t="shared" si="34"/>
+        <v>0.34513888888614019</v>
+      </c>
+      <c r="L95" s="8"/>
+      <c r="M95" s="14">
+        <f t="shared" si="35"/>
+        <v>0.34444444444428274</v>
+      </c>
+      <c r="N95" s="8"/>
+      <c r="O95" s="23">
+        <f t="shared" si="36"/>
+        <v>1.1111111110949423E-2</v>
+      </c>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v>Segunda</v>
       </c>
     </row>
   </sheetData>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -592,11 +592,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S95"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94:Q95"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4472,68 +4472,68 @@
       </c>
       <c r="H93" s="10"/>
       <c r="I93" s="20">
-        <f t="shared" ref="I93:I95" si="33">E93-C93</f>
+        <f t="shared" ref="I93:I96" si="33">E93-C93</f>
         <v>3.8194444445252884E-2</v>
       </c>
       <c r="J93" s="10"/>
       <c r="K93" s="12">
-        <f t="shared" ref="K93:K95" si="34">(G93-E93)+(C93-A93)</f>
+        <f t="shared" ref="K93:K96" si="34">(G93-E93)+(C93-A93)</f>
         <v>0.35763888889050577</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="12">
-        <f t="shared" ref="M93:M95" si="35">IF((E93-C93)*1440&lt;60,K93-(("01:00:00"-I93)),K93)</f>
+        <f t="shared" ref="M93:M96" si="35">IF((E93-C93)*1440&lt;60,K93-(("01:00:00"-I93)),K93)</f>
         <v>0.35416666666909197</v>
       </c>
       <c r="N93" s="10"/>
       <c r="O93" s="13">
-        <f t="shared" ref="O93:O95" si="36">IF(OR(WEEKDAY(A93)=7,WEEKDAY(A93)=1),M93,M93-"08:00:00")</f>
+        <f t="shared" ref="O93:O96" si="36">IF(OR(WEEKDAY(A93)=7,WEEKDAY(A93)=1),M93,M93-"08:00:00")</f>
         <v>2.0833333335758653E-2</v>
       </c>
       <c r="P93" s="10"/>
       <c r="Q93" s="10" t="str">
-        <f t="shared" ref="Q93:Q95" si="37">IF(WEEKDAY(A93)=1,"Domingo",IF(WEEKDAY(A93)=2,"Segunda",IF(WEEKDAY(A93)=3,"Terça",IF(WEEKDAY(A93)=4,"Quarta",IF(WEEKDAY(A93)=5,"Quinta",IF(WEEKDAY(A93)=6,"Sexta",IF(WEEKDAY(A93)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="Q93:Q96" si="37">IF(WEEKDAY(A93)=1,"Domingo",IF(WEEKDAY(A93)=2,"Segunda",IF(WEEKDAY(A93)=3,"Terça",IF(WEEKDAY(A93)=4,"Quarta",IF(WEEKDAY(A93)=5,"Quinta",IF(WEEKDAY(A93)=6,"Sexta",IF(WEEKDAY(A93)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="21">
+      <c r="A94" s="11">
         <v>39949.319444444445</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="21">
+      <c r="B94" s="10"/>
+      <c r="C94" s="11">
         <v>39949.549305555556</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="21">
+      <c r="D94" s="10"/>
+      <c r="E94" s="11">
         <v>39949.586805555555</v>
       </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="21">
+      <c r="F94" s="10"/>
+      <c r="G94" s="11">
         <v>39949.700694444444</v>
       </c>
-      <c r="H94" s="8"/>
-      <c r="I94" s="22">
+      <c r="H94" s="10"/>
+      <c r="I94" s="20">
         <f t="shared" si="33"/>
         <v>3.7499999998544808E-2</v>
       </c>
-      <c r="J94" s="8"/>
-      <c r="K94" s="14">
+      <c r="J94" s="10"/>
+      <c r="K94" s="12">
         <f t="shared" si="34"/>
         <v>0.34375</v>
       </c>
-      <c r="L94" s="8"/>
-      <c r="M94" s="14">
+      <c r="L94" s="10"/>
+      <c r="M94" s="12">
         <f t="shared" si="35"/>
         <v>0.33958333333187812</v>
       </c>
-      <c r="N94" s="8"/>
-      <c r="O94" s="23">
+      <c r="N94" s="10"/>
+      <c r="O94" s="13">
         <f t="shared" si="36"/>
         <v>6.2499999985448085E-3</v>
       </c>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="15" t="str">
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10" t="str">
         <f t="shared" si="37"/>
         <v>Sexta</v>
       </c>
@@ -4578,6 +4578,48 @@
       <c r="Q95" s="15" t="str">
         <f t="shared" si="37"/>
         <v>Segunda</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="21">
+        <v>39953.404861111114</v>
+      </c>
+      <c r="B96" s="8"/>
+      <c r="C96" s="21">
+        <v>39953.543055555558</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="21">
+        <v>39953.579861111109</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="21">
+        <v>39953.788888888892</v>
+      </c>
+      <c r="H96" s="8"/>
+      <c r="I96" s="22">
+        <f t="shared" si="33"/>
+        <v>3.6805555551836733E-2</v>
+      </c>
+      <c r="J96" s="8"/>
+      <c r="K96" s="14">
+        <f t="shared" si="34"/>
+        <v>0.34722222222626442</v>
+      </c>
+      <c r="L96" s="8"/>
+      <c r="M96" s="14">
+        <f t="shared" si="35"/>
+        <v>0.34236111111143447</v>
+      </c>
+      <c r="N96" s="8"/>
+      <c r="O96" s="23">
+        <f t="shared" si="36"/>
+        <v>9.0277777781011537E-3</v>
+      </c>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v>Terça</v>
       </c>
     </row>
   </sheetData>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -592,11 +592,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S96"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4472,27 +4472,27 @@
       </c>
       <c r="H93" s="10"/>
       <c r="I93" s="20">
-        <f t="shared" ref="I93:I96" si="33">E93-C93</f>
+        <f t="shared" ref="I93:I97" si="33">E93-C93</f>
         <v>3.8194444445252884E-2</v>
       </c>
       <c r="J93" s="10"/>
       <c r="K93" s="12">
-        <f t="shared" ref="K93:K96" si="34">(G93-E93)+(C93-A93)</f>
+        <f t="shared" ref="K93:K97" si="34">(G93-E93)+(C93-A93)</f>
         <v>0.35763888889050577</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="12">
-        <f t="shared" ref="M93:M96" si="35">IF((E93-C93)*1440&lt;60,K93-(("01:00:00"-I93)),K93)</f>
+        <f t="shared" ref="M93:M97" si="35">IF((E93-C93)*1440&lt;60,K93-(("01:00:00"-I93)),K93)</f>
         <v>0.35416666666909197</v>
       </c>
       <c r="N93" s="10"/>
       <c r="O93" s="13">
-        <f t="shared" ref="O93:O96" si="36">IF(OR(WEEKDAY(A93)=7,WEEKDAY(A93)=1),M93,M93-"08:00:00")</f>
+        <f t="shared" ref="O93:O97" si="36">IF(OR(WEEKDAY(A93)=7,WEEKDAY(A93)=1),M93,M93-"08:00:00")</f>
         <v>2.0833333335758653E-2</v>
       </c>
       <c r="P93" s="10"/>
       <c r="Q93" s="10" t="str">
-        <f t="shared" ref="Q93:Q96" si="37">IF(WEEKDAY(A93)=1,"Domingo",IF(WEEKDAY(A93)=2,"Segunda",IF(WEEKDAY(A93)=3,"Terça",IF(WEEKDAY(A93)=4,"Quarta",IF(WEEKDAY(A93)=5,"Quinta",IF(WEEKDAY(A93)=6,"Sexta",IF(WEEKDAY(A93)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="Q93:Q97" si="37">IF(WEEKDAY(A93)=1,"Domingo",IF(WEEKDAY(A93)=2,"Segunda",IF(WEEKDAY(A93)=3,"Terça",IF(WEEKDAY(A93)=4,"Quarta",IF(WEEKDAY(A93)=5,"Quinta",IF(WEEKDAY(A93)=6,"Sexta",IF(WEEKDAY(A93)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -4620,6 +4620,48 @@
       <c r="Q96" s="15" t="str">
         <f t="shared" si="37"/>
         <v>Terça</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="21">
+        <v>39954.402083333334</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="21">
+        <v>39954.541666666664</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="21">
+        <v>39954.57916666667</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="21">
+        <v>39954.8125</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="22">
+        <f t="shared" si="33"/>
+        <v>3.7500000005820766E-2</v>
+      </c>
+      <c r="J97" s="8"/>
+      <c r="K97" s="14">
+        <f t="shared" si="34"/>
+        <v>0.37291666665987577</v>
+      </c>
+      <c r="L97" s="8"/>
+      <c r="M97" s="14">
+        <f t="shared" si="35"/>
+        <v>0.36874999999902985</v>
+      </c>
+      <c r="N97" s="8"/>
+      <c r="O97" s="23">
+        <f t="shared" si="36"/>
+        <v>3.5416666665696539E-2</v>
+      </c>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v>Quarta</v>
       </c>
     </row>
   </sheetData>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -245,7 +245,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -283,11 +283,14 @@
     <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -592,11 +595,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3922,85 +3925,85 @@
       </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="9">
+      <c r="A80" s="23">
         <v>39931.401388888888</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="9">
+      <c r="B80" s="15"/>
+      <c r="C80" s="23">
         <v>39931.52847222222</v>
       </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="9">
+      <c r="D80" s="15"/>
+      <c r="E80" s="23">
         <v>39931.568055555559</v>
       </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="9">
+      <c r="F80" s="15"/>
+      <c r="G80" s="23">
         <v>39931.789583333331</v>
       </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="20">
+      <c r="H80" s="23"/>
+      <c r="I80" s="21">
         <f t="shared" si="11"/>
         <v>3.9583333338669036E-2</v>
       </c>
-      <c r="J80" s="10"/>
-      <c r="K80" s="12">
+      <c r="J80" s="15"/>
+      <c r="K80" s="14">
         <f t="shared" si="9"/>
         <v>0.34861111110512866</v>
       </c>
-      <c r="L80" s="10"/>
-      <c r="M80" s="12">
+      <c r="L80" s="15"/>
+      <c r="M80" s="14">
         <f t="shared" si="12"/>
         <v>0.34652777777713101</v>
       </c>
-      <c r="N80" s="10"/>
-      <c r="O80" s="13">
+      <c r="N80" s="15"/>
+      <c r="O80" s="22">
         <f t="shared" si="13"/>
         <v>1.3194444443797693E-2</v>
       </c>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10" t="str">
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15" t="str">
         <f t="shared" si="10"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="9">
+      <c r="A81" s="23">
         <v>39932.336805555555</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="9">
+      <c r="B81" s="15"/>
+      <c r="C81" s="23">
         <v>39932.537499999999</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="9">
+      <c r="D81" s="15"/>
+      <c r="E81" s="23">
         <v>39932.586805555555</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="9">
+      <c r="F81" s="15"/>
+      <c r="G81" s="23">
         <v>39932.70208333333</v>
       </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="20">
+      <c r="H81" s="23"/>
+      <c r="I81" s="21">
         <f t="shared" si="11"/>
         <v>4.9305555556202307E-2</v>
       </c>
-      <c r="J81" s="10"/>
-      <c r="K81" s="12">
+      <c r="J81" s="15"/>
+      <c r="K81" s="14">
         <f t="shared" si="9"/>
         <v>0.31597222221898846</v>
       </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="12">
+      <c r="L81" s="15"/>
+      <c r="M81" s="14">
         <f t="shared" si="12"/>
         <v>0.31597222221898846</v>
       </c>
-      <c r="N81" s="10"/>
-      <c r="O81" s="13">
+      <c r="N81" s="15"/>
+      <c r="O81" s="22">
         <f t="shared" si="13"/>
         <v>-1.7361111114344852E-2</v>
       </c>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10" t="str">
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15" t="str">
         <f t="shared" si="10"/>
         <v>Terça</v>
       </c>
@@ -4119,549 +4122,633 @@
       </c>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="7">
+      <c r="A85" s="9">
         <v>39938.381944444445</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="7">
+      <c r="B85" s="10"/>
+      <c r="C85" s="9">
         <v>39938.531944444447</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="7">
+      <c r="D85" s="10"/>
+      <c r="E85" s="9">
         <v>39938.583333333336</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="7">
+      <c r="F85" s="10"/>
+      <c r="G85" s="9">
         <v>39938.785416666666</v>
       </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="16">
+      <c r="H85" s="9"/>
+      <c r="I85" s="20">
         <f t="shared" si="11"/>
         <v>5.1388888889050577E-2</v>
       </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="14">
+      <c r="J85" s="10"/>
+      <c r="K85" s="12">
         <f t="shared" si="9"/>
         <v>0.35208333333139308</v>
       </c>
-      <c r="L85" s="8"/>
-      <c r="M85" s="5">
+      <c r="L85" s="10"/>
+      <c r="M85" s="12">
         <f t="shared" si="12"/>
         <v>0.35208333333139308</v>
       </c>
-      <c r="N85" s="8"/>
-      <c r="O85" s="6">
+      <c r="N85" s="10"/>
+      <c r="O85" s="13">
         <f t="shared" si="13"/>
         <v>1.8749999998059763E-2</v>
       </c>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="15" t="str">
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10" t="str">
         <f t="shared" si="10"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="7">
+      <c r="A86" s="9">
         <v>39939.408333333333</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="7">
+      <c r="B86" s="10"/>
+      <c r="C86" s="9">
         <v>39939.520833333336</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="7">
+      <c r="D86" s="10"/>
+      <c r="E86" s="9">
         <v>39939.568749999999</v>
       </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="7">
+      <c r="F86" s="10"/>
+      <c r="G86" s="9">
         <v>39939.831944444442</v>
       </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="16">
+      <c r="H86" s="9"/>
+      <c r="I86" s="20">
         <f t="shared" si="11"/>
         <v>4.7916666662786156E-2</v>
       </c>
-      <c r="J86" s="8"/>
-      <c r="K86" s="14">
+      <c r="J86" s="10"/>
+      <c r="K86" s="12">
         <f t="shared" si="9"/>
         <v>0.37569444444670808</v>
       </c>
-      <c r="L86" s="8"/>
-      <c r="M86" s="5">
+      <c r="L86" s="10"/>
+      <c r="M86" s="12">
         <f t="shared" si="12"/>
         <v>0.37569444444670808</v>
       </c>
-      <c r="N86" s="8"/>
-      <c r="O86" s="6">
+      <c r="N86" s="10"/>
+      <c r="O86" s="13">
         <f t="shared" si="13"/>
         <v>4.2361111113374761E-2</v>
       </c>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="15" t="str">
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10" t="str">
         <f t="shared" si="10"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="7">
+      <c r="A87" s="9">
         <v>39940.400000000001</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="7">
+      <c r="B87" s="10"/>
+      <c r="C87" s="9">
         <v>39940.523611111108</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="7">
+      <c r="D87" s="10"/>
+      <c r="E87" s="9">
         <v>39940.568055555559</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="7">
+      <c r="F87" s="10"/>
+      <c r="G87" s="9">
         <v>39940.831944444442</v>
       </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="16">
+      <c r="H87" s="9"/>
+      <c r="I87" s="20">
         <f t="shared" si="11"/>
         <v>4.444444445107365E-2</v>
       </c>
-      <c r="J87" s="8"/>
-      <c r="K87" s="14">
+      <c r="J87" s="10"/>
+      <c r="K87" s="12">
         <f t="shared" si="9"/>
         <v>0.38749999998981366</v>
       </c>
-      <c r="L87" s="8"/>
-      <c r="M87" s="5">
+      <c r="L87" s="10"/>
+      <c r="M87" s="12">
         <f t="shared" si="12"/>
         <v>0.38749999998981366</v>
       </c>
-      <c r="N87" s="8"/>
-      <c r="O87" s="6">
+      <c r="N87" s="10"/>
+      <c r="O87" s="13">
         <f t="shared" si="13"/>
         <v>5.4166666656480345E-2</v>
       </c>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="15" t="str">
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10" t="str">
         <f t="shared" si="10"/>
         <v>Quarta</v>
       </c>
     </row>
     <row r="88" spans="1:17">
-      <c r="A88" s="7">
+      <c r="A88" s="9">
         <v>39941.405555555553</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="7">
+      <c r="B88" s="10"/>
+      <c r="C88" s="9">
         <v>39941.536111111112</v>
       </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="7">
+      <c r="D88" s="10"/>
+      <c r="E88" s="9">
         <v>39941.570833333331</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="7">
+      <c r="F88" s="10"/>
+      <c r="G88" s="9">
         <v>39941.801388888889</v>
       </c>
-      <c r="H88" s="7"/>
-      <c r="I88" s="16">
+      <c r="H88" s="9"/>
+      <c r="I88" s="20">
         <f t="shared" si="11"/>
         <v>3.4722222218988463E-2</v>
       </c>
-      <c r="J88" s="8"/>
-      <c r="K88" s="14">
+      <c r="J88" s="10"/>
+      <c r="K88" s="12">
         <f t="shared" si="9"/>
         <v>0.36111111111677019</v>
       </c>
-      <c r="L88" s="8"/>
-      <c r="M88" s="5">
+      <c r="L88" s="10"/>
+      <c r="M88" s="12">
         <f t="shared" si="12"/>
         <v>0.35416666666909197</v>
       </c>
-      <c r="N88" s="8"/>
-      <c r="O88" s="6">
+      <c r="N88" s="10"/>
+      <c r="O88" s="13">
         <f t="shared" si="13"/>
         <v>2.0833333335758653E-2</v>
       </c>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="15" t="str">
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10" t="str">
         <f t="shared" si="10"/>
         <v>Quinta</v>
       </c>
     </row>
     <row r="89" spans="1:17">
-      <c r="A89" s="7">
+      <c r="A89" s="9">
         <v>39942.324305555558</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="7">
+      <c r="B89" s="10"/>
+      <c r="C89" s="9">
         <v>39942.509027777778</v>
       </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="7">
+      <c r="D89" s="10"/>
+      <c r="E89" s="9">
         <v>39942.554861111108</v>
       </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="7">
+      <c r="F89" s="10"/>
+      <c r="G89" s="9">
         <v>39942.698611111111</v>
       </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="16">
+      <c r="H89" s="10"/>
+      <c r="I89" s="20">
         <f t="shared" ref="I89" si="14">E89-C89</f>
         <v>4.5833333329937886E-2</v>
       </c>
-      <c r="J89" s="8"/>
-      <c r="K89" s="14">
+      <c r="J89" s="10"/>
+      <c r="K89" s="12">
         <f t="shared" ref="K89" si="15">(G89-E89)+(C89-A89)</f>
         <v>0.32847222222335404</v>
       </c>
-      <c r="L89" s="8"/>
-      <c r="M89" s="5">
+      <c r="L89" s="10"/>
+      <c r="M89" s="12">
         <f t="shared" ref="M89" si="16">IF((E89-C89)*1440&lt;60,K89-(("01:00:00"-I89)),K89)</f>
         <v>0.32847222222335404</v>
       </c>
-      <c r="N89" s="8"/>
-      <c r="O89" s="6">
+      <c r="N89" s="10"/>
+      <c r="O89" s="13">
         <f t="shared" ref="O89" si="17">IF(OR(WEEKDAY(A89)=7,WEEKDAY(A89)=1),M89,M89-"08:00:00")</f>
         <v>-4.861111109979277E-3</v>
       </c>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="15" t="str">
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10" t="str">
         <f t="shared" ref="Q89:Q90" si="18">IF(WEEKDAY(A89)=1,"Domingo",IF(WEEKDAY(A89)=2,"Segunda",IF(WEEKDAY(A89)=3,"Terça",IF(WEEKDAY(A89)=4,"Quarta",IF(WEEKDAY(A89)=5,"Quinta",IF(WEEKDAY(A89)=6,"Sexta",IF(WEEKDAY(A89)=7,"Sábado","Domingo")))))))</f>
         <v>Sexta</v>
       </c>
     </row>
     <row r="90" spans="1:17">
-      <c r="A90" s="11">
+      <c r="A90" s="24">
         <v>39945.402083333334</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11">
+      <c r="B90" s="15"/>
+      <c r="C90" s="24">
         <v>39945.536111111112</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11">
+      <c r="D90" s="15"/>
+      <c r="E90" s="24">
         <v>39945.578472222223</v>
       </c>
-      <c r="F90" s="10"/>
-      <c r="G90" s="11">
+      <c r="F90" s="15"/>
+      <c r="G90" s="24">
         <v>39945.786805555559</v>
       </c>
-      <c r="H90" s="10"/>
-      <c r="I90" s="20">
+      <c r="H90" s="15"/>
+      <c r="I90" s="21">
         <f t="shared" ref="I90" si="19">E90-C90</f>
         <v>4.2361111110949423E-2</v>
       </c>
-      <c r="J90" s="10"/>
-      <c r="K90" s="12">
+      <c r="J90" s="15"/>
+      <c r="K90" s="14">
         <f t="shared" ref="K90" si="20">(G90-E90)+(C90-A90)</f>
         <v>0.34236111111385981</v>
       </c>
-      <c r="L90" s="10"/>
-      <c r="M90" s="12">
+      <c r="L90" s="15"/>
+      <c r="M90" s="14">
         <f t="shared" ref="M90" si="21">IF((E90-C90)*1440&lt;60,K90-(("01:00:00"-I90)),K90)</f>
         <v>0.34236111111385981</v>
       </c>
-      <c r="N90" s="10"/>
-      <c r="O90" s="13">
+      <c r="N90" s="15"/>
+      <c r="O90" s="22">
         <f t="shared" ref="O90" si="22">IF(OR(WEEKDAY(A90)=7,WEEKDAY(A90)=1),M90,M90-"08:00:00")</f>
         <v>9.0277777805264914E-3</v>
       </c>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="10" t="str">
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15" t="str">
         <f t="shared" si="18"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="11">
+      <c r="A91" s="24">
         <v>39946.412499999999</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="9">
+      <c r="B91" s="15"/>
+      <c r="C91" s="23">
         <v>39946.527083333334</v>
       </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11">
+      <c r="D91" s="15"/>
+      <c r="E91" s="24">
         <v>39946.56527777778</v>
       </c>
-      <c r="F91" s="10"/>
-      <c r="G91" s="11">
+      <c r="F91" s="15"/>
+      <c r="G91" s="24">
         <v>39946.788194444445</v>
       </c>
-      <c r="H91" s="10"/>
-      <c r="I91" s="20">
+      <c r="H91" s="15"/>
+      <c r="I91" s="21">
         <f t="shared" ref="I91" si="23">E91-C91</f>
         <v>3.8194444445252884E-2</v>
       </c>
-      <c r="J91" s="10"/>
-      <c r="K91" s="12">
+      <c r="J91" s="15"/>
+      <c r="K91" s="14">
         <f t="shared" ref="K91" si="24">(G91-E91)+(C91-A91)</f>
         <v>0.33750000000145519</v>
       </c>
-      <c r="L91" s="10"/>
-      <c r="M91" s="12">
+      <c r="L91" s="15"/>
+      <c r="M91" s="14">
         <f t="shared" ref="M91" si="25">IF((E91-C91)*1440&lt;60,K91-(("01:00:00"-I91)),K91)</f>
         <v>0.33402777778004139</v>
       </c>
-      <c r="N91" s="10"/>
-      <c r="O91" s="13">
+      <c r="N91" s="15"/>
+      <c r="O91" s="22">
         <f t="shared" ref="O91" si="26">IF(OR(WEEKDAY(A91)=7,WEEKDAY(A91)=1),M91,M91-"08:00:00")</f>
         <v>6.944444467080757E-4</v>
       </c>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="10" t="str">
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15" t="str">
         <f t="shared" ref="Q91" si="27">IF(WEEKDAY(A91)=1,"Domingo",IF(WEEKDAY(A91)=2,"Segunda",IF(WEEKDAY(A91)=3,"Terça",IF(WEEKDAY(A91)=4,"Quarta",IF(WEEKDAY(A91)=5,"Quinta",IF(WEEKDAY(A91)=6,"Sexta",IF(WEEKDAY(A91)=7,"Sábado","Domingo")))))))</f>
         <v>Terça</v>
       </c>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="11">
+      <c r="A92" s="24">
         <v>39947.411111111112</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11">
+      <c r="B92" s="15"/>
+      <c r="C92" s="24">
         <v>39947.525694444441</v>
       </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11">
+      <c r="D92" s="15"/>
+      <c r="E92" s="24">
         <v>39947.572222222225</v>
       </c>
-      <c r="F92" s="10"/>
-      <c r="G92" s="11">
+      <c r="F92" s="15"/>
+      <c r="G92" s="24">
         <v>39947.795138888891</v>
       </c>
-      <c r="H92" s="10"/>
-      <c r="I92" s="20">
+      <c r="H92" s="15"/>
+      <c r="I92" s="21">
         <f t="shared" ref="I92" si="28">E92-C92</f>
         <v>4.652777778392192E-2</v>
       </c>
-      <c r="J92" s="10"/>
-      <c r="K92" s="12">
+      <c r="J92" s="15"/>
+      <c r="K92" s="14">
         <f t="shared" ref="K92" si="29">(G92-E92)+(C92-A92)</f>
         <v>0.33749999999417923</v>
       </c>
-      <c r="L92" s="10"/>
-      <c r="M92" s="12">
+      <c r="L92" s="15"/>
+      <c r="M92" s="14">
         <f t="shared" ref="M92" si="30">IF((E92-C92)*1440&lt;60,K92-(("01:00:00"-I92)),K92)</f>
         <v>0.33749999999417923</v>
       </c>
-      <c r="N92" s="10"/>
-      <c r="O92" s="13">
+      <c r="N92" s="15"/>
+      <c r="O92" s="22">
         <f t="shared" ref="O92" si="31">IF(OR(WEEKDAY(A92)=7,WEEKDAY(A92)=1),M92,M92-"08:00:00")</f>
         <v>4.1666666608459191E-3</v>
       </c>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="10" t="str">
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15" t="str">
         <f t="shared" ref="Q92" si="32">IF(WEEKDAY(A92)=1,"Domingo",IF(WEEKDAY(A92)=2,"Segunda",IF(WEEKDAY(A92)=3,"Terça",IF(WEEKDAY(A92)=4,"Quarta",IF(WEEKDAY(A92)=5,"Quinta",IF(WEEKDAY(A92)=6,"Sexta",IF(WEEKDAY(A92)=7,"Sábado","Domingo")))))))</f>
         <v>Quarta</v>
       </c>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="11">
+      <c r="A93" s="24">
         <v>39948.409722222219</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="11">
+      <c r="B93" s="15"/>
+      <c r="C93" s="24">
         <v>39948.538194444445</v>
       </c>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11">
+      <c r="D93" s="15"/>
+      <c r="E93" s="24">
         <v>39948.576388888891</v>
       </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="11">
+      <c r="F93" s="15"/>
+      <c r="G93" s="24">
         <v>39948.805555555555</v>
       </c>
-      <c r="H93" s="10"/>
-      <c r="I93" s="20">
-        <f t="shared" ref="I93:I97" si="33">E93-C93</f>
+      <c r="H93" s="15"/>
+      <c r="I93" s="21">
+        <f t="shared" ref="I93:I99" si="33">E93-C93</f>
         <v>3.8194444445252884E-2</v>
       </c>
-      <c r="J93" s="10"/>
-      <c r="K93" s="12">
-        <f t="shared" ref="K93:K97" si="34">(G93-E93)+(C93-A93)</f>
+      <c r="J93" s="15"/>
+      <c r="K93" s="14">
+        <f t="shared" ref="K93:K99" si="34">(G93-E93)+(C93-A93)</f>
         <v>0.35763888889050577</v>
       </c>
-      <c r="L93" s="10"/>
-      <c r="M93" s="12">
-        <f t="shared" ref="M93:M97" si="35">IF((E93-C93)*1440&lt;60,K93-(("01:00:00"-I93)),K93)</f>
+      <c r="L93" s="15"/>
+      <c r="M93" s="14">
+        <f t="shared" ref="M93:M99" si="35">IF((E93-C93)*1440&lt;60,K93-(("01:00:00"-I93)),K93)</f>
         <v>0.35416666666909197</v>
       </c>
-      <c r="N93" s="10"/>
-      <c r="O93" s="13">
-        <f t="shared" ref="O93:O97" si="36">IF(OR(WEEKDAY(A93)=7,WEEKDAY(A93)=1),M93,M93-"08:00:00")</f>
+      <c r="N93" s="15"/>
+      <c r="O93" s="22">
+        <f t="shared" ref="O93:O99" si="36">IF(OR(WEEKDAY(A93)=7,WEEKDAY(A93)=1),M93,M93-"08:00:00")</f>
         <v>2.0833333335758653E-2</v>
       </c>
-      <c r="P93" s="10"/>
-      <c r="Q93" s="10" t="str">
-        <f t="shared" ref="Q93:Q97" si="37">IF(WEEKDAY(A93)=1,"Domingo",IF(WEEKDAY(A93)=2,"Segunda",IF(WEEKDAY(A93)=3,"Terça",IF(WEEKDAY(A93)=4,"Quarta",IF(WEEKDAY(A93)=5,"Quinta",IF(WEEKDAY(A93)=6,"Sexta",IF(WEEKDAY(A93)=7,"Sábado","Domingo")))))))</f>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15" t="str">
+        <f t="shared" ref="Q93:Q99" si="37">IF(WEEKDAY(A93)=1,"Domingo",IF(WEEKDAY(A93)=2,"Segunda",IF(WEEKDAY(A93)=3,"Terça",IF(WEEKDAY(A93)=4,"Quarta",IF(WEEKDAY(A93)=5,"Quinta",IF(WEEKDAY(A93)=6,"Sexta",IF(WEEKDAY(A93)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="11">
+      <c r="A94" s="24">
         <v>39949.319444444445</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11">
+      <c r="B94" s="15"/>
+      <c r="C94" s="24">
         <v>39949.549305555556</v>
       </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="11">
+      <c r="D94" s="15"/>
+      <c r="E94" s="24">
         <v>39949.586805555555</v>
       </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="11">
+      <c r="F94" s="15"/>
+      <c r="G94" s="24">
         <v>39949.700694444444</v>
       </c>
-      <c r="H94" s="10"/>
-      <c r="I94" s="20">
+      <c r="H94" s="15"/>
+      <c r="I94" s="21">
         <f t="shared" si="33"/>
         <v>3.7499999998544808E-2</v>
       </c>
-      <c r="J94" s="10"/>
-      <c r="K94" s="12">
+      <c r="J94" s="15"/>
+      <c r="K94" s="14">
         <f t="shared" si="34"/>
         <v>0.34375</v>
       </c>
-      <c r="L94" s="10"/>
-      <c r="M94" s="12">
+      <c r="L94" s="15"/>
+      <c r="M94" s="14">
         <f t="shared" si="35"/>
         <v>0.33958333333187812</v>
       </c>
-      <c r="N94" s="10"/>
-      <c r="O94" s="13">
+      <c r="N94" s="15"/>
+      <c r="O94" s="22">
         <f t="shared" si="36"/>
         <v>6.2499999985448085E-3</v>
       </c>
-      <c r="P94" s="10"/>
-      <c r="Q94" s="10" t="str">
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15" t="str">
         <f t="shared" si="37"/>
         <v>Sexta</v>
       </c>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="21">
+      <c r="A95" s="11">
         <v>39952.402083333334</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="21">
+      <c r="B95" s="10"/>
+      <c r="C95" s="11">
         <v>39952.541666666664</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="21">
+      <c r="D95" s="10"/>
+      <c r="E95" s="11">
         <v>39952.582638888889</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="21">
+      <c r="F95" s="10"/>
+      <c r="G95" s="11">
         <v>39952.788194444445</v>
       </c>
-      <c r="H95" s="8"/>
-      <c r="I95" s="22">
+      <c r="H95" s="10"/>
+      <c r="I95" s="20">
         <f t="shared" si="33"/>
         <v>4.0972222224809229E-2</v>
       </c>
-      <c r="J95" s="8"/>
-      <c r="K95" s="14">
+      <c r="J95" s="10"/>
+      <c r="K95" s="12">
         <f t="shared" si="34"/>
         <v>0.34513888888614019</v>
       </c>
-      <c r="L95" s="8"/>
-      <c r="M95" s="14">
+      <c r="L95" s="10"/>
+      <c r="M95" s="12">
         <f t="shared" si="35"/>
         <v>0.34444444444428274</v>
       </c>
-      <c r="N95" s="8"/>
-      <c r="O95" s="23">
+      <c r="N95" s="10"/>
+      <c r="O95" s="13">
         <f t="shared" si="36"/>
         <v>1.1111111110949423E-2</v>
       </c>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="15" t="str">
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10" t="str">
         <f t="shared" si="37"/>
         <v>Segunda</v>
       </c>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96" s="21">
+      <c r="A96" s="11">
         <v>39953.404861111114</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="21">
+      <c r="B96" s="10"/>
+      <c r="C96" s="11">
         <v>39953.543055555558</v>
       </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="21">
+      <c r="D96" s="10"/>
+      <c r="E96" s="11">
         <v>39953.579861111109</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="21">
+      <c r="F96" s="10"/>
+      <c r="G96" s="11">
         <v>39953.788888888892</v>
       </c>
-      <c r="H96" s="8"/>
-      <c r="I96" s="22">
+      <c r="H96" s="10"/>
+      <c r="I96" s="20">
         <f t="shared" si="33"/>
         <v>3.6805555551836733E-2</v>
       </c>
-      <c r="J96" s="8"/>
-      <c r="K96" s="14">
+      <c r="J96" s="10"/>
+      <c r="K96" s="12">
         <f t="shared" si="34"/>
         <v>0.34722222222626442</v>
       </c>
-      <c r="L96" s="8"/>
-      <c r="M96" s="14">
+      <c r="L96" s="10"/>
+      <c r="M96" s="12">
         <f t="shared" si="35"/>
         <v>0.34236111111143447</v>
       </c>
-      <c r="N96" s="8"/>
-      <c r="O96" s="23">
+      <c r="N96" s="10"/>
+      <c r="O96" s="13">
         <f t="shared" si="36"/>
         <v>9.0277777781011537E-3</v>
       </c>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="15" t="str">
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10" t="str">
         <f t="shared" si="37"/>
         <v>Terça</v>
       </c>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="21">
+      <c r="A97" s="11">
         <v>39954.402083333334</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="21">
+      <c r="B97" s="10"/>
+      <c r="C97" s="11">
         <v>39954.541666666664</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="21">
+      <c r="D97" s="10"/>
+      <c r="E97" s="11">
         <v>39954.57916666667</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="21">
+      <c r="F97" s="10"/>
+      <c r="G97" s="11">
         <v>39954.8125</v>
       </c>
-      <c r="H97" s="8"/>
-      <c r="I97" s="22">
+      <c r="H97" s="10"/>
+      <c r="I97" s="20">
         <f t="shared" si="33"/>
         <v>3.7500000005820766E-2</v>
       </c>
-      <c r="J97" s="8"/>
-      <c r="K97" s="14">
+      <c r="J97" s="10"/>
+      <c r="K97" s="12">
         <f t="shared" si="34"/>
         <v>0.37291666665987577</v>
       </c>
-      <c r="L97" s="8"/>
-      <c r="M97" s="14">
+      <c r="L97" s="10"/>
+      <c r="M97" s="12">
         <f t="shared" si="35"/>
         <v>0.36874999999902985</v>
       </c>
-      <c r="N97" s="8"/>
-      <c r="O97" s="23">
+      <c r="N97" s="10"/>
+      <c r="O97" s="13">
         <f t="shared" si="36"/>
         <v>3.5416666665696539E-2</v>
       </c>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="15" t="str">
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10" t="str">
         <f t="shared" si="37"/>
         <v>Quarta</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="11">
+        <v>39955.375</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="11">
+        <v>39955.545138888891</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11">
+        <v>39955.589583333334</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="11">
+        <v>39955.801388888889</v>
+      </c>
+      <c r="H98" s="10"/>
+      <c r="I98" s="20">
+        <f t="shared" si="33"/>
+        <v>4.4444444443797693E-2</v>
+      </c>
+      <c r="J98" s="10"/>
+      <c r="K98" s="12">
+        <f t="shared" si="34"/>
+        <v>0.38194444444525288</v>
+      </c>
+      <c r="L98" s="10"/>
+      <c r="M98" s="12">
+        <f t="shared" si="35"/>
+        <v>0.38194444444525288</v>
+      </c>
+      <c r="N98" s="10"/>
+      <c r="O98" s="13">
+        <f t="shared" si="36"/>
+        <v>4.8611111111919569E-2</v>
+      </c>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>Quinta</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="11">
+        <v>39956.402083333334</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11">
+        <v>39956.540972222225</v>
+      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="11">
+        <v>39956.578472222223</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="11">
+        <v>39956.78125</v>
+      </c>
+      <c r="H99" s="10"/>
+      <c r="I99" s="20">
+        <f t="shared" si="33"/>
+        <v>3.7499999998544808E-2</v>
+      </c>
+      <c r="J99" s="10"/>
+      <c r="K99" s="12">
+        <f t="shared" si="34"/>
+        <v>0.34166666666715173</v>
+      </c>
+      <c r="L99" s="10"/>
+      <c r="M99" s="12">
+        <f t="shared" si="35"/>
+        <v>0.33749999999902985</v>
+      </c>
+      <c r="N99" s="10"/>
+      <c r="O99" s="13">
+        <f t="shared" si="36"/>
+        <v>4.166666665696539E-3</v>
+      </c>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10" t="str">
+        <f t="shared" si="37"/>
+        <v>Sexta</v>
       </c>
     </row>
   </sheetData>

--- a/Horas Trabalhadas.xlsx
+++ b/Horas Trabalhadas.xlsx
@@ -245,7 +245,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -291,6 +291,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Entrada" xfId="2" builtinId="20"/>
@@ -595,11 +596,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4475,27 +4476,27 @@
       </c>
       <c r="H93" s="15"/>
       <c r="I93" s="21">
-        <f t="shared" ref="I93:I99" si="33">E93-C93</f>
+        <f t="shared" ref="I93:I102" si="33">E93-C93</f>
         <v>3.8194444445252884E-2</v>
       </c>
       <c r="J93" s="15"/>
       <c r="K93" s="14">
-        <f t="shared" ref="K93:K99" si="34">(G93-E93)+(C93-A93)</f>
+        <f t="shared" ref="K93:K102" si="34">(G93-E93)+(C93-A93)</f>
         <v>0.35763888889050577</v>
       </c>
       <c r="L93" s="15"/>
       <c r="M93" s="14">
-        <f t="shared" ref="M93:M99" si="35">IF((E93-C93)*1440&lt;60,K93-(("01:00:00"-I93)),K93)</f>
+        <f t="shared" ref="M93:M102" si="35">IF((E93-C93)*1440&lt;60,K93-(("01:00:00"-I93)),K93)</f>
         <v>0.35416666666909197</v>
       </c>
       <c r="N93" s="15"/>
       <c r="O93" s="22">
-        <f t="shared" ref="O93:O99" si="36">IF(OR(WEEKDAY(A93)=7,WEEKDAY(A93)=1),M93,M93-"08:00:00")</f>
+        <f t="shared" ref="O93:O102" si="36">IF(OR(WEEKDAY(A93)=7,WEEKDAY(A93)=1),M93,M93-"08:00:00")</f>
         <v>2.0833333335758653E-2</v>
       </c>
       <c r="P93" s="15"/>
       <c r="Q93" s="15" t="str">
-        <f t="shared" ref="Q93:Q99" si="37">IF(WEEKDAY(A93)=1,"Domingo",IF(WEEKDAY(A93)=2,"Segunda",IF(WEEKDAY(A93)=3,"Terça",IF(WEEKDAY(A93)=4,"Quarta",IF(WEEKDAY(A93)=5,"Quinta",IF(WEEKDAY(A93)=6,"Sexta",IF(WEEKDAY(A93)=7,"Sábado","Domingo")))))))</f>
+        <f t="shared" ref="Q93:Q102" si="37">IF(WEEKDAY(A93)=1,"Domingo",IF(WEEKDAY(A93)=2,"Segunda",IF(WEEKDAY(A93)=3,"Terça",IF(WEEKDAY(A93)=4,"Quarta",IF(WEEKDAY(A93)=5,"Quinta",IF(WEEKDAY(A93)=6,"Sexta",IF(WEEKDAY(A93)=7,"Sábado","Domingo")))))))</f>
         <v>Quinta</v>
       </c>
     </row>
@@ -4749,6 +4750,132 @@
       <c r="Q99" s="10" t="str">
         <f t="shared" si="37"/>
         <v>Sexta</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="25">
+        <v>39959.40902777778</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="25">
+        <v>39959.551388888889</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="25">
+        <v>39959.588888888888</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="25">
+        <v>39959.82708333333</v>
+      </c>
+      <c r="H100" s="8"/>
+      <c r="I100" s="21">
+        <f t="shared" si="33"/>
+        <v>3.7499999998544808E-2</v>
+      </c>
+      <c r="J100" s="8"/>
+      <c r="K100" s="14">
+        <f t="shared" si="34"/>
+        <v>0.38055555555183673</v>
+      </c>
+      <c r="L100" s="8"/>
+      <c r="M100" s="14">
+        <f t="shared" si="35"/>
+        <v>0.37638888888371486</v>
+      </c>
+      <c r="N100" s="8"/>
+      <c r="O100" s="22">
+        <f t="shared" si="36"/>
+        <v>4.3055555550381541E-2</v>
+      </c>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v>Segunda</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="25">
+        <v>39960.402777777781</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="25">
+        <v>39960.570833333331</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="25">
+        <v>39960.612500000003</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="25">
+        <v>39960.791666666664</v>
+      </c>
+      <c r="H101" s="8"/>
+      <c r="I101" s="21">
+        <f t="shared" si="33"/>
+        <v>4.1666666671517305E-2</v>
+      </c>
+      <c r="J101" s="8"/>
+      <c r="K101" s="14">
+        <f t="shared" si="34"/>
+        <v>0.34722222221171251</v>
+      </c>
+      <c r="L101" s="8"/>
+      <c r="M101" s="14">
+        <f t="shared" si="35"/>
+        <v>0.34722222221171251</v>
+      </c>
+      <c r="N101" s="8"/>
+      <c r="O101" s="22">
+        <f t="shared" si="36"/>
+        <v>1.3888888878379191E-2</v>
+      </c>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v>Terça</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="25">
+        <v>39961.406944444447</v>
+      </c>
+      <c r="B102" s="8"/>
+      <c r="C102" s="25">
+        <v>39961.559027777781</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="25">
+        <v>39961.598611111112</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="25">
+        <v>39961.89166666667</v>
+      </c>
+      <c r="H102" s="8"/>
+      <c r="I102" s="21">
+        <f t="shared" ref="I102" si="38">E102-C102</f>
+        <v>3.9583333331393078E-2</v>
+      </c>
+      <c r="J102" s="8"/>
+      <c r="K102" s="14">
+        <f t="shared" ref="K102" si="39">(G102-E102)+(C102-A102)</f>
+        <v>0.44513888889196096</v>
+      </c>
+      <c r="L102" s="8"/>
+      <c r="M102" s="14">
+        <f t="shared" ref="M102" si="40">IF((E102-C102)*1440&lt;60,K102-(("01:00:00"-I102)),K102)</f>
+        <v>0.44305555555668735</v>
+      </c>
+      <c r="N102" s="8"/>
+      <c r="O102" s="22">
+        <f t="shared" ref="O102" si="41">IF(OR(WEEKDAY(A102)=7,WEEKDAY(A102)=1),M102,M102-"08:00:00")</f>
+        <v>0.10972222222335404</v>
+      </c>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="15" t="str">
+        <f t="shared" ref="Q102" si="42">IF(WEEKDAY(A102)=1,"Domingo",IF(WEEKDAY(A102)=2,"Segunda",IF(WEEKDAY(A102)=3,"Terça",IF(WEEKDAY(A102)=4,"Quarta",IF(WEEKDAY(A102)=5,"Quinta",IF(WEEKDAY(A102)=6,"Sexta",IF(WEEKDAY(A102)=7,"Sábado","Domingo")))))))</f>
+        <v>Quarta</v>
       </c>
     </row>
   </sheetData>
